--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4747C164-FBCB-4046-9AB8-0A6A65F9550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B25136D-B7BD-478B-8ABF-B5AE1AED332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,7 +127,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -410,19 +410,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -477,7 +478,7 @@
         <v>0.55370066760532299</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -506,7 +507,7 @@
         <v>0.54521530433132903</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -535,7 +536,7 @@
         <v>0.50335322298542595</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -575,20 +576,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,7 +615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -643,7 +644,7 @@
         <v>0.55261347947983797</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -672,7 +673,7 @@
         <v>0.53205009429244798</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -701,7 +702,7 @@
         <v>0.45742061963469099</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B25136D-B7BD-478B-8ABF-B5AE1AED332A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC6F78-6C87-4D4B-B7A4-D6D1ABDF975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>bert + lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + lstm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,15 +578,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
@@ -731,6 +735,35 @@
         <v>0.54720000000000002</v>
       </c>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.4501999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.54590000000000005</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DC6F78-6C87-4D4B-B7A4-D6D1ABDF975B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B8EA5-6E86-4757-8DC3-98DB07A1A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,6 +76,22 @@
   </si>
   <si>
     <t>roberta + lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta + lstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert + cnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>robert + cnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert + bilstm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -412,161 +428,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>1.4800509423058501</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>0.66685660970327298</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.64409568637525105</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0.66685660970327298</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>0.63908635347585596</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>0.32164394597309198</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>0.32397533647661603</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>0.55370066760532299</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>1.44975102880273</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>0.66058332477787796</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.63558093552992301</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0.66058332477787796</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>0.63045577316712098</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>0.30715774214506403</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.313187131023001</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>0.54521530433132903</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>1.58270289828581</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>0.64255996652048497</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.59080816764147304</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>0.64255996652048497</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>0.59583838432570702</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.27586856566350298</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.27781512936733999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.50335322298542595</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1.4539</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>0.66390000000000005</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.63580000000000003</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>0.66390000000000005</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>0.63270000000000004</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>0.31879999999999997</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>0.32179999999999997</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>0.54830000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4501999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.54590000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.4902000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.52E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.18E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.5245</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.4946999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.58109999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.5226</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6845</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.58230000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -578,22 +782,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -648,7 +852,7 @@
         <v>0.55261347947983797</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -677,7 +881,7 @@
         <v>0.53205009429244798</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -706,7 +910,7 @@
         <v>0.45742061963469099</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -733,39 +937,11 @@
       </c>
       <c r="I5" s="2">
         <v>0.54720000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1.4501999999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.65380000000000005</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.64070000000000005</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.65380000000000005</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.63419999999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.30430000000000001</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.31640000000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.54590000000000005</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52B8EA5-6E86-4757-8DC3-98DB07A1A5E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B2C7D6-714A-4A82-BC81-8518F7E26BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>bert + bilstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta + cnn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +435,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -729,6 +733,33 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.7863</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.47110000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B2C7D6-714A-4A82-BC81-8518F7E26BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DDC3BA-FD4A-4DAE-A16E-46BEBDE80247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>deberta + cnn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta + bilstm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,13 +439,13 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -797,6 +801,33 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.5179</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.56730000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DDC3BA-FD4A-4DAE-A16E-46BEBDE80247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CE7F5-304D-4FE2-BE79-7CE87B07EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>roberta + bilstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta + bilstm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 hrs 44 mins 30 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -450,9 +462,10 @@
     <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +490,11 @@
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -510,7 +526,7 @@
         <v>0.55370066760532299</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -542,7 +558,7 @@
         <v>0.54521530433132903</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -574,7 +590,7 @@
         <v>0.50335322298542595</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -582,31 +598,34 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>1.4539</v>
+        <v>1.4444999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.66390000000000005</v>
+        <v>0.67720000000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>0.63580000000000003</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="F5" s="2">
-        <v>0.66390000000000005</v>
+        <v>0.67720000000000002</v>
       </c>
       <c r="G5" s="2">
-        <v>0.63270000000000004</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="H5" s="2">
-        <v>0.31879999999999997</v>
+        <v>0.374</v>
       </c>
       <c r="I5" s="2">
-        <v>0.32179999999999997</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>0.54830000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -638,7 +657,7 @@
         <v>0.54590000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -670,7 +689,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -702,7 +721,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -734,7 +753,7 @@
         <v>0.58109999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -766,7 +785,7 @@
         <v>0.47110000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -798,7 +817,7 @@
         <v>0.58230000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -830,9 +849,36 @@
         <v>0.56730000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.2258</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.2700000000000001E-2</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1CE7F5-304D-4FE2-BE79-7CE87B07EA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077C92C-3AF1-413E-832B-577940923EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>total time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 hrs 41 mins 41 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 hrs 40 mins 59 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 hrs 8 mins 46 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 hrs 41 mins 55 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 hrs 29 mins 3 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 hrs 46 mins 19 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 hrs 5 mins 20 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 hrs 8 mins 24 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 hrs 59 mins 34 secs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +208,64 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -451,7 +544,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -502,28 +595,31 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>1.4800509423058501</v>
+        <v>1.5407</v>
       </c>
       <c r="D2" s="2">
-        <v>0.66685660970327298</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="E2" s="2">
-        <v>0.64409568637525105</v>
+        <v>0.68869999999999998</v>
       </c>
       <c r="F2" s="2">
-        <v>0.66685660970327298</v>
+        <v>0.68120000000000003</v>
       </c>
       <c r="G2" s="2">
-        <v>0.63908635347585596</v>
+        <v>0.67110000000000003</v>
       </c>
       <c r="H2" s="2">
-        <v>0.32164394597309198</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I2" s="2">
-        <v>0.32397533647661603</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="J2" s="2">
-        <v>0.55370066760532299</v>
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -656,6 +752,9 @@
       <c r="J6" s="2">
         <v>0.54590000000000005</v>
       </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -688,6 +787,9 @@
       <c r="J7" s="2">
         <v>2.8400000000000002E-2</v>
       </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -720,6 +822,9 @@
       <c r="J8" s="2">
         <v>0.57599999999999996</v>
       </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -752,6 +857,9 @@
       <c r="J9" s="2">
         <v>0.58109999999999995</v>
       </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -784,6 +892,9 @@
       <c r="J10" s="2">
         <v>0.47110000000000002</v>
       </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -816,6 +927,9 @@
       <c r="J11" s="2">
         <v>0.58230000000000004</v>
       </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -848,6 +962,9 @@
       <c r="J12" s="2">
         <v>0.56730000000000003</v>
       </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -880,9 +997,36 @@
       <c r="J13" s="2">
         <v>2.2700000000000001E-2</v>
       </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="top10" dxfId="6" priority="7" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="top10" dxfId="5" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="top10" dxfId="4" priority="5" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077C92C-3AF1-413E-832B-577940923EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822F27C-0FED-47B8-BFFB-09544F25A2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822F27C-0FED-47B8-BFFB-09544F25A2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C567E8-EA2A-4888-A7B0-0DA88D7FE025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,38 @@
   </si>
   <si>
     <t>3 hrs 59 mins 34 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 hrs 54 mins 34 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 hrs 22 mins 39 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 hrs 38 mins 41 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 hrs 40 mins 24 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12 hrs 12 mins 1 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 31 mins 35 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世哲電腦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 hrs 30 mins 41 secs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1034,161 +1066,337 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>1.4694101314607799</v>
-      </c>
       <c r="C2" s="2">
-        <v>0.66471954890899199</v>
+        <v>1.4964</v>
       </c>
       <c r="D2" s="2">
-        <v>0.66299791445706502</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="E2" s="2">
-        <v>0.66471954890899199</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="F2" s="2">
-        <v>0.64502046722677098</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="G2" s="2">
-        <v>0.38213813781948403</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="H2" s="2">
-        <v>0.39326876343502098</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>0.55261347947983797</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
-        <v>1.44505114076713</v>
-      </c>
       <c r="C3" s="2">
-        <v>0.64805017169032597</v>
+        <v>1.5556000000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>0.64990819754797102</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="E3" s="2">
-        <v>0.64805017169032597</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="F3" s="2">
-        <v>0.62831015417420999</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>0.36539890077612203</v>
+        <v>0.6542</v>
       </c>
       <c r="H3" s="2">
-        <v>0.39019583807958502</v>
+        <v>0.41489999999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>0.53205009429244798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>1.6792079284841499</v>
-      </c>
       <c r="C4" s="2">
-        <v>0.62481283255751296</v>
+        <v>2.0638000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.58890893891412599</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="E4" s="2">
-        <v>0.62481283255751296</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="F4" s="2">
-        <v>0.58428923251136</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="G4" s="2">
-        <v>0.30716468986260598</v>
+        <v>0.54279999999999995</v>
       </c>
       <c r="H4" s="2">
-        <v>0.32445532069253202</v>
+        <v>0.2777</v>
       </c>
       <c r="I4" s="2">
-        <v>0.45742061963469099</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>0.2974</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5">
-        <v>1.4300999999999999</v>
-      </c>
       <c r="C5" s="2">
-        <v>0.66249999999999998</v>
+        <v>1.45</v>
       </c>
       <c r="D5" s="2">
-        <v>0.65429999999999999</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0.66249999999999998</v>
+        <v>0.67730000000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>0.6391</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>0.37659999999999999</v>
+        <v>0.6522</v>
       </c>
       <c r="H5" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.41489999999999999</v>
       </c>
       <c r="I5" s="2">
-        <v>0.54720000000000002</v>
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4863999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.9390999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.5187999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C567E8-EA2A-4888-A7B0-0DA88D7FE025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875FAFD-7A06-4AC6-AFB4-AC8CD442144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,26 @@
   </si>
   <si>
     <t>8 hrs 30 mins 41 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 43 mins 11 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 33 mins 20 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 39 mins 30 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 hrs 12 mins 21 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 hrs 4 mins 56 secs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,15 +252,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -575,22 +660,520 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.5407</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.67110000000000003</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1.44975102880273</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.66058332477787796</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.63558093552992301</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.66058332477787796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.63045577316712098</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.30715774214506403</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.313187131023001</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.54521530433132903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.58270289828581</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.64255996652048497</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.59080816764147304</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.64255996652048497</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.59583838432570702</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.27586856566350298</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.27781512936733999</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.50335322298542595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.4444999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.67720000000000002</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.374</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.57569999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.4501999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.64070000000000005</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.30430000000000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.31640000000000001</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2.4902000000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.46920000000000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1.52E-2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.18E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.5245</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.68240000000000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.41959999999999997</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.4946999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.68710000000000004</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.66990000000000005</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.40720000000000001</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.40849999999999997</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.7863</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.31240000000000001</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.47110000000000002</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.5226</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.6845</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.68220000000000003</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.41389999999999999</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.5179</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.66920000000000002</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.65590000000000004</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.37390000000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.37919999999999998</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.2258</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.47</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.30330000000000001</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="15" priority="8" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="top10" dxfId="14" priority="7" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="top10" dxfId="13" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="top10" dxfId="12" priority="5" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="11" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="top10" dxfId="10" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="top10" dxfId="9" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="top10" dxfId="8" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +1202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -627,34 +1210,34 @@
         <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>1.5407</v>
+        <v>1.4964</v>
       </c>
       <c r="D2" s="2">
-        <v>0.68120000000000003</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="E2" s="2">
-        <v>0.68869999999999998</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="F2" s="2">
-        <v>0.68120000000000003</v>
+        <v>0.66259999999999997</v>
       </c>
       <c r="G2" s="2">
-        <v>0.67110000000000003</v>
+        <v>0.65949999999999998</v>
       </c>
       <c r="H2" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>0.41799999999999998</v>
+        <v>0.45019999999999999</v>
       </c>
       <c r="J2" s="2">
-        <v>0.58140000000000003</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -662,31 +1245,34 @@
         <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>1.44975102880273</v>
+        <v>1.5556000000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>0.66058332477787796</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="E3" s="2">
-        <v>0.63558093552992301</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="F3" s="2">
-        <v>0.66058332477787796</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>0.63045577316712098</v>
+        <v>0.6542</v>
       </c>
       <c r="H3" s="2">
-        <v>0.30715774214506403</v>
+        <v>0.41489999999999999</v>
       </c>
       <c r="I3" s="2">
-        <v>0.313187131023001</v>
+        <v>0.44819999999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>0.54521530433132903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -694,66 +1280,69 @@
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>1.58270289828581</v>
+        <v>2.0638000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.64255996652048497</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="E4" s="2">
-        <v>0.59080816764147304</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="F4" s="2">
-        <v>0.64255996652048497</v>
+        <v>0.58709999999999996</v>
       </c>
       <c r="G4" s="2">
-        <v>0.59583838432570702</v>
+        <v>0.54279999999999995</v>
       </c>
       <c r="H4" s="2">
-        <v>0.27586856566350298</v>
+        <v>0.2777</v>
       </c>
       <c r="I4" s="2">
-        <v>0.27781512936733999</v>
+        <v>0.2974</v>
       </c>
       <c r="J4" s="2">
-        <v>0.50335322298542595</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1.4444999999999999</v>
+      <c r="C5" s="2">
+        <v>1.45</v>
       </c>
       <c r="D5" s="2">
-        <v>0.67720000000000002</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="E5" s="2">
-        <v>0.67520000000000002</v>
+        <v>0.67730000000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>0.67720000000000002</v>
+        <v>0.65739999999999998</v>
       </c>
       <c r="G5" s="2">
-        <v>0.66369999999999996</v>
+        <v>0.6522</v>
       </c>
       <c r="H5" s="2">
-        <v>0.374</v>
+        <v>0.41489999999999999</v>
       </c>
       <c r="I5" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.43990000000000001</v>
       </c>
       <c r="J5" s="2">
-        <v>0.57569999999999999</v>
+        <v>0.55549999999999999</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -761,34 +1350,34 @@
         <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>1.4501999999999999</v>
+        <v>1.4863999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.65380000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="E6" s="2">
-        <v>0.64070000000000005</v>
+        <v>0.65149999999999997</v>
       </c>
       <c r="F6" s="2">
-        <v>0.65380000000000005</v>
+        <v>0.626</v>
       </c>
       <c r="G6" s="2">
-        <v>0.63419999999999999</v>
+        <v>0.62439999999999996</v>
       </c>
       <c r="H6" s="2">
-        <v>0.30430000000000001</v>
+        <v>0.38669999999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>0.31640000000000001</v>
+        <v>0.43340000000000001</v>
       </c>
       <c r="J6" s="2">
-        <v>0.54590000000000005</v>
+        <v>0.52080000000000004</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -796,34 +1385,34 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>2.4902000000000002</v>
+        <v>2.9390999999999998</v>
       </c>
       <c r="D7" s="2">
-        <v>0.46920000000000001</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="E7" s="2">
-        <v>0.22650000000000001</v>
+        <v>0.22439999999999999</v>
       </c>
       <c r="F7" s="2">
-        <v>0.46920000000000001</v>
+        <v>0.46710000000000002</v>
       </c>
       <c r="G7" s="2">
-        <v>0.30409999999999998</v>
+        <v>0.30270000000000002</v>
       </c>
       <c r="H7" s="2">
-        <v>1.52E-2</v>
+        <v>1.4E-2</v>
       </c>
       <c r="I7" s="2">
-        <v>2.18E-2</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="J7" s="2">
-        <v>2.8400000000000002E-2</v>
+        <v>2.6200000000000001E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -831,34 +1420,37 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>1.5245</v>
+        <v>1.5187999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.67849999999999999</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="E8" s="2">
-        <v>0.68240000000000001</v>
+        <v>0.68899999999999995</v>
       </c>
       <c r="F8" s="2">
-        <v>0.67849999999999999</v>
+        <v>0.66569999999999996</v>
       </c>
       <c r="G8" s="2">
-        <v>0.66649999999999998</v>
+        <v>0.66149999999999998</v>
       </c>
       <c r="H8" s="2">
-        <v>0.41959999999999997</v>
+        <v>0.42630000000000001</v>
       </c>
       <c r="I8" s="2">
-        <v>0.42309999999999998</v>
+        <v>0.44290000000000002</v>
       </c>
       <c r="J8" s="2">
-        <v>0.57599999999999996</v>
+        <v>0.56720000000000004</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -866,34 +1458,34 @@
         <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>1.4946999999999999</v>
+        <v>1.5177</v>
       </c>
       <c r="D9" s="2">
-        <v>0.68100000000000005</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="E9" s="2">
-        <v>0.68710000000000004</v>
+        <v>0.67049999999999998</v>
       </c>
       <c r="F9" s="2">
-        <v>0.68100000000000005</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="G9" s="2">
-        <v>0.66990000000000005</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="H9" s="2">
-        <v>0.40720000000000001</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>0.40849999999999997</v>
+        <v>0.44190000000000002</v>
       </c>
       <c r="J9" s="2">
-        <v>0.58109999999999995</v>
+        <v>0.53979999999999995</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -901,34 +1493,34 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>1.7863</v>
+        <v>2.4456000000000002</v>
       </c>
       <c r="D10" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.55830000000000002</v>
       </c>
       <c r="E10" s="2">
-        <v>0.58660000000000001</v>
+        <v>0.45169999999999999</v>
       </c>
       <c r="F10" s="2">
-        <v>0.63200000000000001</v>
+        <v>0.55830000000000002</v>
       </c>
       <c r="G10" s="2">
-        <v>0.58989999999999998</v>
+        <v>0.47589999999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>0.31240000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I10" s="2">
-        <v>0.31669999999999998</v>
+        <v>0.23369999999999999</v>
       </c>
       <c r="J10" s="2">
-        <v>0.47110000000000002</v>
+        <v>0.27450000000000002</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -936,34 +1528,34 @@
         <v>16</v>
       </c>
       <c r="C11" s="2">
-        <v>1.5226</v>
+        <v>1.4487000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0.68220000000000003</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="E11" s="2">
-        <v>0.6845</v>
+        <v>0.6774</v>
       </c>
       <c r="F11" s="2">
-        <v>0.68220000000000003</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="G11" s="2">
-        <v>0.67200000000000004</v>
+        <v>0.65480000000000005</v>
       </c>
       <c r="H11" s="2">
-        <v>0.40410000000000001</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="I11" s="2">
-        <v>0.41389999999999999</v>
+        <v>0.44740000000000002</v>
       </c>
       <c r="J11" s="2">
-        <v>0.58230000000000004</v>
+        <v>0.55969999999999998</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -971,34 +1563,34 @@
         <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>1.5179</v>
+        <v>1.5306999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.66920000000000002</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="E12" s="2">
-        <v>0.67100000000000004</v>
+        <v>0.6714</v>
       </c>
       <c r="F12" s="2">
-        <v>0.66920000000000002</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="G12" s="2">
-        <v>0.65590000000000004</v>
+        <v>0.64249999999999996</v>
       </c>
       <c r="H12" s="2">
-        <v>0.37390000000000001</v>
+        <v>0.39729999999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>0.37919999999999998</v>
+        <v>0.42609999999999998</v>
       </c>
       <c r="J12" s="2">
-        <v>0.56730000000000003</v>
+        <v>0.53949999999999998</v>
       </c>
       <c r="K12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1006,31 +1598,31 @@
         <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.0388000000000002</v>
       </c>
       <c r="D13" s="2">
-        <v>0.47</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="E13" s="2">
-        <v>0.2258</v>
+        <v>0.51990000000000003</v>
       </c>
       <c r="F13" s="2">
-        <v>0.47</v>
+        <v>0.54520000000000002</v>
       </c>
       <c r="G13" s="2">
-        <v>0.30330000000000001</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="H13" s="2">
-        <v>1.4500000000000001E-2</v>
+        <v>0.21379999999999999</v>
       </c>
       <c r="I13" s="2">
-        <v>2.1299999999999999E-2</v>
+        <v>0.25009999999999999</v>
       </c>
       <c r="J13" s="2">
-        <v>2.2700000000000001E-2</v>
+        <v>0.38279999999999997</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1062,346 +1654,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.4964</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.68520000000000003</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.65949999999999998</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.43130000000000002</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.56540000000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.5556000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.68389999999999995</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.6542</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.41489999999999999</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.55410000000000004</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.0638000000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.58709999999999996</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.58709999999999996</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.54279999999999995</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.2777</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.2974</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.65739999999999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.65739999999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.6522</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.41489999999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.43990000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4863999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.62439999999999996</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.43340000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.9390999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.30270000000000002</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.5187999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.66149999999999998</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42630000000000001</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.44290000000000002</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.56720000000000004</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875FAFD-7A06-4AC6-AFB4-AC8CD442144A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618BFDC-8B43-413C-B1B7-2345EB7C157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12504" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,42 @@
   </si>
   <si>
     <t>3 hrs 4 mins 56 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-fold 用世哲電腦跑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 47 mins 49 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 42 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 8 mins 25 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 1 mins 9 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 51 mins 39 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 54 mins 45 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 54 mins 50 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 9 mins 8 secs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +305,77 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -658,12 +764,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -675,9 +781,12 @@
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,8 +814,20 @@
       <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -740,8 +861,17 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0.67159999999999997</v>
+      </c>
+      <c r="N2">
+        <v>0.41189999999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -772,8 +902,17 @@
       <c r="J3" s="4">
         <v>0.54521530433132903</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0.66739999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="O3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -804,8 +943,14 @@
       <c r="J4" s="4">
         <v>0.50335322298542595</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="N4">
+        <v>0.3322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -839,8 +984,17 @@
       <c r="K5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.3992</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -874,8 +1028,17 @@
       <c r="K6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0.63039999999999996</v>
+      </c>
+      <c r="N6">
+        <v>0.23649999999999999</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -909,8 +1072,14 @@
       <c r="K7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="N7">
+        <v>3.9399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -944,8 +1113,17 @@
       <c r="K8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -979,8 +1157,17 @@
       <c r="K9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0.65839999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="O9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1014,8 +1201,14 @@
       <c r="K10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>0.65990000000000004</v>
+      </c>
+      <c r="N10">
+        <v>0.36020000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1049,8 +1242,17 @@
       <c r="K11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="O11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1084,8 +1286,17 @@
       <c r="K12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>0.65680000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1118,32 +1329,44 @@
       </c>
       <c r="K13" t="s">
         <v>30</v>
+      </c>
+      <c r="M13">
+        <v>0.57010000000000005</v>
+      </c>
+      <c r="N13">
+        <v>5.7299999999999997E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="15" priority="8" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
+    <cfRule type="top10" dxfId="16" priority="9" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="top10" dxfId="15" priority="8" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
     <cfRule type="top10" dxfId="14" priority="7" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="top10" dxfId="13" priority="6" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
+  <conditionalFormatting sqref="H2:H13">
     <cfRule type="top10" dxfId="12" priority="5" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
+  <conditionalFormatting sqref="I2:I13">
     <cfRule type="top10" dxfId="11" priority="4" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="J2:J13">
     <cfRule type="top10" dxfId="10" priority="3" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
+  <conditionalFormatting sqref="M2:M13">
     <cfRule type="top10" dxfId="9" priority="2" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="N2:N13">
     <cfRule type="top10" dxfId="8" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1153,12 +1376,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1171,9 +1394,13 @@
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.125" customWidth="1"/>
     <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1428,20 @@
       <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1237,7 +1476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1272,7 +1511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1307,7 +1546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1342,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1377,7 +1616,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1412,7 +1651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1450,7 +1689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1485,7 +1724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1520,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1555,7 +1794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1590,7 +1829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4618BFDC-8B43-413C-B1B7-2345EB7C157C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F182FEA-0B23-47D7-8977-8CA31966E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,42 @@
   </si>
   <si>
     <t>1 hrs 9 mins 8 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 3 mins 24 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 47 mins 20 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 12 mins 47 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 24 mins 57 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 36 mins 44 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 58 mins 28 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 58 mins 37 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 1 mins 13 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hrs 35 mins 14 secs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -305,63 +341,7 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -372,6 +352,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -429,6 +465,20 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -766,10 +816,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1:O1"/>
+      <selection pane="topRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1335,6 +1385,615 @@
       </c>
       <c r="N13">
         <v>5.7299999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="27" priority="10" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="top10" dxfId="26" priority="9" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="top10" dxfId="25" priority="8" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="top10" dxfId="24" priority="7" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="23" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="top10" dxfId="22" priority="5" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="top10" dxfId="21" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="top10" dxfId="20" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M13">
+    <cfRule type="top10" dxfId="19" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N13">
+    <cfRule type="top10" dxfId="18" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.4964</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.43130000000000002</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.56540000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.5556000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.68389999999999995</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.65239999999999998</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.6542</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.44819999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.0638000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.58709999999999996</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.58709999999999996</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2777</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.2974</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.65739999999999998</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.6522</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.41489999999999999</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="N5">
+        <v>0.4133</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.4863999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.65149999999999997</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.626</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.62439999999999996</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.38669999999999999</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6">
+        <v>0.62729999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="O6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.9390999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.22439999999999999</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.30270000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="N7">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.5187999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.66569999999999996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.66149999999999998</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.42630000000000001</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.44290000000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.56720000000000004</v>
+      </c>
+      <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.42749999999999999</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.5177</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.67049999999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.40639999999999998</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.44190000000000002</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.53979999999999995</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.40710000000000002</v>
+      </c>
+      <c r="O9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.4456000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.45169999999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.55830000000000002</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="N10">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4487000000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6774</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.65959999999999996</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.44740000000000002</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11">
+        <v>0.66020000000000001</v>
+      </c>
+      <c r="N11">
+        <v>0.41880000000000001</v>
+      </c>
+      <c r="O11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.5306999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.6714</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.64249999999999996</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.53949999999999998</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="N12">
+        <v>0.4022</v>
+      </c>
+      <c r="O12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.0388000000000002</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.51990000000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.51639999999999997</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.21379999999999999</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13">
+        <v>0.53779999999999994</v>
+      </c>
+      <c r="N13">
+        <v>0.17960000000000001</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1367,527 +2026,6 @@
     <cfRule type="top10" dxfId="9" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="8" priority="1" rank="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.4964</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.68520000000000003</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.65949999999999998</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.43130000000000002</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.45019999999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.56540000000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.5556000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.68389999999999995</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.65239999999999998</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.6542</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.41489999999999999</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.55410000000000004</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.0638000000000001</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.58709999999999996</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.58709999999999996</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.54279999999999995</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.2777</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.2974</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.45</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.65739999999999998</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.67730000000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.65739999999999998</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.6522</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.41489999999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.43990000000000001</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.55549999999999999</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4863999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.65149999999999997</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.626</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.62439999999999996</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.38669999999999999</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.43340000000000001</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="K6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.9390999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.22439999999999999</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.46710000000000002</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.30270000000000002</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1.4E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.0899999999999998E-2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.6200000000000001E-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.5187999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.68899999999999995</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.66569999999999996</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.66149999999999998</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.42630000000000001</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.44290000000000002</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.56720000000000004</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.5177</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.67049999999999998</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.40639999999999998</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.44190000000000002</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.53979999999999995</v>
-      </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2.4456000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.45169999999999999</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.55830000000000002</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.47589999999999999</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0.23369999999999999</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.27450000000000002</v>
-      </c>
-      <c r="K10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.4487000000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.65959999999999996</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.6774</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.65959999999999996</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0.44740000000000002</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.55969999999999998</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.5306999999999999</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.6714</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.64249999999999996</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.39729999999999999</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0.42609999999999998</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="K12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.0388000000000002</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.51990000000000003</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0.51639999999999997</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.21379999999999999</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0.25009999999999999</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.38279999999999997</v>
-      </c>
-      <c r="K13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="7" priority="8" bottom="1" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="6" priority="7" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="5" priority="6" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="4" priority="5" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F182FEA-0B23-47D7-8977-8CA31966E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB677EF-26B4-449E-A8BF-9CC94ED75792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="675" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="resampling" sheetId="2" r:id="rId2"/>
+    <sheet name="cnn baseline" sheetId="3" r:id="rId2"/>
+    <sheet name="resampling" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +273,94 @@
   </si>
   <si>
     <t>1 hrs 35 mins 14 secs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 - fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 1 layer filter 2 3 4 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 1 layer filter 3 4 5 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 1 layer filter 3 4 5 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 2 layer filter 2 3 4 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 2 layer filter 2 3 4 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 2 layer filter 3 4 5 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert 2 layer filter 3 4 5 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 1 layer filter 2 3 4 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 1 layer filter 3 4 5 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 1 layer filter 3 4 5 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 2 layer filter 2 3 4 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 2 layer filter 2 3 4 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 2 layer filter 3 4 5 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roberta 2 layer filter 3 4 5 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 1 layer filter 2 3 4 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 1 layer filter 3 4 5 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 1 layer filter 3 4 5 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 2 layer filter 2 3 4 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 2 layer filter 2 3 4 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 2 layer filter 3 4 5 drop 0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deberta 2 layer filter 3 4 5 drop 0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -337,11 +426,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -352,56 +447,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -816,27 +883,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="H13" sqref="H13"/>
+      <selection pane="topRight" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -877,7 +944,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -921,7 +988,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -962,7 +1029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1000,7 +1067,7 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1044,7 +1111,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1088,7 +1155,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1129,7 +1196,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1173,7 +1240,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1217,7 +1284,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1258,7 +1325,7 @@
         <v>0.36020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1302,7 +1369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1346,7 +1413,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1390,34 +1457,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="27" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="26" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="25" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="24" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="23" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="22" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="21" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="20" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="19" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="18" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1425,6 +1492,309 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E111A-5A85-461C-839C-9C5105448BDD}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.67400130870357799</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.405472080660218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.67896850363392702</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.416840753387198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.686774605551842</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.405353193969334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.672462707196819</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.41453429762041299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.67305323344262502</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.41034086372114198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.66808764814769395</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.40956602761257899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.67482922118140198</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.40094884799993202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.67648497615290104</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.41039062403867099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.66583877751689202</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.37482047589265099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0.66938718380286799</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.35543485722086299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.66690337638524799</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.40040082028941099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0.66441970893592595</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.38216996095236599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0.65897865133547195</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.38112107012503799</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0.64573212167444005</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.27868375810738999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0.66560293093614198</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.37519854910781197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0.61793735718859599</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.21372234957153399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.67293377050098102</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.39931572631848999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0.63296001455670203</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.256486878640661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.65472235538650403</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.301390142245749</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="7">
+        <v>0.63567924865018</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0.30232200878288501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0.63378624741496004</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.285131731743829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="7">
+        <v>0.60586369187378997</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.148917191329135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.57666070635001099</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0.123081051163991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="7">
+        <v>0.624679350127196</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.24305557859460999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B25">
+    <cfRule type="top10" dxfId="2" priority="2" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="top10" dxfId="3" priority="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -1434,24 +1804,24 @@
       <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1527,7 +1897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1562,7 +1932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1597,7 +1967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1641,7 +2011,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1685,7 +2055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1729,7 +2099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1776,7 +2146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1820,7 +2190,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1864,7 +2234,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1908,7 +2278,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1952,7 +2322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1999,34 +2369,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="17" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="16" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="15" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="14" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="13" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="12" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="11" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="10" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="9" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB677EF-26B4-449E-A8BF-9CC94ED75792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C98B1-B517-4009-BA76-6C3B95123C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="675" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
-    <sheet name="cnn baseline" sheetId="3" r:id="rId2"/>
+    <sheet name="cnn" sheetId="3" r:id="rId2"/>
     <sheet name="resampling" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5 - fold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bert 1 layer filter 2 3 4 drop 0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,6 +357,14 @@
   </si>
   <si>
     <t>deberta 2 layer filter 3 4 5 drop 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline 5 - fold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resampling</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,14 +472,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -531,7 +528,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1493,9 +1497,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E111A-5A85-461C-839C-9C5105448BDD}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1504,11 +1508,13 @@
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -1516,10 +1522,19 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="7">
         <v>0.67400130870357799</v>
@@ -1527,10 +1542,19 @@
       <c r="C2" s="7">
         <v>0.405472080660218</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.66749453248839097</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.42767479626174498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="7">
         <v>0.67896850363392702</v>
@@ -1538,10 +1562,19 @@
       <c r="C3" s="7">
         <v>0.416840753387198</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.65531176188593199</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.419371889316563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7">
         <v>0.686774605551842</v>
@@ -1549,10 +1582,19 @@
       <c r="C4" s="7">
         <v>0.405353193969334</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.65921477785281601</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.42519749130891898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7">
         <v>0.672462707196819</v>
@@ -1560,10 +1602,19 @@
       <c r="C5" s="7">
         <v>0.41453429762041299</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.65803176580504497</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.41964016375595498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7">
         <v>0.67305323344262502</v>
@@ -1571,10 +1622,19 @@
       <c r="C6" s="7">
         <v>0.41034086372114198</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.65980495417787799</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.42061577299386199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="7">
         <v>0.66808764814769395</v>
@@ -1582,10 +1642,19 @@
       <c r="C7" s="7">
         <v>0.40956602761257899</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.65744137952753701</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.42372858180095502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="7">
         <v>0.67482922118140198</v>
@@ -1593,10 +1662,19 @@
       <c r="C8" s="7">
         <v>0.40094884799993202</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.64632243796779998</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.42120239413761501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7">
         <v>0.67648497615290104</v>
@@ -1604,10 +1682,19 @@
       <c r="C9" s="7">
         <v>0.41039062403867099</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.66370929984358495</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.41786816004023603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="7">
         <v>0.66583877751689202</v>
@@ -1615,10 +1702,19 @@
       <c r="C10" s="7">
         <v>0.37482047589265099</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.63472725427690602</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.40439624162764398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="7">
         <v>0.66938718380286799</v>
@@ -1626,10 +1722,19 @@
       <c r="C11" s="7">
         <v>0.35543485722086299</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.63733115449350697</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.40350404253008398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7">
         <v>0.66690337638524799</v>
@@ -1637,10 +1742,19 @@
       <c r="C12" s="7">
         <v>0.40040082028941099</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.649752711010956</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.40397173210302301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="7">
         <v>0.66441970893592595</v>
@@ -1648,10 +1762,19 @@
       <c r="C13" s="7">
         <v>0.38216996095236599</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.64395767358693201</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.40848951183804999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <v>0.65897865133547195</v>
@@ -1659,10 +1782,19 @@
       <c r="C14" s="7">
         <v>0.38112107012503799</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.64644099111551201</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.40662008078842299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <v>0.64573212167444005</v>
@@ -1670,10 +1802,19 @@
       <c r="C15" s="7">
         <v>0.27868375810738999</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.60835414778552599</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.32373597117303299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="7">
         <v>0.66560293093614198</v>
@@ -1681,10 +1822,19 @@
       <c r="C16" s="7">
         <v>0.37519854910781197</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.64371895765609</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.41378522570380599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="7">
         <v>0.61793735718859599</v>
@@ -1692,10 +1842,19 @@
       <c r="C17" s="7">
         <v>0.21372234957153399</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.64289188498805006</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.39729976961657298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="7">
         <v>0.67293377050098102</v>
@@ -1703,10 +1862,19 @@
       <c r="C18" s="7">
         <v>0.39931572631848999</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.61746377445508505</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.32026665291287598</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="7">
         <v>0.63296001455670203</v>
@@ -1714,10 +1882,19 @@
       <c r="C19" s="7">
         <v>0.256486878640661</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.60752693514918799</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.31764477972378302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7">
         <v>0.65472235538650403</v>
@@ -1725,10 +1902,19 @@
       <c r="C20" s="7">
         <v>0.301390142245749</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.65081493041826</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.39955173817582301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="7">
         <v>0.63567924865018</v>
@@ -1736,10 +1922,19 @@
       <c r="C21" s="7">
         <v>0.30232200878288501</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.57512077514442905</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.24901882976230799</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="7">
         <v>0.63378624741496004</v>
@@ -1747,10 +1942,19 @@
       <c r="C22" s="7">
         <v>0.285131731743829</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.63981769129292199</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.403354241745357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="7">
         <v>0.60586369187378997</v>
@@ -1758,10 +1962,19 @@
       <c r="C23" s="7">
         <v>0.148917191329135</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.60184849131671603</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.32116342006830201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7">
         <v>0.57666070635001099</v>
@@ -1769,25 +1982,49 @@
       <c r="C24" s="7">
         <v>0.123081051163991</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.57971257510173901</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.24458758922679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7">
         <v>0.624679350127196</v>
       </c>
       <c r="C25" s="7">
         <v>0.24305557859460999</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.549217892147428</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.16976305875330899</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="2" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="13" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="3" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="3" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G25">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2369,34 +2606,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="13" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="12" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="11" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="10" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="8" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="6" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C98B1-B517-4009-BA76-6C3B95123C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EACB3E-8063-4B90-B7D8-3AB7604927FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
     <sheet name="cnn" sheetId="3" r:id="rId2"/>
-    <sheet name="resampling" sheetId="2" r:id="rId3"/>
+    <sheet name="word2vec" sheetId="4" r:id="rId3"/>
+    <sheet name="resampling" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +367,60 @@
   <si>
     <t>resampling</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert-base-uncased None word2vec</t>
+  </si>
+  <si>
+    <t>bert-base-uncased lstm word2vec</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn word2vec</t>
+  </si>
+  <si>
+    <t>bert-base-uncased bilstm word2vec</t>
+  </si>
+  <si>
+    <t>roberta-base None word2vec</t>
+  </si>
+  <si>
+    <t>roberta-base lstm word2vec</t>
+  </si>
+  <si>
+    <t>roberta-base cnn word2vec</t>
+  </si>
+  <si>
+    <t>roberta-base bilstm word2vec</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base None word2vec</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base lstm word2vec</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn word2vec</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base bilstm word2vec</t>
+  </si>
+  <si>
+    <t>val_loss</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>mcc</t>
+  </si>
+  <si>
+    <t>train_loss</t>
   </si>
 </sst>
 </file>
@@ -417,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,25 +491,20 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <fill>
         <patternFill>
@@ -522,6 +572,34 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -890,7 +968,7 @@
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="B1" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1461,34 +1539,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="23" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="25" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="22" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="21" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="20" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="19" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="18" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="17" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="16" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="15" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="14" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1499,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E111A-5A85-461C-839C-9C5105448BDD}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2015,16 +2093,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="13" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="15" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="12" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="14" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="1" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="13" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2032,6 +2110,460 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4BE88-5531-44CC-81E3-5DBFCBE69F5E}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.66867957407647105</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.424772060759112</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1.4806342501966401</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.68070859832851205</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.66867957407647105</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.65956273728216097</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.426031522501577</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.56469929432339405</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.29688771044222001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.67199136395606396</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.41779832795330502</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.3882089083065401</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.67657095630110597</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.67199136395606396</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.65752999766451503</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.42288246219138098</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.56483698401584403</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.56487674747175398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.67470996819220397</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.41609335766463401</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.34380869120359</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.66891203369491803</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.67470996819220397</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.657769952593528</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.40787873247894402</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.56452186763638501</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.47299711094310298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.68086143488499795</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.42033900695170601</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.53732266246147</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.68097643856117895</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.68086143488499795</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.66559905171199896</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.40194601392943502</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.57452254596774099</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.258730285177453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.66335727957617596</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.41251314339122902</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.50393753377896</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.67245110971449895</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.66335727957617596</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.65312714740778</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.42193372183065703</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.55485080873359005</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.36070885175749801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.64301211775532796</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.39112839369997199</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.49270519929112</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.66314676109743198</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.64301211775532796</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.63395808468634696</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.40699640917109198</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.53008958607260503</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.55381518353022097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.67104545820371597</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.42205204466280799</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.4184954787270601</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.68403850816466805</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.67104545820371597</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.66155370988379603</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.42403974065619399</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.564965991111126</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.45388183733437198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.65909629468925202</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.40058661510907201</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.44313197594206</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.66446339063587501</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.65909629468925202</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.64513081723318599</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.40442850825681298</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.54895390468624095</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.50062494382485301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.66725602650999505</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.40048932541488402</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1.50700788945311</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.67314555054127501</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.66725602650999505</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.652458795748183</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.39072172673308297</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.55751448453039998</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.35918877673647598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.523776134705489</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.3072343423541599E-2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2.19725938922954</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.36315754995743799</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.523776134705489</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.41890956639198201</v>
+      </c>
+      <c r="H11" s="10">
+        <v>7.9838196489845206E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.30402191657793698</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2.8811811044972799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.62562735540400105</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.33358561741507797</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1.63178131864318</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.61469569646917199</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.62562735540400105</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.59931636008881595</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.34233560534153101</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.49282592191771801</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.0663419343588501</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.56812886881121405</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.20202112091688501</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.07321380649535</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.48854932011351099</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.56812886881121405</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.50621607510939304</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.21863902865302601</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.39377189306524402</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.7115998788454501</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="top10" dxfId="11" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="10" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -2606,34 +3138,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="11" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="10" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="9" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="8" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="7" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="6" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="5" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="4" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EACB3E-8063-4B90-B7D8-3AB7604927FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFA9C0-6AE8-4737-9C64-2FBF00E87A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
     <sheet name="cnn" sheetId="3" r:id="rId2"/>
     <sheet name="word2vec" sheetId="4" r:id="rId3"/>
     <sheet name="resampling" sheetId="2" r:id="rId4"/>
+    <sheet name="48label_baseline" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +422,90 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>val_accuracy</t>
+  </si>
+  <si>
+    <t>macro_f1-score</t>
+  </si>
+  <si>
+    <t>total_seconds</t>
+  </si>
+  <si>
+    <t>total_time</t>
+  </si>
+  <si>
+    <t>bert-base-uncased None none</t>
+  </si>
+  <si>
+    <t>0 hrs 34 mins 26 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn none</t>
+  </si>
+  <si>
+    <t>0 hrs 35 mins 45 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased lstm none</t>
+  </si>
+  <si>
+    <t>0 hrs 59 mins 3 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased bilstm none</t>
+  </si>
+  <si>
+    <t>1 hrs 57 mins 28 secs</t>
+  </si>
+  <si>
+    <t>roberta-base None none</t>
+  </si>
+  <si>
+    <t>1 hrs 12 mins 38 secs</t>
+  </si>
+  <si>
+    <t>roberta-base cnn none</t>
+  </si>
+  <si>
+    <t>0 hrs 39 mins 7 secs</t>
+  </si>
+  <si>
+    <t>roberta-base lstm none</t>
+  </si>
+  <si>
+    <t>0 hrs 53 mins 15 secs</t>
+  </si>
+  <si>
+    <t>roberta-base bilstm none</t>
+  </si>
+  <si>
+    <t>0 hrs 56 mins 59 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base None none</t>
+  </si>
+  <si>
+    <t>0 hrs 43 mins 35 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn none</t>
+  </si>
+  <si>
+    <t>0 hrs 41 mins 19 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base lstm none</t>
+  </si>
+  <si>
+    <t>0 hrs 29 mins 40 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base bilstm none</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 3 secs</t>
   </si>
 </sst>
 </file>
@@ -504,7 +589,56 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -968,24 +1102,24 @@
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:H1"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1026,7 +1160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1070,7 +1204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1111,7 +1245,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1149,7 +1283,7 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1193,7 +1327,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1237,7 +1371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1278,7 +1412,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1322,7 +1456,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1366,7 +1500,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1407,7 +1541,7 @@
         <v>0.36020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1451,7 +1585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1495,7 +1629,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1539,34 +1673,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="25" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="24" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="23" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="22" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="29" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="21" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="28" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="20" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="27" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="19" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="26" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="18" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="25" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="17" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="16" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1581,16 +1715,16 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="7" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1610,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1630,7 +1764,7 @@
         <v>0.42767479626174498</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -1650,7 +1784,7 @@
         <v>0.419371889316563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -1670,7 +1804,7 @@
         <v>0.42519749130891898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -1690,7 +1824,7 @@
         <v>0.41964016375595498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1710,7 +1844,7 @@
         <v>0.42061577299386199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1730,7 +1864,7 @@
         <v>0.42372858180095502</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -1750,7 +1884,7 @@
         <v>0.42120239413761501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -1770,7 +1904,7 @@
         <v>0.41786816004023603</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -1790,7 +1924,7 @@
         <v>0.40439624162764398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -1810,7 +1944,7 @@
         <v>0.40350404253008398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -1830,7 +1964,7 @@
         <v>0.40397173210302301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -1850,7 +1984,7 @@
         <v>0.40848951183804999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -1870,7 +2004,7 @@
         <v>0.40662008078842299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +2024,7 @@
         <v>0.32373597117303299</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -1910,7 +2044,7 @@
         <v>0.41378522570380599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
@@ -1930,7 +2064,7 @@
         <v>0.39729976961657298</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -1950,7 +2084,7 @@
         <v>0.32026665291287598</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -1970,7 +2104,7 @@
         <v>0.31764477972378302</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -1990,7 +2124,7 @@
         <v>0.39955173817582301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2010,7 +2144,7 @@
         <v>0.24901882976230799</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -2030,7 +2164,7 @@
         <v>0.403354241745357</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -2050,7 +2184,7 @@
         <v>0.32116342006830201</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -2070,7 +2204,7 @@
         <v>0.24458758922679</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -2093,16 +2227,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="15" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="22" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="14" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="21" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="13" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="20" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="12" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="19" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2113,22 +2247,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F4BE88-5531-44CC-81E3-5DBFCBE69F5E}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="7" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2157,7 +2291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -2189,7 +2323,7 @@
         <v>0.29688771044222001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
@@ -2221,7 +2355,7 @@
         <v>0.56487674747175398</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -2253,7 +2387,7 @@
         <v>0.47299711094310298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -2285,7 +2419,7 @@
         <v>0.258730285177453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -2317,7 +2451,7 @@
         <v>0.36070885175749801</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -2349,7 +2483,7 @@
         <v>0.55381518353022097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -2381,7 +2515,7 @@
         <v>0.45388183733437198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -2413,7 +2547,7 @@
         <v>0.50062494382485301</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -2445,7 +2579,7 @@
         <v>0.35918877673647598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -2477,7 +2611,7 @@
         <v>2.8811811044972799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
@@ -2509,7 +2643,7 @@
         <v>1.0663419343588501</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -2541,7 +2675,7 @@
         <v>1.7115998788454501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2553,10 +2687,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="11" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="10" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2573,24 +2707,24 @@
       <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2631,7 +2765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2666,7 +2800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2701,7 +2835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2736,7 +2870,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2780,7 +2914,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2824,7 +2958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2868,7 +3002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2915,7 +3049,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2959,7 +3093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3003,7 +3137,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3047,7 +3181,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3091,7 +3225,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3138,33 +3272,575 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="9" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="8" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="7" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="6" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="12" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="top10" dxfId="11" priority="5" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I13">
+    <cfRule type="top10" dxfId="10" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J13">
+    <cfRule type="top10" dxfId="9" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:M13">
+    <cfRule type="top10" dxfId="8" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N13">
+    <cfRule type="top10" dxfId="7" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2AF50-4881-4BD8-ABC8-BC15E9EA58C5}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.8572805853151599</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.65192356886383496</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64758763431564204</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.65192356886383496</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.64221963991283104</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.400348223779187</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.39898639091752502</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.540087248335133</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.21939853308225399</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2066</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.9171577240453901</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.66015946214954102</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.65110091081591104</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.66015946214954102</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.64497588019595198</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.40813995337986297</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.39519505064027999</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.545043194486036</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.129259249741046</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2145</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.81092654864599</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.64337942549906002</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.64465100975833201</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.64337942549906002</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.63547498597896301</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.393967969138175</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.39939827263097899</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.52986807167056205</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.27881532984604002</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3543</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.84947538375854</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64505846402857603</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65485270336192403</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64505846402857603</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63984678930809702</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.40187421262124901</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.40353841911299398</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.53293863950617903</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.209994512323358</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7048</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.88212962799773</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.60447793994530297</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.57247780442813501</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.60447793994530297</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.57556429555295896</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.30455717062864401</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.32438088138485</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.47122040299823498</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.81614837325575595</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4358</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.8597519390739301</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.61243093151755301</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.59425779044868599</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.61243093151755301</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.59136793813227595</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.31606979747248798</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.32239944968115702</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.48392082551684401</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.70520997362114801</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2347</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.7504211570249799</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.60555140834589105</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.59249355189931996</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.60555140834589105</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.590146914399584</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.28152920464867198</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.30316661462892802</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.48487465493197401</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.73060089752486901</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3195</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.8764136713088999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.62004265036929496</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.62623398591152102</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.62004265036929496</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.61606459377337697</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.34341987034053401</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.354612477143945</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.50640621437788402</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.38241629643343</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3419</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.91460210561025</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.64551659504009196</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.64253147518606202</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.64551659504009196</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.63450796541843801</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.39650133920972902</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.38728704293926902</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.53076634399940803</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.152263939822882</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2615</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1.8966977376399901</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.61805710591430796</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.58000532397820903</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.61805710591430796</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.58624611066569499</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.32156709883312701</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.32096654323597701</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.47610770803230701</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.68830964885717305</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2479</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.0434191846992902</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.529135388178824</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.36867317375409298</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.529135388178824</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.42756368308354897</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5.2551479595034999E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7.2019255956651498E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.32021406447578898</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.9275684900763499</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1780</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1.9306609746886401</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.54026832058938401</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.45064483593082699</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.54026832058938401</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.48190346314203403</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8.9801995836770995E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.110766537274726</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.37257880563977103</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.5204507074795801</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2883</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
     <cfRule type="top10" dxfId="5" priority="6" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
+  <conditionalFormatting sqref="D2:D13">
     <cfRule type="top10" dxfId="4" priority="5" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I13">
+  <conditionalFormatting sqref="E2:E13">
     <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J13">
+  <conditionalFormatting sqref="F2:F13">
     <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M13">
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N13">
+  <conditionalFormatting sqref="H2:H13">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DFA9C0-6AE8-4737-9C64-2FBF00E87A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5784CBA-1DEA-41FD-9E4B-2BBD52C87340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="word2vec" sheetId="4" r:id="rId3"/>
     <sheet name="resampling" sheetId="2" r:id="rId4"/>
     <sheet name="48label_baseline" sheetId="5" r:id="rId5"/>
+    <sheet name="48label_ros" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +507,78 @@
   </si>
   <si>
     <t>0 hrs 48 mins 3 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased None ros</t>
+  </si>
+  <si>
+    <t>0 hrs 41 mins 46 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn ros</t>
+  </si>
+  <si>
+    <t>0 hrs 34 mins 57 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased lstm ros</t>
+  </si>
+  <si>
+    <t>0 hrs 47 mins 58 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased bilstm ros</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 59 secs</t>
+  </si>
+  <si>
+    <t>roberta-base None ros</t>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 37 secs</t>
+  </si>
+  <si>
+    <t>roberta-base cnn ros</t>
+  </si>
+  <si>
+    <t>0 hrs 49 mins 44 secs</t>
+  </si>
+  <si>
+    <t>roberta-base lstm ros</t>
+  </si>
+  <si>
+    <t>0 hrs 56 mins 51 secs</t>
+  </si>
+  <si>
+    <t>roberta-base bilstm ros</t>
+  </si>
+  <si>
+    <t>0 hrs 52 mins 3 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base None ros</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 23 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn ros</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 12 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base lstm ros</t>
+  </si>
+  <si>
+    <t>0 hrs 49 mins 26 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base bilstm ros</t>
+  </si>
+  <si>
+    <t>1 hrs 19 mins 13 secs</t>
   </si>
 </sst>
 </file>
@@ -589,7 +662,21 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1105,21 +1192,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1204,7 +1291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1245,7 +1332,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1283,7 +1370,7 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1327,7 +1414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1371,7 +1458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1412,7 +1499,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1456,7 +1543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1500,7 +1587,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1541,7 +1628,7 @@
         <v>0.36020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1585,7 +1672,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1629,7 +1716,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1673,34 +1760,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="32" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="31" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="30" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="29" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="28" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="27" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="29" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="26" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="28" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="25" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="27" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="24" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="26" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="23" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="25" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1711,20 +1798,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E111A-5A85-461C-839C-9C5105448BDD}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
-    <col min="6" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1744,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -1764,7 +1851,7 @@
         <v>0.42767479626174498</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -1784,7 +1871,7 @@
         <v>0.419371889316563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -1804,7 +1891,7 @@
         <v>0.42519749130891898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -1824,7 +1911,7 @@
         <v>0.41964016375595498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -1844,7 +1931,7 @@
         <v>0.42061577299386199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -1864,7 +1951,7 @@
         <v>0.42372858180095502</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -1884,7 +1971,7 @@
         <v>0.42120239413761501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -1904,7 +1991,7 @@
         <v>0.41786816004023603</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -1924,7 +2011,7 @@
         <v>0.40439624162764398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -1944,7 +2031,7 @@
         <v>0.40350404253008398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -1964,7 +2051,7 @@
         <v>0.40397173210302301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -1984,7 +2071,7 @@
         <v>0.40848951183804999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -2004,7 +2091,7 @@
         <v>0.40662008078842299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -2024,7 +2111,7 @@
         <v>0.32373597117303299</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -2044,7 +2131,7 @@
         <v>0.41378522570380599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2151,7 @@
         <v>0.39729976961657298</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2084,7 +2171,7 @@
         <v>0.32026665291287598</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -2104,7 +2191,7 @@
         <v>0.31764477972378302</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -2124,7 +2211,7 @@
         <v>0.39955173817582301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2144,7 +2231,7 @@
         <v>0.24901882976230799</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -2164,7 +2251,7 @@
         <v>0.403354241745357</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -2184,7 +2271,7 @@
         <v>0.32116342006830201</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -2204,7 +2291,7 @@
         <v>0.24458758922679</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -2227,16 +2314,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="22" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="24" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="21" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="20" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="22" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="19" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="21" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2251,18 +2338,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="5"/>
+    <col min="4" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2291,7 +2378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -2323,7 +2410,7 @@
         <v>0.29688771044222001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
@@ -2355,7 +2442,7 @@
         <v>0.56487674747175398</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -2387,7 +2474,7 @@
         <v>0.47299711094310298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -2419,7 +2506,7 @@
         <v>0.258730285177453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -2451,7 +2538,7 @@
         <v>0.36070885175749801</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -2483,7 +2570,7 @@
         <v>0.55381518353022097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -2515,7 +2602,7 @@
         <v>0.45388183733437198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -2547,7 +2634,7 @@
         <v>0.50062494382485301</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -2579,7 +2666,7 @@
         <v>0.35918877673647598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -2611,7 +2698,7 @@
         <v>2.8811811044972799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
@@ -2643,7 +2730,7 @@
         <v>1.0663419343588501</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -2675,7 +2762,7 @@
         <v>1.7115998788454501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2687,10 +2774,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="18" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="17" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2707,24 +2794,24 @@
       <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2765,7 +2852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2800,7 +2887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2835,7 +2922,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2870,7 +2957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2914,7 +3001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2958,7 +3045,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3002,7 +3089,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3049,7 +3136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3093,7 +3180,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3137,7 +3224,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3181,7 +3268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3225,7 +3312,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3272,34 +3359,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="16" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="15" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="14" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="13" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="12" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="11" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="10" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="9" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="8" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="7" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3310,25 +3397,568 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2AF50-4881-4BD8-ABC8-BC15E9EA58C5}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.8572805853151599</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.65192356886383496</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64758763431564204</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.65192356886383496</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.64221963991283104</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.400348223779187</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.39898639091752502</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.540087248335133</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.21939853308225399</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2066</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.9171577240453901</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.66015946214954102</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.65110091081591104</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.66015946214954102</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.64497588019595198</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.40813995337986297</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.39519505064027999</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.545043194486036</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.129259249741046</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2145</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.81092654864599</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.64337942549906002</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.64465100975833201</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.64337942549906002</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.63547498597896301</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.393967969138175</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.39939827263097899</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.52986807167056205</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.27881532984604002</v>
+      </c>
+      <c r="K4" s="9">
+        <v>3543</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.84947538375854</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64505846402857603</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65485270336192403</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64505846402857603</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63984678930809702</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.40187421262124901</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.40353841911299398</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.53293863950617903</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.209994512323358</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7048</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.88212962799773</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.60447793994530297</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.57247780442813501</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.60447793994530297</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.57556429555295896</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.30455717062864401</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.32438088138485</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.47122040299823498</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.81614837325575595</v>
+      </c>
+      <c r="K6" s="9">
+        <v>4358</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.8597519390739301</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.61243093151755301</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.59425779044868599</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.61243093151755301</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.59136793813227595</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.31606979747248798</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.32239944968115702</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.48392082551684401</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.70520997362114801</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2347</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.7504211570249799</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.60555140834589105</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.59249355189931996</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.60555140834589105</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.590146914399584</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.28152920464867198</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.30316661462892802</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.48487465493197401</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.73060089752486901</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3195</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.8764136713088999</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.62004265036929496</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.62623398591152102</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.62004265036929496</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.61606459377337697</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.34341987034053401</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.354612477143945</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.50640621437788402</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.38241629643343</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3419</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1.91460210561025</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.64551659504009196</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.64253147518606202</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.64551659504009196</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.63450796541843801</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.39650133920972902</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.38728704293926902</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.53076634399940803</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.152263939822882</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2615</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1.8966977376399901</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.61805710591430796</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.58000532397820903</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.61805710591430796</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.58624611066569499</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.32156709883312701</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.32096654323597701</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.47610770803230701</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.68830964885717305</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2479</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.0434191846992902</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.529135388178824</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.36867317375409298</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.529135388178824</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.42756368308354897</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5.2551479595034999E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7.2019255956651498E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.32021406447578898</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.9275684900763499</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1780</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1.9306609746886401</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.54026832058938401</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.45064483593082699</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.54026832058938401</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.48190346314203403</v>
+      </c>
+      <c r="G13" s="10">
+        <v>8.9801995836770995E-2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.110766537274726</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.37257880563977103</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.5204507074795801</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2883</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="top10" dxfId="8" priority="7" bottom="1" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="7" priority="6" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="top10" dxfId="6" priority="5" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E13">
+    <cfRule type="top10" dxfId="5" priority="4" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F13">
+    <cfRule type="top10" dxfId="4" priority="3" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H13">
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FADA8-07B8-4272-9C6D-6AA1D1013DC4}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -3364,483 +3994,432 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1.8572805853151599</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.65192356886383496</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.64758763431564204</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.65192356886383496</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.64221963991283104</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.400348223779187</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.39898639091752502</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.540087248335133</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.21939853308225399</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2066</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.9171577240453901</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.66015946214954102</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.65110091081591104</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.66015946214954102</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.64497588019595198</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.40813995337986297</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.39519505064027999</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.545043194486036</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.129259249741046</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2145</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.81092654864599</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.64337942549906002</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.64465100975833201</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.64337942549906002</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.63547498597896301</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.393967969138175</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.39939827263097899</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.52986807167056205</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.27881532984604002</v>
-      </c>
-      <c r="K4" s="9">
-        <v>3543</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.84947538375854</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.64505846402857603</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.65485270336192403</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.64505846402857603</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.63984678930809702</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.40187421262124901</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.40353841911299398</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.53293863950617903</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.209994512323358</v>
-      </c>
-      <c r="K5" s="9">
-        <v>7048</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.88212962799773</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.60447793994530297</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.57247780442813501</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.60447793994530297</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.57556429555295896</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.30455717062864401</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.32438088138485</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.47122040299823498</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.81614837325575595</v>
-      </c>
-      <c r="K6" s="9">
-        <v>4358</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.8597519390739301</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.61243093151755301</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.59425779044868599</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.61243093151755301</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.59136793813227595</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.31606979747248798</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.32239944968115702</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.48392082551684401</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.70520997362114801</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2347</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.7504211570249799</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.60555140834589105</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.59249355189931996</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.60555140834589105</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.590146914399584</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.28152920464867198</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.30316661462892802</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.48487465493197401</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.73060089752486901</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3195</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1.8764136713088999</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.62004265036929496</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.62623398591152102</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.62004265036929496</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.61606459377337697</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.34341987034053401</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.354612477143945</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.50640621437788402</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.38241629643343</v>
-      </c>
-      <c r="K9" s="9">
-        <v>3419</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="10">
-        <v>1.91460210561025</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.64551659504009196</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.64253147518606202</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.64551659504009196</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.63450796541843801</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.39650133920972902</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.38728704293926902</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.53076634399940803</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.152263939822882</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2615</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1.8966977376399901</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.61805710591430796</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.58000532397820903</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.61805710591430796</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.58624611066569499</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.32156709883312701</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.32096654323597701</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.47610770803230701</v>
-      </c>
-      <c r="J11" s="10">
-        <v>0.68830964885717305</v>
-      </c>
-      <c r="K11" s="9">
-        <v>2479</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2.0434191846992902</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.529135388178824</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.36867317375409298</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.529135388178824</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.42756368308354897</v>
-      </c>
-      <c r="G12" s="10">
-        <v>5.2551479595034999E-2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>7.2019255956651498E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.32021406447578898</v>
-      </c>
-      <c r="J12" s="10">
-        <v>1.9275684900763499</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1780</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="10">
-        <v>1.9306609746886401</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.54026832058938401</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.45064483593082699</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.54026832058938401</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.48190346314203403</v>
-      </c>
-      <c r="G13" s="10">
-        <v>8.9801995836770995E-2</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.110766537274726</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.37257880563977103</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1.5204507074795801</v>
-      </c>
-      <c r="K13" s="9">
-        <v>2883</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>130</v>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>1.7767999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.53</v>
+      </c>
+      <c r="J2">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="J3">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>1.6883999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="K4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5">
+        <v>1.6657</v>
+      </c>
+      <c r="C5">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.30709999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>1.7873000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.4173</v>
+      </c>
+      <c r="H6">
+        <v>0.4279</v>
+      </c>
+      <c r="I6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>1.7862</v>
+      </c>
+      <c r="C7">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>1.9443999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.32</v>
+      </c>
+      <c r="H8">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="J8">
+        <v>1.1711</v>
+      </c>
+      <c r="K8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>1.9424999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10">
+        <v>2.0699000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.3201</v>
+      </c>
+      <c r="I10">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.0298</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>1.6728000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <v>2.3994</v>
+      </c>
+      <c r="C12">
+        <v>0.4536</v>
+      </c>
+      <c r="D12">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.4536</v>
+      </c>
+      <c r="F12">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="G12">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.1179</v>
+      </c>
+      <c r="I12">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="J12">
+        <v>2.8473000000000002</v>
+      </c>
+      <c r="K12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>2.2511999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.4667</v>
+      </c>
+      <c r="G13">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="J13">
+        <v>1.6642999999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="6" priority="7" bottom="1" rank="3"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="5" priority="6" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="4" priority="5" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="3" priority="4" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="2" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H13">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5784CBA-1DEA-41FD-9E4B-2BBD52C87340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343CB33C-029B-45E5-8508-79AA51BC99AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="resampling" sheetId="2" r:id="rId4"/>
     <sheet name="48label_baseline" sheetId="5" r:id="rId5"/>
     <sheet name="48label_ros" sheetId="6" r:id="rId6"/>
+    <sheet name="48label_word2vec" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -579,6 +580,42 @@
   </si>
   <si>
     <t>1 hrs 19 mins 13 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 16 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 8 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 3 mins 3 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 14 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 5 mins 50 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 5 mins 47 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 13 mins 14 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 32 mins 41 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 52 mins 47 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 5 mins 15 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 53 mins 35 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 16 mins 4 secs</t>
   </si>
 </sst>
 </file>
@@ -662,7 +699,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1760,34 +1804,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="34" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="33" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="32" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="31" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="30" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="29" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="28" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="29" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="27" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="28" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="26" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="27" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="25" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="26" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1798,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E111A-5A85-461C-839C-9C5105448BDD}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2314,16 +2358,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="24" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="25" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="23" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="24" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="22" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="21" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="22" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2774,10 +2818,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="20" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="19" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3359,34 +3403,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="18" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="17" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="16" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="15" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="14" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="13" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="12" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="11" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="10" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="9" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3910,25 +3954,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="8" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="7" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="6" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="5" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="4" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3940,7 +3984,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4417,8 +4461,499 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="1" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="2" rank="3"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1.8025</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.64449999999999996</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.63619999999999999</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0.62970000000000004</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.4234</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.42030000000000001</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.7537</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.6462</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.65069999999999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.43090000000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.42770000000000002</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.18310000000000001</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.6760999999999999</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.63129999999999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.41770000000000002</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.5810999999999999</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.64590000000000003</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.65480000000000005</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.37169999999999997</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.9300999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.6411</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.6421</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.6411</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.42049999999999998</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.1636</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1.8488</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.64449999999999996</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.40760000000000002</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.61570000000000003</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.59260000000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.3735</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.3952</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.4748</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.7036</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.8138000000000001</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.61850000000000005</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.38159999999999999</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.4708</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.44080000000000003</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2.0933999999999999</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.55069999999999997</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.58509999999999995</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.33289999999999997</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0.97460000000000002</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2.214</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.6008</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.55269999999999997</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.6008</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.56059999999999999</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.32879999999999998</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.32550000000000001</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0.8306</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2.4234</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.3589</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>6.59E-2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>9.69E-2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.221</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2.8668999999999998</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2.3544999999999998</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.4965</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.4965</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.12989999999999999</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.15679999999999999</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.27560000000000001</v>
+      </c>
+      <c r="J13" s="5">
+        <v>2.359</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343CB33C-029B-45E5-8508-79AA51BC99AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5567BD7-07B5-4C89-B6E0-CEF0FA03C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="48label_baseline" sheetId="5" r:id="rId5"/>
     <sheet name="48label_ros" sheetId="6" r:id="rId6"/>
     <sheet name="48label_word2vec" sheetId="7" r:id="rId7"/>
+    <sheet name="48label_cnn" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -616,6 +617,82 @@
   </si>
   <si>
     <t>1 hrs 16 mins 4 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn1filter234drop3 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn1filter234drop5 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn1filter345drop3 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn1filter345drop5 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn2filter234drop3 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn2filter234drop5 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn2filter345drop3 none</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn2filter345drop5 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn1filter234drop3 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn1filter234drop5 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn1filter345drop3 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn1filter345drop5 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn2filter234drop3 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn2filter234drop5 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn2filter345drop3 none</t>
+  </si>
+  <si>
+    <t>roberta-base cnn2filter345drop5 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn1filter234drop3 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn1filter234drop5 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn1filter345drop3 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn1filter345drop5 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn2filter234drop3 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn2filter234drop5 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn2filter345drop3 none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn2filter345drop5 none</t>
+  </si>
+  <si>
+    <t>train_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -699,7 +776,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1804,34 +1888,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="35" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="34" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="33" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="32" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="31" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="30" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="29" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="28" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="29" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="27" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="28" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="26" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="27" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1843,7 +1927,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2358,16 +2442,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="25" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="26" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="24" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="25" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="23" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="24" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="22" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2818,10 +2902,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="21" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="20" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3403,34 +3487,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="19" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="18" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="17" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="16" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="15" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="14" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="13" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="12" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="11" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="10" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3954,25 +4038,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="9" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="8" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="7" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="6" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="5" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4461,10 +4545,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="2" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4475,7 +4559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -4955,6 +5039,531 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CF8C-6CA7-44C1-B537-933EFCC02AFF}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.5444</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.19189999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.4204</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.5323</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.21290000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.1802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.6371</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.3584</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.38950000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.629</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.30259999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.3911</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.3226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.498</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.2371000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.1517</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.4414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.2913</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.4849</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.59089999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.7483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.2868</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.75419999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.5595</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.1918</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.4823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.60770000000000002</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.3523</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.6876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.3659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1.5825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="D24" s="9">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.7824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1.2734000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D25">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5567BD7-07B5-4C89-B6E0-CEF0FA03C3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38422C-553D-4B56-9E2B-8460D00E944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="48label_ros" sheetId="6" r:id="rId6"/>
     <sheet name="48label_word2vec" sheetId="7" r:id="rId7"/>
     <sheet name="48label_cnn" sheetId="8" r:id="rId8"/>
+    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="216">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -693,6 +694,78 @@
   <si>
     <t>train_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bert-base-uncased None word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 44 mins 52 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 35 mins 10 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased lstm word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 58 mins 42 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased bilstm word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 52 mins 53 secs</t>
+  </si>
+  <si>
+    <t>roberta-base None word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 47 mins 25 secs</t>
+  </si>
+  <si>
+    <t>roberta-base cnn word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 49 mins 14 secs</t>
+  </si>
+  <si>
+    <t>roberta-base lstm word2vec_eda</t>
+  </si>
+  <si>
+    <t>1 hrs 11 mins 13 secs</t>
+  </si>
+  <si>
+    <t>roberta-base bilstm word2vec_eda</t>
+  </si>
+  <si>
+    <t>1 hrs 11 mins 18 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base None word2vec_eda</t>
+  </si>
+  <si>
+    <t>1 hrs 7 mins 53 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 55 mins 11 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base lstm word2vec_eda</t>
+  </si>
+  <si>
+    <t>0 hrs 35 mins 13 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base bilstm word2vec_eda</t>
+  </si>
+  <si>
+    <t>1 hrs 40 mins 4 secs</t>
   </si>
 </sst>
 </file>
@@ -776,7 +849,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1888,34 +1968,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="36" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="37" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="35" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="34" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="33" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="32" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="31" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="30" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="29" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="28" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="29" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="27" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="28" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2442,16 +2522,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="26" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="27" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="25" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="26" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="24" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="25" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="23" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="24" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2902,10 +2982,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="22" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="21" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3487,34 +3567,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="20" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="19" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="18" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="17" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="16" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="15" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="14" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="13" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="12" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="11" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4038,25 +4118,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="10" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="8" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="6" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4545,10 +4625,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4560,7 +4640,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5039,7 +5119,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5051,7 +5131,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5564,6 +5644,497 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.7633318481648801</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.63773534445870705</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64585828517214805</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.63773534445870705</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.63209686587194303</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.42266767856564602</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.424866302265412</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.52335837026211496</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.15858271169754501</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.6060506546642701</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.64292141076445097</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.64788097263192801</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.64292141076445097</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.62880265308775896</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.419193447998292</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.41426456144062401</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.522161283524194</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.41292034835052499</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.7065480208978401</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.64231072445163795</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.64914280521756695</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.64231072445163795</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.63456516154213005</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.41642881057056802</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.42394526186094</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.52965118805703404</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.280976879672932</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.6844555593527299</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64170271250767397</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65118305208096705</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64170271250767397</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63679617815674805</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.41874004653369301</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.42851655284519002</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.52903004661683195</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.261424004426486</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.02518721718977</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.60158369146620505</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.56010813354540401</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.60158369146620505</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.56306214712604796</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.33591177116505999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.33577325471428998</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.41325757668533702</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.91616751128435603</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.7286468746821999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.62583742628044103</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.64314354051438005</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.62583742628044103</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.62471608290857195</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.40170177814221403</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.41503025460943599</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.51124042310741102</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.33378010952758003</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.66500821949505</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.59991162955107802</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.62326123009955003</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.59991162955107802</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.59561874325319897</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.37842957103013303</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.39554160615859202</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.47365818700672502</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.701845622032506</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.6963374429723099</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.60921250302319896</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.63388463041651699</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.60921250302319896</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.609708652447846</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.39908908887107902</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.41791952793020198</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.490704431636454</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.50646139980168903</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.30053117048086</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.59608949135830003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.55361795674316705</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.59608949135830003</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.55691609611373105</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.33008068820880498</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.33489385401965799</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.40843403254931898</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.82586389531957105</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.09086211956128</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.59258804487358296</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.56358777540334104</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.59258804487358296</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.55670726127855996</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.32178395353003297</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.33476428167644501</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.42888508012367699</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.03129530288474</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.7874045825586</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.45393260125392998</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.28674363044323398</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.45393260125392998</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.34138126396280599</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.6233249079102398E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4.7457167005305903E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.13642573046380399</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.4645091849998302</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.3795432114019599</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.51372544231735195</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.48977421624057998</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.51372544231735195</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.48758786597237003</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.214164303979616</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.233778361020088</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.33398580589150201</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.42454044189455</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A38422C-553D-4B56-9E2B-8460D00E944F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3924A9-AD19-417B-8253-F1506F97E58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
     <sheet name="cnn" sheetId="3" r:id="rId2"/>
     <sheet name="word2vec" sheetId="4" r:id="rId3"/>
-    <sheet name="resampling" sheetId="2" r:id="rId4"/>
-    <sheet name="48label_baseline" sheetId="5" r:id="rId5"/>
-    <sheet name="48label_ros" sheetId="6" r:id="rId6"/>
-    <sheet name="48label_word2vec" sheetId="7" r:id="rId7"/>
-    <sheet name="48label_cnn" sheetId="8" r:id="rId8"/>
+    <sheet name="48label_cnn" sheetId="8" r:id="rId4"/>
+    <sheet name="resampling" sheetId="2" r:id="rId5"/>
+    <sheet name="48label_baseline" sheetId="5" r:id="rId6"/>
+    <sheet name="48label_ros" sheetId="6" r:id="rId7"/>
+    <sheet name="48label_word2vec" sheetId="7" r:id="rId8"/>
     <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="215">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -584,42 +584,6 @@
     <t>1 hrs 19 mins 13 secs</t>
   </si>
   <si>
-    <t>0 hrs 46 mins 16 secs</t>
-  </si>
-  <si>
-    <t>0 hrs 45 mins 8 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 3 mins 3 secs</t>
-  </si>
-  <si>
-    <t>0 hrs 48 mins 14 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 5 mins 50 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 5 mins 47 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 13 mins 14 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 32 mins 41 secs</t>
-  </si>
-  <si>
-    <t>0 hrs 52 mins 47 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 5 mins 15 secs</t>
-  </si>
-  <si>
-    <t>0 hrs 53 mins 35 secs</t>
-  </si>
-  <si>
-    <t>1 hrs 16 mins 4 secs</t>
-  </si>
-  <si>
     <t>bert-base-uncased cnn1filter234drop3 none</t>
   </si>
   <si>
@@ -766,6 +730,39 @@
   </si>
   <si>
     <t>1 hrs 40 mins 4 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 44 mins 30 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 36 mins 45 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 18 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 59 mins 47 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 58 mins 7 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 40 mins 35 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 5 mins 11 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 2 mins 59 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 57 mins 49 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 55 mins 56 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 26 mins 8 secs</t>
   </si>
 </sst>
 </file>
@@ -2993,6 +2990,531 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CF8C-6CA7-44C1-B537-933EFCC02AFF}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.5444</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.19189999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.4204</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.5323</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.21290000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.1802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.6371</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.3584</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.38950000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.629</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.30259999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.3911</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.3226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.498</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.2371000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.1517</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.4414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.2913</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.4849</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.59089999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.7483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.2868</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.75419999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.5595</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.1918</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.4823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.60770000000000002</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.3523</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.6876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.3659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1.5825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="D24" s="9">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.7824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1.2734000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D25">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -3601,7 +4123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2AF50-4881-4BD8-ABC8-BC15E9EA58C5}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -4143,7 +4665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FADA8-07B8-4272-9C6D-6AA1D1013DC4}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -4635,12 +5157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4649,14 +5171,14 @@
     <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -4697,423 +5219,459 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="5">
-        <v>1.8025</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0.63619999999999999</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.64449999999999996</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.63619999999999999</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.62970000000000004</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.4234</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.42030000000000001</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0.52249999999999996</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0.25929999999999997</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>155</v>
+      <c r="B2" s="10">
+        <v>1.7481197245600699</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.64490893192684795</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64675678977135098</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.64490893192684795</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.63476631412295004</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.422908955880962</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.42770990864831798</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.53211581554232201</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.24482818922862301</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2670</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="5">
-        <v>1.7537</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.6462</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.65069999999999995</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.63790000000000002</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.43090000000000001</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.42770000000000002</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0.53449999999999998</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.18310000000000001</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>156</v>
+      <c r="B3" s="10">
+        <v>1.68291767319528</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.63285834217037795</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.64821631790761702</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.63285834217037795</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.63006120848784697</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.42377712783777799</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.44217614209678402</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.523715843583064</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.31850661056066798</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2205</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="5">
-        <v>1.6760999999999999</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.64490000000000003</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.63129999999999997</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.41770000000000002</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.52380000000000004</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.27260000000000001</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>157</v>
+      <c r="B4" s="10">
+        <v>1.5862721682685099</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.63392541534110902</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.63485128485907605</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.63392541534110902</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.62657562520368904</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.42110039498712998</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.43055737074824701</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.51696893769277397</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.41581065463339201</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2778</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="5">
-        <v>1.5810999999999999</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0.64590000000000003</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.65480000000000005</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0.63829999999999998</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.41539999999999999</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.40379999999999999</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.37169999999999997</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>158</v>
+      <c r="B5" s="10">
+        <v>1.7879512322748501</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64093842440140603</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65148878050164305</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64093842440140603</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63547513895813401</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.42718657106232899</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.42386455573653797</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.527328518270053</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.15341508413018501</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3587</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="5">
-        <v>1.9300999999999999</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0.6411</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.6421</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.6411</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.63260000000000005</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.41820000000000002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.42049999999999998</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0.52569999999999995</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.1636</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>159</v>
+      <c r="B6" s="10">
+        <v>1.9077054051228</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.62889050901378496</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.64549111044995899</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.62889050901378496</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.62620842167595403</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.42111271659613903</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.43335333242309398</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.51268683288518002</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.19479241613714801</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3487</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="5">
-        <v>1.8488</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.64449999999999996</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.63249999999999995</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.40760000000000002</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.41460000000000002</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0.52549999999999997</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>160</v>
+      <c r="B7" s="10">
+        <v>2.0257840923056301</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.57717716879685899</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.55868684322088902</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.57717716879685899</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.55171551467184499</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.32959119356403999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.35484302087203501</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.41358547358292702</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.01361543935009</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2435</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="5">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.60909999999999997</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.61570000000000003</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.60909999999999997</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.59260000000000002</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.3735</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.3952</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0.4748</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.7036</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>161</v>
+      <c r="B8" s="10">
+        <v>1.91106558696525</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.57185994214061098</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.549885603895512</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.57185994214061098</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.54355158871879805</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.32109765438117199</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.34858545990265299</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.40200365197064603</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.1627840690319899</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3911</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="5">
-        <v>1.8138000000000001</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0.59079999999999999</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.38159999999999999</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0.39510000000000001</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0.4708</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0.44080000000000003</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>162</v>
+      <c r="B9" s="10">
+        <v>2.0355511979358898</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.57672240981563105</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.55737834921163598</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.57672240981563105</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.55500330373278794</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.31374916139575998</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.32993851461663698</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.42371495433915801</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.92596363917516</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3779</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="5">
-        <v>2.0933999999999999</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.58509999999999995</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.55069999999999997</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.58509999999999995</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.31669999999999998</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0.33289999999999997</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0.40150000000000002</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0.97460000000000002</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>163</v>
+      <c r="B10" s="10">
+        <v>2.22592040496628</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.60036022585626303</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.553536488582557</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.60036022585626303</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.56174149873694201</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.32582058314353102</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.33127435772620301</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.41669358995198003</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.82395546536355402</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3469</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="5">
-        <v>2.214</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.6008</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0.55269999999999997</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.6008</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0.56059999999999999</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.32879999999999998</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.32550000000000001</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0.41310000000000002</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0.8306</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>164</v>
+      <c r="B11" s="10">
+        <v>2.4531468331268602</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.56619074528845903</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.470994602220554</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.56619074528845903</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.49540097374180497</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.25238910988769703</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.25735463977414702</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.30984738749618101</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.5735375735069701</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3356</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="5">
-        <v>2.4234</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.46829999999999999</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.3589</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.46829999999999999</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="G12" s="4">
-        <v>6.59E-2</v>
-      </c>
-      <c r="H12" s="5">
-        <v>9.69E-2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0.221</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2.8668999999999998</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>165</v>
+      <c r="B12" s="10">
+        <v>2.5546596561990098</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.45684882606835198</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.33400823395263102</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.45684882606835198</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.36841695927265999</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4.4919909831794801E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7.0884573865882594E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.18152850403985599</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.2241955172416201</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2110</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="5">
-        <v>2.3544999999999998</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.4965</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.41360000000000002</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.4965</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.43380000000000002</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.12989999999999999</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.15679999999999999</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0.27560000000000001</v>
-      </c>
-      <c r="J13" s="5">
-        <v>2.359</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>166</v>
+      <c r="B13" s="10">
+        <v>2.3901268480027502</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.49619890792729399</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.43593042031661999</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.49619890792729399</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.44671973667531401</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.164489625284619</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.191639308133947</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.291015861103674</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.9436613104748399</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5168</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5126,537 +5684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CF8C-6CA7-44C1-B537-933EFCC02AFF}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.63319999999999999</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.40910000000000002</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.52780000000000005</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.22989999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.65449999999999997</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.41060000000000002</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.5444</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.19189999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.64219999999999999</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.40560000000000002</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.19919999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.65190000000000003</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.4204</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.1656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.5323</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.64059999999999995</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.63629999999999998</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.53149999999999997</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.3095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.65090000000000003</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.21290000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.64510000000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.63419999999999999</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.52859999999999996</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.1802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.52590000000000003</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.2437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.6371</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.62219999999999998</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.3584</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.51859999999999995</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.38950000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.629</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.39029999999999998</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.30259999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.63349999999999995</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.63149999999999995</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.3911</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.52210000000000001</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.3226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.57369999999999999</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.498</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.34139999999999998</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1.2371000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.55430000000000001</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.46779999999999999</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.1517</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1.4414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.60919999999999996</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.2913</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.4849</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.59089999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.43869999999999998</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.12139999999999999</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.26540000000000002</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1.7483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.58650000000000002</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.55220000000000002</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.2868</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.40250000000000002</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.75419999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.5595</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.1918</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.4823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.60770000000000002</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.3523</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.33250000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.43990000000000001</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.24629999999999999</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1.6876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.60460000000000003</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.48480000000000001</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.3659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0.55520000000000003</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.47160000000000002</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.32819999999999999</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1.5825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="D24" s="9">
-        <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.31869999999999998</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1.7824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0.55430000000000001</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1.2734000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5714,7 +5747,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B2" s="10">
         <v>1.7633318481648801</v>
@@ -5744,12 +5777,12 @@
         <v>0.15858271169754501</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B3" s="10">
         <v>1.6060506546642701</v>
@@ -5779,12 +5812,12 @@
         <v>0.41292034835052499</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B4" s="10">
         <v>1.7065480208978401</v>
@@ -5814,12 +5847,12 @@
         <v>0.280976879672932</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B5" s="10">
         <v>1.6844555593527299</v>
@@ -5849,12 +5882,12 @@
         <v>0.261424004426486</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B6" s="10">
         <v>2.02518721718977</v>
@@ -5884,12 +5917,12 @@
         <v>0.91616751128435603</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B7" s="10">
         <v>1.7286468746821999</v>
@@ -5919,12 +5952,12 @@
         <v>0.33378010952758003</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B8" s="10">
         <v>1.66500821949505</v>
@@ -5954,12 +5987,12 @@
         <v>0.701845622032506</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B9" s="10">
         <v>1.6963374429723099</v>
@@ -5989,12 +6022,12 @@
         <v>0.50646139980168903</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B10" s="10">
         <v>2.30053117048086</v>
@@ -6024,12 +6057,12 @@
         <v>0.82586389531957105</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B11" s="10">
         <v>2.09086211956128</v>
@@ -6059,12 +6092,12 @@
         <v>1.03129530288474</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B12" s="10">
         <v>2.7874045825586</v>
@@ -6094,12 +6127,12 @@
         <v>3.4645091849998302</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B13" s="10">
         <v>2.3795432114019599</v>
@@ -6129,7 +6162,7 @@
         <v>1.42454044189455</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3924A9-AD19-417B-8253-F1506F97E58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E993F-9452-45D0-96EA-025F1A2C62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="48label_ros" sheetId="6" r:id="rId7"/>
     <sheet name="48label_word2vec" sheetId="7" r:id="rId8"/>
     <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId9"/>
+    <sheet name="weighted_baseline" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="227">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,6 +764,42 @@
   </si>
   <si>
     <t>1 hrs 26 mins 8 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 33 mins 6 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 33 mins 50 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 49 mins 22 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 47 mins 54 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 34 mins 1 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 49 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 28 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 41 mins 25 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 47 mins 30 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 36 mins 29 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 41 mins 18 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 42 secs</t>
   </si>
 </sst>
 </file>
@@ -814,7 +851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -842,18 +879,14 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -998,6 +1031,13 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1999,6 +2039,524 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74626179-9F65-410E-AD2C-CEB46CD1CC9B}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.59926028761376</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.659089947163773</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.65463339655234998</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.659089947163773</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.64801531094996101</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.41974315491386099</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.41406052110623598</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.54788049493232405</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.16363432544607201</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1986</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2.65777287014373</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.64017518278729602</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.65234271817459999</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.64017518278729602</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.63375682132176103</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.402300446085122</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.40296021993074199</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.52850088428113995</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.24547332458882301</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2030</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.5947911248156199</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.63834661215605204</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.64695837404410805</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.63834661215605204</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.63537753587282897</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.39544976104866703</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.40068649941564899</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.52869172394323005</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.233053899337196</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2962</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.6657297564534099</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.65390609011925305</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.65242524805662205</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.65390609011925305</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.64490819351403095</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.40915163551283801</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.40065033246654602</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.54031298080880796</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.16189396750002999</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2874</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2.4636286748981999</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.63560096556343104</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.63257627641827197</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.63560096556343104</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.62606171334687899</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.36244283194412802</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.36548692198486099</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.52025641988328297</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.35850374472054902</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2041</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2.7205632749127102</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.63133057989618802</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.63974508574319</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.63133057989618802</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.627365544965507</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.380000855201995</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.37718200833603799</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.51707760560226002</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.290707240446056</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2809</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.59815367649241</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.58556957079868199</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.54006367373484299</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.58556957079868199</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.54675067658536103</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.24547008908682</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.25499525912277898</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.43350764257820801</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.05406435782135</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2728</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2.8695588369195</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.576577528790162</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.50986694183116799</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.576577528790162</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.52744299086692503</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.22964111122299</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.24537685094716799</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.41986583118206799</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1.11441522138647</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2485</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3.0156324277200302</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.63697187029078495</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.64006555852958402</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.63697187029078495</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.62917696467131401</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.38872767027277699</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.39087084965978203</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.52186113583920402</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.12339192520317301</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2850</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.9292952861727701</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.58969170341016897</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.51071908599761595</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.58969170341016897</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.53161063532763697</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.204470769042707</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.21512243364534001</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.42487852435593498</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1.1938661815192499</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2189</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.9677422734295398</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.53508399843723797</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.41919855710480203</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.53508399843723797</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.46183648755747098</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7.0452705956468298E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>8.9479011917878201E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.35330159015311502</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1.7115023679122601</v>
+      </c>
+      <c r="K12" s="11">
+        <v>2478</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.8762814431655599</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.54163864393220496</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.456274395822373</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.54163864393220496</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.48495044348119198</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8.8100565672300804E-2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.108515467303411</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.37907102398806902</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.5039000394595099</v>
+      </c>
+      <c r="K13" s="11">
+        <v>2802</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098E111A-5A85-461C-839C-9C5105448BDD}">
   <dimension ref="A1:G25"/>
@@ -3507,7 +4065,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4089,34 +4647,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="21" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="20" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="19" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="18" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="17" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="16" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="15" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="14" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="13" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="12" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4640,25 +5198,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="10" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="9" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="8" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="7" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5147,10 +5705,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5677,7 +6235,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5688,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E993F-9452-45D0-96EA-025F1A2C62AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E10AF5-B92B-4186-85A9-31A2AC1D4B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
     <sheet name="cnn" sheetId="3" r:id="rId2"/>
     <sheet name="word2vec" sheetId="4" r:id="rId3"/>
-    <sheet name="48label_cnn" sheetId="8" r:id="rId4"/>
-    <sheet name="resampling" sheetId="2" r:id="rId5"/>
-    <sheet name="48label_baseline" sheetId="5" r:id="rId6"/>
-    <sheet name="48label_ros" sheetId="6" r:id="rId7"/>
-    <sheet name="48label_word2vec" sheetId="7" r:id="rId8"/>
-    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId9"/>
-    <sheet name="weighted_baseline" sheetId="10" r:id="rId10"/>
+    <sheet name="resampling" sheetId="2" r:id="rId4"/>
+    <sheet name="48label_cnn" sheetId="8" r:id="rId5"/>
+    <sheet name="48label_lstm" sheetId="11" r:id="rId6"/>
+    <sheet name="48label_baseline" sheetId="5" r:id="rId7"/>
+    <sheet name="48label_ros" sheetId="6" r:id="rId8"/>
+    <sheet name="48label_word2vec" sheetId="7" r:id="rId9"/>
+    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId10"/>
+    <sheet name="weighted_baseline" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="278">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -800,6 +801,161 @@
   </si>
   <si>
     <t>0 hrs 46 mins 42 secs</t>
+  </si>
+  <si>
+    <t>Base Model</t>
+  </si>
+  <si>
+    <t>Model Config</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>Lstm1Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 32 secs</t>
+  </si>
+  <si>
+    <t>Lstm1Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 43 mins 55 secs</t>
+  </si>
+  <si>
+    <t>Lstm1Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 42 mins 43 secs</t>
+  </si>
+  <si>
+    <t>Lstm1Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 58 secs</t>
+  </si>
+  <si>
+    <t>Lstm2Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 44 mins 29 secs</t>
+  </si>
+  <si>
+    <t>Lstm2Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 41 mins 38 secs</t>
+  </si>
+  <si>
+    <t>Lstm2Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 46 mins 44 secs</t>
+  </si>
+  <si>
+    <t>Lstm2Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 41 mins 33 secs</t>
+  </si>
+  <si>
+    <t>Lstm3Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 26 mins 56 secs</t>
+  </si>
+  <si>
+    <t>Lstm3Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 40 mins 11 secs</t>
+  </si>
+  <si>
+    <t>Lstm3Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 26 mins 54 secs</t>
+  </si>
+  <si>
+    <t>Lstm3Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 26 mins 16 secs</t>
+  </si>
+  <si>
+    <t>RoBERTa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 29 mins 38 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 51 mins 1 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 50 mins 23 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 39 mins 18 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 14 mins 26 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 11 mins 33 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 12 mins 51 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 23 mins 56 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 12 mins 43 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 12 mins 8 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 14 mins 8 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 12 mins 18 secs</t>
+  </si>
+  <si>
+    <t>DeBERTa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 hrs 31 mins 42 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 40 mins 20 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 52 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 20 mins 57 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 29 mins 4 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 25 mins 56 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 30 mins 52 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 16 mins 14 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 17 mins 10 secs</t>
+  </si>
+  <si>
+    <t>0 hrs 29 mins 18 secs</t>
   </si>
 </sst>
 </file>
@@ -809,7 +965,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +977,13 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -886,7 +1049,14 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1437,21 +1607,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1662,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1536,7 +1706,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1577,7 +1747,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1615,7 +1785,7 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1659,7 +1829,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1703,7 +1873,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1744,7 +1914,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1788,7 +1958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1832,7 +2002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1873,7 +2043,7 @@
         <v>0.36020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1917,7 +2087,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1961,7 +2131,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2005,34 +2175,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="37" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="38" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="36" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="37" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="35" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="34" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="33" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="32" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="31" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="30" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="29" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="28" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="29" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2040,25 +2210,516 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.7633318481648801</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.63773534445870705</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64585828517214805</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.63773534445870705</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.63209686587194303</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.42266767856564602</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.424866302265412</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.52335837026211496</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.15858271169754501</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.6060506546642701</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.64292141076445097</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.64788097263192801</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.64292141076445097</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.62880265308775896</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.419193447998292</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.41426456144062401</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.522161283524194</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.41292034835052499</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.7065480208978401</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.64231072445163795</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.64914280521756695</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.64231072445163795</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.63456516154213005</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.41642881057056802</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.42394526186094</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.52965118805703404</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.280976879672932</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.6844555593527299</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64170271250767397</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65118305208096705</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64170271250767397</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63679617815674805</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.41874004653369301</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.42851655284519002</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.52903004661683195</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.261424004426486</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.02518721718977</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.60158369146620505</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.56010813354540401</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.60158369146620505</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.56306214712604796</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.33591177116505999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.33577325471428998</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.41325757668533702</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.91616751128435603</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.7286468746821999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.62583742628044103</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.64314354051438005</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.62583742628044103</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.62471608290857195</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.40170177814221403</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.41503025460943599</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.51124042310741102</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.33378010952758003</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.66500821949505</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.59991162955107802</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.62326123009955003</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.59991162955107802</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.59561874325319897</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.37842957103013303</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.39554160615859202</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.47365818700672502</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.701845622032506</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.6963374429723099</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.60921250302319896</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.63388463041651699</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.60921250302319896</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.609708652447846</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.39908908887107902</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.41791952793020198</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.490704431636454</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.50646139980168903</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.30053117048086</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.59608949135830003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.55361795674316705</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.59608949135830003</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.55691609611373105</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.33008068820880498</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.33489385401965799</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.40843403254931898</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.82586389531957105</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.09086211956128</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.59258804487358296</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.56358777540334104</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.59258804487358296</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.55670726127855996</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.32178395353003297</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.33476428167644501</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.42888508012367699</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.03129530288474</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.7874045825586</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.45393260125392998</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.28674363044323398</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.45393260125392998</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.34138126396280599</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.6233249079102398E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4.7457167005305903E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.13642573046380399</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.4645091849998302</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.3795432114019599</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.51372544231735195</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.48977421624057998</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.51372544231735195</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.48758786597237003</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.214164303979616</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.233778361020088</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.33398580589150201</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.42454044189455</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74626179-9F65-410E-AD2C-CEB46CD1CC9B}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -2094,7 +2755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>107</v>
       </c>
@@ -2132,7 +2793,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>109</v>
       </c>
@@ -2170,7 +2831,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>111</v>
       </c>
@@ -2208,7 +2869,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>113</v>
       </c>
@@ -2246,7 +2907,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>115</v>
       </c>
@@ -2284,7 +2945,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>117</v>
       </c>
@@ -2322,7 +2983,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
@@ -2360,7 +3021,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>121</v>
       </c>
@@ -2398,7 +3059,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>123</v>
       </c>
@@ -2436,7 +3097,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>125</v>
       </c>
@@ -2474,7 +3135,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>127</v>
       </c>
@@ -2512,7 +3173,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>129</v>
       </c>
@@ -2565,16 +3226,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="7" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -2594,7 +3255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -2614,7 +3275,7 @@
         <v>0.42767479626174498</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -2634,7 +3295,7 @@
         <v>0.419371889316563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -2654,7 +3315,7 @@
         <v>0.42519749130891898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -2674,7 +3335,7 @@
         <v>0.41964016375595498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -2694,7 +3355,7 @@
         <v>0.42061577299386199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -2714,7 +3375,7 @@
         <v>0.42372858180095502</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -2734,7 +3395,7 @@
         <v>0.42120239413761501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -2754,7 +3415,7 @@
         <v>0.41786816004023603</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -2774,7 +3435,7 @@
         <v>0.40439624162764398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -2794,7 +3455,7 @@
         <v>0.40350404253008398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -2814,7 +3475,7 @@
         <v>0.40397173210302301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -2834,7 +3495,7 @@
         <v>0.40848951183804999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -2854,7 +3515,7 @@
         <v>0.40662008078842299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -2874,7 +3535,7 @@
         <v>0.32373597117303299</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -2894,7 +3555,7 @@
         <v>0.41378522570380599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
@@ -2914,7 +3575,7 @@
         <v>0.39729976961657298</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -2934,7 +3595,7 @@
         <v>0.32026665291287598</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -2954,7 +3615,7 @@
         <v>0.31764477972378302</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +3635,7 @@
         <v>0.39955173817582301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -2994,7 +3655,7 @@
         <v>0.24901882976230799</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -3014,7 +3675,7 @@
         <v>0.403354241745357</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -3034,7 +3695,7 @@
         <v>0.32116342006830201</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -3054,7 +3715,7 @@
         <v>0.24458758922679</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -3077,16 +3738,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="27" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="28" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="26" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="27" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="25" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="26" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="24" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="25" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3101,18 +3762,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="7" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3141,7 +3802,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -3173,7 +3834,7 @@
         <v>0.29688771044222001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
@@ -3205,7 +3866,7 @@
         <v>0.56487674747175398</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -3237,7 +3898,7 @@
         <v>0.47299711094310298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -3269,7 +3930,7 @@
         <v>0.258730285177453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -3301,7 +3962,7 @@
         <v>0.36070885175749801</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -3333,7 +3994,7 @@
         <v>0.55381518353022097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -3365,7 +4026,7 @@
         <v>0.45388183733437198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -3397,7 +4058,7 @@
         <v>0.50062494382485301</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -3429,7 +4090,7 @@
         <v>0.35918877673647598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -3461,7 +4122,7 @@
         <v>2.8811811044972799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
@@ -3493,7 +4154,7 @@
         <v>1.0663419343588501</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -3525,7 +4186,7 @@
         <v>1.7115998788454501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3537,10 +4198,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="23" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="22" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3548,531 +4209,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CF8C-6CA7-44C1-B537-933EFCC02AFF}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.63319999999999999</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.40910000000000002</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0.52780000000000005</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.22989999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0.65449999999999997</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0.41060000000000002</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0.5444</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0.19189999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.64219999999999999</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0.40560000000000002</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.54249999999999998</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0.19919999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0.65190000000000003</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.64290000000000003</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0.4204</v>
-      </c>
-      <c r="E5" s="9">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0.1656</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.64549999999999996</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.5323</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="9">
-        <v>0.64059999999999995</v>
-      </c>
-      <c r="C7" s="9">
-        <v>0.63629999999999998</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="E7" s="9">
-        <v>0.53149999999999997</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0.3095</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0.65090000000000003</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.63929999999999998</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0.21290000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0.64510000000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>0.63419999999999999</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.39529999999999998</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.52859999999999996</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.1802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0.64</v>
-      </c>
-      <c r="C10" s="9">
-        <v>0.63</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.52590000000000003</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.2437</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="9">
-        <v>0.6371</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.62219999999999998</v>
-      </c>
-      <c r="D11" s="9">
-        <v>0.3584</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0.51859999999999995</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.38950000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0.64049999999999996</v>
-      </c>
-      <c r="C12" s="9">
-        <v>0.629</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0.39029999999999998</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0.52510000000000001</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.30259999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0.63349999999999995</v>
-      </c>
-      <c r="C13" s="9">
-        <v>0.63149999999999995</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0.3911</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0.52210000000000001</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0.3226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.57369999999999999</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.498</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.34139999999999998</v>
-      </c>
-      <c r="F14" s="9">
-        <v>1.2371000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.55430000000000001</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.46779999999999999</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0.1517</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="F15" s="9">
-        <v>1.4414</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.60919999999999996</v>
-      </c>
-      <c r="C16" s="9">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="D16" s="9">
-        <v>0.2913</v>
-      </c>
-      <c r="E16" s="9">
-        <v>0.4849</v>
-      </c>
-      <c r="F16" s="9">
-        <v>0.59089999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.53690000000000004</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.43869999999999998</v>
-      </c>
-      <c r="D17" s="9">
-        <v>0.12139999999999999</v>
-      </c>
-      <c r="E17" s="9">
-        <v>0.26540000000000002</v>
-      </c>
-      <c r="F17" s="9">
-        <v>1.7483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0.58650000000000002</v>
-      </c>
-      <c r="C18" s="9">
-        <v>0.55220000000000002</v>
-      </c>
-      <c r="D18" s="9">
-        <v>0.2868</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0.40250000000000002</v>
-      </c>
-      <c r="F18" s="9">
-        <v>0.75419999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.5595</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="D19" s="9">
-        <v>0.1918</v>
-      </c>
-      <c r="E19" s="9">
-        <v>0.30009999999999998</v>
-      </c>
-      <c r="F19" s="9">
-        <v>1.4823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="C20" s="9">
-        <v>0.60770000000000002</v>
-      </c>
-      <c r="D20" s="9">
-        <v>0.3523</v>
-      </c>
-      <c r="E20" s="9">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0.33250000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0.54159999999999997</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.43990000000000001</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.15709999999999999</v>
-      </c>
-      <c r="E21" s="9">
-        <v>0.24629999999999999</v>
-      </c>
-      <c r="F21" s="9">
-        <v>1.6876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0.60460000000000003</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.60050000000000003</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.32140000000000002</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.48480000000000001</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.3659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0.55520000000000003</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.47160000000000002</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.14219999999999999</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.32819999999999999</v>
-      </c>
-      <c r="F23" s="9">
-        <v>1.5825</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0.53620000000000001</v>
-      </c>
-      <c r="C24" s="9">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="D24" s="9">
-        <v>9.7600000000000006E-2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.31869999999999998</v>
-      </c>
-      <c r="F24" s="9">
-        <v>1.7824</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0.55430000000000001</v>
-      </c>
-      <c r="C25" s="9">
-        <v>0.50209999999999999</v>
-      </c>
-      <c r="D25" s="9">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="E25" s="9">
-        <v>0.38490000000000002</v>
-      </c>
-      <c r="F25" s="9">
-        <v>1.2734000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="21" priority="1" rank="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03916FF-E967-4F88-8D67-A577C87F376D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
@@ -4082,24 +4218,24 @@
       <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4140,7 +4276,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4175,7 +4311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4210,7 +4346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4245,7 +4381,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4289,7 +4425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4333,7 +4469,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4377,7 +4513,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4424,7 +4560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4468,7 +4604,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4512,7 +4648,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4556,7 +4692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4600,7 +4736,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4647,34 +4783,559 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="20" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="19" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="18" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="17" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="16" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="15" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="14" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="13" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="12" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="11" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CF8C-6CA7-44C1-B537-933EFCC02AFF}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.40910000000000002</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.65449999999999997</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.5444</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.19189999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.54249999999999998</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.19919999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.64290000000000003</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.4204</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.54010000000000002</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.1656</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.64549999999999996</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.5323</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.63629999999999998</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.3095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.65090000000000003</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.21290000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.63419999999999999</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.1802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.52590000000000003</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.2437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.6371</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.3584</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.51859999999999995</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.38950000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.64049999999999996</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.629</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.30259999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.63149999999999995</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.3911</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.52210000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.3226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.57369999999999999</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.498</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.2371000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.1517</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.4414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.60919999999999996</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.2913</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.4849</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.59089999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.53690000000000004</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.12139999999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.7483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.58650000000000002</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.55220000000000002</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.2868</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.75419999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.5595</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.1918</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.30009999999999998</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.4823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.62170000000000003</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.60770000000000002</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.3523</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.33250000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.54159999999999997</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.15709999999999999</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.24629999999999999</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.6876</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="9">
+        <v>0.60460000000000003</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.3659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.55520000000000003</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.47160000000000002</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.14219999999999999</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.32819999999999999</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1.5825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="9">
+        <v>0.53620000000000001</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.44040000000000001</v>
+      </c>
+      <c r="D24" s="9">
+        <v>9.7600000000000006E-2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.31869999999999998</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.7824</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.14979999999999999</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.38490000000000002</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1.2734000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D25">
+    <cfRule type="top10" dxfId="22" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4682,28 +5343,1577 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0C40CF-9E11-462F-8582-3FB0EBEA4697}">
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.77546120196944</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.64032890085765803</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.63367258026803797</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.64032890085765803</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.629093042777501</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.36941145713832801</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.37239789697571302</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.524590086046126</v>
+      </c>
+      <c r="K2" s="9">
+        <v>0.33138596437667001</v>
+      </c>
+      <c r="L2" s="9">
+        <v>2732</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.7811467520983399</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.64048250265111295</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.64314009668562999</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.64048250265111295</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.63318319683379598</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.38285005081149898</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.38251777806396903</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.52776529988483201</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.36840527494574199</v>
+      </c>
+      <c r="L3" s="9">
+        <v>2635</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.84458183572604</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.64063424401406399</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.647360226578794</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.64063424401406399</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.63652324819396999</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.39475832271698802</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.39069519561352201</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.52808110294041999</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.18204441319202699</v>
+      </c>
+      <c r="L4" s="9">
+        <v>2563</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.87063514210919</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.64262002102286397</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.64905670456835596</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.64262002102286397</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.63627233229330105</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.399177724814404</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.400485543327117</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.53100672543567895</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.20926256971916399</v>
+      </c>
+      <c r="L5" s="9">
+        <v>2758</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.8857238618338901</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.57458663559747702</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.50827924744750097</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.57458663559747702</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.52950801283419102</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.16664230295264501</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.1824938490103</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.42386582859340999</v>
+      </c>
+      <c r="K6" s="9">
+        <v>1.20860910197583</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2669</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2.0308635166505402</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.55536315603430597</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.44758988459917798</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.55536315603430597</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.48157897744774403</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.132908655110658</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.14760452230496501</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.36667061175848997</v>
+      </c>
+      <c r="K7" s="9">
+        <v>1.5120340786828801</v>
+      </c>
+      <c r="L7" s="9">
+        <v>2498</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2.00546059786546</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.57733507283585395</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.52347499755955795</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.57733507283585395</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.53852788734518098</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.20553839730250301</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.21900388710291599</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.42564284241176698</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.94031862597685301</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2804</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.9055247393686501</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.58998948856765399</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.54227306226928296</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.58998948856765399</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.55563651963837102</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.21198974676419699</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.228289970762481</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.45129314488189798</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1.0072259062395701</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2493</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2.2384565974154098</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.50884762609067702</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.33146640983388298</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.50884762609067702</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.39018128243384598</v>
+      </c>
+      <c r="H10" s="9">
+        <v>4.3898956426427001E-2</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6.0020990188345301E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.264978230817006</v>
+      </c>
+      <c r="K10" s="9">
+        <v>2.1233119293502098</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1616</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.0400739808634998</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.53325635802124605</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.391800350223175</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.53325635802124605</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.44182618837344101</v>
+      </c>
+      <c r="H11" s="9">
+        <v>7.1864704060697698E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>9.5110624678886702E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.330896388956333</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1.75284221225031</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2411</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2.34036778887597</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.49480823612583902</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.28988578581771202</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.49480823612583902</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.363288343830936</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2.7477308953730399E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.2289033273438803E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.22797433976294701</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2.2961155494538699</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1614</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.42076206294501</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.48840533199382302</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.28981026578855601</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.48840533199382302</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.35647866001391698</v>
+      </c>
+      <c r="H13" s="9">
+        <v>3.1652424795665497E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.4908053705441299E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.15567625486880099</v>
+      </c>
+      <c r="K13" s="9">
+        <v>2.3014098317702998</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1576</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2.02025062747117</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.55688382541720105</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.42597056587241</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.55688382541720105</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.46978992022465299</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.14106883901251699</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.159794433550869</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.36133039862043098</v>
+      </c>
+      <c r="K14" s="9">
+        <v>1.62910452454419</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1778</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.73363953788832</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.59823328868300096</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0.58164234617789101</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.59823328868300096</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.58155447019554096</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.24605965318669701</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.26585263915259799</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.47822694041133701</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0.922962499791529</v>
+      </c>
+      <c r="L15" s="9">
+        <v>3061</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.81471911763272</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.62278608770069399</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0.62435730823731805</v>
+      </c>
+      <c r="F16" s="9">
+        <v>0.62278608770069399</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.61562710494629902</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.35128861765362601</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.36037905163804901</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.50940732261159305</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0.39117019214019899</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3023</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.9166405919121501</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.59076784617960598</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0.52583218227393203</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.59076784617960598</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.54474307666420896</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.231035042261029</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.24377856211782201</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.43901710337698302</v>
+      </c>
+      <c r="K17" s="9">
+        <v>1.0272411588113699</v>
+      </c>
+      <c r="L17" s="9">
+        <v>2358</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2.3791011893167702</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.48856277092519201</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0.24789407000668201</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.48856277092519201</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.32714832512710301</v>
+      </c>
+      <c r="H18" s="9">
+        <v>2.0637691088279099E-2</v>
+      </c>
+      <c r="I18" s="9">
+        <v>3.0702543348895599E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>9.6503755816777503E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2.4746779503982199</v>
+      </c>
+      <c r="L18" s="9">
+        <v>866</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2.5257677822578199</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.47315468549422302</v>
+      </c>
+      <c r="E19" s="9">
+        <v>0.22729314015881</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.47315468549422302</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.30541217249427999</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1.46011164507843E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>2.1721311475409798E-2</v>
+      </c>
+      <c r="J19" s="9">
+        <v>2.1220376791774E-2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>2.6656571460933201</v>
+      </c>
+      <c r="L19" s="9">
+        <v>693</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2.4338473697261098</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.48290927145541401</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.23674572922751699</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.48290927145541401</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.31716975624400601</v>
+      </c>
+      <c r="H20" s="9">
+        <v>1.8065258090294498E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2.7188511326860801E-2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>5.5098558555797199E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2.5055491599367801</v>
+      </c>
+      <c r="L20" s="9">
+        <v>771</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2.2455007592352398</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.50717288980670105</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.30152441187860302</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.50717288980670105</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.37252651782310903</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3.5188197982502001E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5.1108899511573699E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.23260740583585901</v>
+      </c>
+      <c r="K21" s="9">
+        <v>2.2930508989023002</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1436</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2.4586322672483298</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.47422257260329997</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.22844535725776099</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.47422257260329997</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.30802458330237598</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.5023679035012401E-2</v>
+      </c>
+      <c r="I22" s="9">
+        <v>2.40105852211434E-2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>3.3717445345056801E-2</v>
+      </c>
+      <c r="K22" s="9">
+        <v>2.6423298456683302</v>
+      </c>
+      <c r="L22" s="9">
+        <v>763</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2.50728800093255</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.47117146657736497</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.222002642739101</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.47117146657736497</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.301803832378578</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.33445645995032E-2</v>
+      </c>
+      <c r="I23" s="9">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2.7186843595853598</v>
+      </c>
+      <c r="L23" s="9">
+        <v>728</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="9">
+        <v>2.45578619677846</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.47849412103960798</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0.239127984600429</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.47849412103960798</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.31806586040575602</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.74000442014761E-2</v>
+      </c>
+      <c r="I24" s="9">
+        <v>2.68904195509545E-2</v>
+      </c>
+      <c r="J24" s="9">
+        <v>6.8393204874310401E-2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2.5135404737984199</v>
+      </c>
+      <c r="L24" s="9">
+        <v>848</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="9">
+        <v>2.5242060268797499</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.47117146657736497</v>
+      </c>
+      <c r="E25" s="9">
+        <v>0.222002642739101</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.47117146657736497</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.301803832378578</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1.33445645995032E-2</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <v>2.6390985441643999</v>
+      </c>
+      <c r="L25" s="9">
+        <v>738</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C26" s="9">
+        <v>2.0518569287003499</v>
+      </c>
+      <c r="D26" s="9">
+        <v>0.53035420271250699</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.35755912999366801</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.53035420271250699</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.42146172910589202</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5.2945714326032997E-2</v>
+      </c>
+      <c r="I26" s="9">
+        <v>7.1861280804384003E-2</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.31378525718348899</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1.97974745167828</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1902</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2.0762972500266099</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0.52547522371676803</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.35126451351921201</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.52547522371676803</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.41523690838369498</v>
+      </c>
+      <c r="H27" s="9">
+        <v>4.5303056577396902E-2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>6.2881743725476405E-2</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0.304811771565211</v>
+      </c>
+      <c r="K27" s="9">
+        <v>2.07500456862333</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1436</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2.0296297633793201</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0.53340170415434096</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0.42714731813398299</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.53340170415434096</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.46582540637393799</v>
+      </c>
+      <c r="H28" s="9">
+        <v>8.2784603407320204E-2</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.10115320934265699</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.35564399107999201</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1.6296584223283499</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2420</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1.9575069846903399</v>
+      </c>
+      <c r="D29" s="9">
+        <v>0.55186240721102797</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.45426840390699302</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.55186240721102797</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.492092877851599</v>
+      </c>
+      <c r="H29" s="9">
+        <v>9.6328602106111202E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.11505352461372199</v>
+      </c>
+      <c r="J29" s="9">
+        <v>0.38579483686239602</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1.4767849351393001</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2932</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="9">
+        <v>2.3358423061487099</v>
+      </c>
+      <c r="D30" s="9">
+        <v>0.49908641234581602</v>
+      </c>
+      <c r="E30" s="9">
+        <v>0.28353756361250398</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.49908641234581602</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.356093251221622</v>
+      </c>
+      <c r="H30" s="9">
+        <v>2.8754529853858402E-2</v>
+      </c>
+      <c r="I30" s="9">
+        <v>3.8534174487274302E-2</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.20107334504982299</v>
+      </c>
+      <c r="K30" s="9">
+        <v>2.3661158295848002</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1257</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C31" s="9">
+        <v>2.2840728000169799</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.49328768301984999</v>
+      </c>
+      <c r="E31" s="9">
+        <v>0.31302598137121002</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0.49328768301984999</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.37188718142978999</v>
+      </c>
+      <c r="H31" s="9">
+        <v>3.4363513793623499E-2</v>
+      </c>
+      <c r="I31" s="9">
+        <v>4.6758249030325501E-2</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0.20042703296525999</v>
+      </c>
+      <c r="K31" s="9">
+        <v>2.2415043020212</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1744</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="9">
+        <v>2.3181528882282501</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.50411434205875205</v>
+      </c>
+      <c r="E32" s="9">
+        <v>0.27758601663903298</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.50411434205875205</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.35546248422733401</v>
+      </c>
+      <c r="H32" s="9">
+        <v>2.9677674098102499E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <v>4.1809651096369901E-2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>0.20245513515483199</v>
+      </c>
+      <c r="K32" s="9">
+        <v>2.3129300347915498</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1556</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C33" s="9">
+        <v>2.2857819957704</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.49603798068873101</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.305903716951062</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.49603798068873101</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.370942250380358</v>
+      </c>
+      <c r="H33" s="9">
+        <v>3.16368519276614E-2</v>
+      </c>
+      <c r="I33" s="9">
+        <v>4.4759203677645798E-2</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.20413044476064701</v>
+      </c>
+      <c r="K33" s="9">
+        <v>2.2445320737798</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1852</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" s="9">
+        <v>2.4332978498644899</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.47757762646276303</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.24007331963656101</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.47757762646276303</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.31537159835005901</v>
+      </c>
+      <c r="H34" s="9">
+        <v>1.6127215484975501E-2</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2.5067974428351601E-2</v>
+      </c>
+      <c r="J34" s="9">
+        <v>6.4169884563363699E-2</v>
+      </c>
+      <c r="K34" s="9">
+        <v>2.5691990512173302</v>
+      </c>
+      <c r="L34" s="9">
+        <v>974</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="9">
+        <v>2.5017422710976902</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.47117146657736497</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.222002642739101</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.47117146657736497</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.301803832378578</v>
+      </c>
+      <c r="H35" s="9">
+        <v>1.33445645995032E-2</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2.0833333333333301E-2</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9">
+        <v>2.7220579643801899</v>
+      </c>
+      <c r="L35" s="9">
+        <v>848</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="9">
+        <v>2.49338352563904</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.48459493776859902</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.24895023375329201</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0.48459493776859902</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.32204172155556399</v>
+      </c>
+      <c r="H36" s="9">
+        <v>1.9718867622606301E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <v>2.8057001819988499E-2</v>
+      </c>
+      <c r="J36" s="9">
+        <v>9.8396955511731998E-2</v>
+      </c>
+      <c r="K36" s="9">
+        <v>2.5248327000838899</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1030</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" s="9">
+        <v>2.40314698858958</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.49130539431824499</v>
+      </c>
+      <c r="E37" s="9">
+        <v>0.26150628734613501</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.49130539431824499</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.33890148571385198</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2.27383645793264E-2</v>
+      </c>
+      <c r="I37" s="9">
+        <v>3.4024610550690497E-2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.13573982216403099</v>
+      </c>
+      <c r="K37" s="9">
+        <v>2.41259670501075</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1758</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="H2:H37">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2AF50-4881-4BD8-ABC8-BC15E9EA58C5}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -4739,7 +6949,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>107</v>
       </c>
@@ -4777,7 +6987,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -4815,7 +7025,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>111</v>
       </c>
@@ -4853,7 +7063,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>113</v>
       </c>
@@ -4891,7 +7101,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -4929,7 +7139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
@@ -4967,7 +7177,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>119</v>
       </c>
@@ -5005,7 +7215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
@@ -5043,7 +7253,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>123</v>
       </c>
@@ -5081,7 +7291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>125</v>
       </c>
@@ -5119,7 +7329,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>127</v>
       </c>
@@ -5157,7 +7367,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -5198,32 +7408,32 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="10" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="9" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="8" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="7" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="6" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FADA8-07B8-4272-9C6D-6AA1D1013DC4}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -5231,22 +7441,22 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -5282,7 +7492,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -5317,7 +7527,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -5352,7 +7562,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -5387,7 +7597,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -5422,7 +7632,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -5457,7 +7667,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -5492,7 +7702,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -5527,7 +7737,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -5562,7 +7772,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -5597,7 +7807,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -5632,7 +7842,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -5667,7 +7877,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -5705,17 +7915,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="3" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -5723,24 +7933,24 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -5776,7 +7986,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -5814,7 +8024,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>87</v>
       </c>
@@ -5852,7 +8062,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>86</v>
       </c>
@@ -5890,7 +8100,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -5928,7 +8138,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -5966,7 +8176,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -6004,7 +8214,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>90</v>
       </c>
@@ -6042,7 +8252,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -6080,7 +8290,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -6118,7 +8328,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -6156,7 +8366,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>94</v>
       </c>
@@ -6194,7 +8404,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -6235,498 +8445,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="41.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1.7633318481648801</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.63773534445870705</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.64585828517214805</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.63773534445870705</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.63209686587194303</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.42266767856564602</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.424866302265412</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.52335837026211496</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.15858271169754501</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.6060506546642701</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.64292141076445097</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.64788097263192801</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.64292141076445097</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.62880265308775896</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.419193447998292</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.41426456144062401</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.522161283524194</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.41292034835052499</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.7065480208978401</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.64231072445163795</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.64914280521756695</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.64231072445163795</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.63456516154213005</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.41642881057056802</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.42394526186094</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.52965118805703404</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.280976879672932</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.6844555593527299</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.64170271250767397</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.65118305208096705</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.64170271250767397</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.63679617815674805</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.41874004653369301</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.42851655284519002</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.52903004661683195</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.261424004426486</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2.02518721718977</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.60158369146620505</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.56010813354540401</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.60158369146620505</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.56306214712604796</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.33591177116505999</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.33577325471428998</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.41325757668533702</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.91616751128435603</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.7286468746821999</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.62583742628044103</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.64314354051438005</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.62583742628044103</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.62471608290857195</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.40170177814221403</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.41503025460943599</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.51124042310741102</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.33378010952758003</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.66500821949505</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.59991162955107802</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.62326123009955003</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.59991162955107802</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.59561874325319897</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.37842957103013303</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.39554160615859202</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.47365818700672502</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.701845622032506</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1.6963374429723099</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.60921250302319896</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.63388463041651699</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.60921250302319896</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.609708652447846</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.39908908887107902</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.41791952793020198</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.490704431636454</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.50646139980168903</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2.30053117048086</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.59608949135830003</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.55361795674316705</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.59608949135830003</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.55691609611373105</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.33008068820880498</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.33489385401965799</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.40843403254931898</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.82586389531957105</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2.09086211956128</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.59258804487358296</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.56358777540334104</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.59258804487358296</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.55670726127855996</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.32178395353003297</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.33476428167644501</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.42888508012367699</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1.03129530288474</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2.7874045825586</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.45393260125392998</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.28674363044323398</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.45393260125392998</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.34138126396280599</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2.6233249079102398E-2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>4.7457167005305903E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.13642573046380399</v>
-      </c>
-      <c r="J12" s="10">
-        <v>3.4645091849998302</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2.3795432114019599</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.51372544231735195</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.48977421624057998</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.51372544231735195</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.48758786597237003</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.214164303979616</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.233778361020088</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.33398580589150201</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1.42454044189455</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E10AF5-B92B-4186-85A9-31A2AC1D4B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A9492-CC64-4D13-AA9D-5CD1E1933F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="resampling" sheetId="2" r:id="rId4"/>
     <sheet name="48label_cnn" sheetId="8" r:id="rId5"/>
     <sheet name="48label_lstm" sheetId="11" r:id="rId6"/>
-    <sheet name="48label_baseline" sheetId="5" r:id="rId7"/>
-    <sheet name="48label_ros" sheetId="6" r:id="rId8"/>
-    <sheet name="48label_word2vec" sheetId="7" r:id="rId9"/>
-    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId10"/>
-    <sheet name="weighted_baseline" sheetId="10" r:id="rId11"/>
+    <sheet name="48label_bilstm" sheetId="12" r:id="rId7"/>
+    <sheet name="48label_baseline" sheetId="5" r:id="rId8"/>
+    <sheet name="48label_ros" sheetId="6" r:id="rId9"/>
+    <sheet name="48label_word2vec" sheetId="7" r:id="rId10"/>
+    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId11"/>
+    <sheet name="weighted_baseline" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="349">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,6 +957,219 @@
   </si>
   <si>
     <t>0 hrs 29 mins 18 secs</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm1Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 22 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm1Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 44 mins 57 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm1Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 37 mins 44 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm1Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 42 mins 16 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm2Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 53 mins 42 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm2Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 58 mins 33 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm2Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>1 hrs 0 mins 14 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm2Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>1 hrs 0 mins 16 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm3Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>1 hrs 0 mins 15 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm3Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 16 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm3Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>1 hrs 1 mins 19 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased Bilstm3Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>1 hrs 2 mins 43 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm1Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 51 mins 51 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm1Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 52 mins 57 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm1Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm1Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 32 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm2Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 32 mins 5 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm2Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 42 mins 31 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm2Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 37 mins 40 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm2Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 52 mins 15 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm3Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 28 mins 5 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm3Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 14 mins 2 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm3Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 28 mins 47 secs</t>
+  </si>
+  <si>
+    <t>roberta-base Bilstm3Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm1Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 48 mins 21 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm1Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 45 mins 44 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm1Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 59 mins 45 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm1Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 59 mins 23 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm2Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 21 mins 35 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm2Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 30 mins 59 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm2Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 30 mins 45 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm2Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 26 mins 28 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm3Layer256Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 25 mins 9 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm3Layer256Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 20 mins 36 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm3Layer512Hidden3Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 22 mins 19 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base Bilstm3Layer512Hidden5Dropout none</t>
+  </si>
+  <si>
+    <t>0 hrs 30 mins 15 secs</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1045,11 +1259,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="40">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1201,13 +1432,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1607,21 +1831,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1706,7 +1930,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1747,7 +1971,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1785,7 +2009,7 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1829,7 +2053,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1873,7 +2097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1914,7 +2138,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1958,7 +2182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2002,7 +2226,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2043,7 +2267,7 @@
         <v>0.36020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2087,7 +2311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2131,7 +2355,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2175,34 +2399,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="38" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="39" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="37" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="38" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="36" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="37" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="35" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="34" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="33" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="32" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="31" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="30" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="31" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="29" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="30" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2210,6 +2434,533 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.7481197245600699</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.64490893192684795</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64675678977135098</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.64490893192684795</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.63476631412295004</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.422908955880962</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.42770990864831798</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.53211581554232201</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.24482818922862301</v>
+      </c>
+      <c r="K2" s="9">
+        <v>2670</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.68291767319528</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.63285834217037795</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.64821631790761702</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.63285834217037795</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.63006120848784697</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.42377712783777799</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.44217614209678402</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.523715843583064</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.31850661056066798</v>
+      </c>
+      <c r="K3" s="9">
+        <v>2205</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.5862721682685099</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.63392541534110902</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.63485128485907605</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.63392541534110902</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.62657562520368904</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.42110039498712998</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.43055737074824701</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.51696893769277397</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.41581065463339201</v>
+      </c>
+      <c r="K4" s="9">
+        <v>2778</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.7879512322748501</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64093842440140603</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65148878050164305</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64093842440140603</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63547513895813401</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.42718657106232899</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.42386455573653797</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.527328518270053</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.15341508413018501</v>
+      </c>
+      <c r="K5" s="9">
+        <v>3587</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1.9077054051228</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.62889050901378496</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.64549111044995899</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.62889050901378496</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.62620842167595403</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.42111271659613903</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.43335333242309398</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.51268683288518002</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.19479241613714801</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3487</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.0257840923056301</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.57717716879685899</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.55868684322088902</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.57717716879685899</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.55171551467184499</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.32959119356403999</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.35484302087203501</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.41358547358292702</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.01361543935009</v>
+      </c>
+      <c r="K7" s="9">
+        <v>2435</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.91106558696525</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.57185994214061098</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.549885603895512</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.57185994214061098</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.54355158871879805</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.32109765438117199</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.34858545990265299</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.40200365197064603</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.1627840690319899</v>
+      </c>
+      <c r="K8" s="9">
+        <v>3911</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2.0355511979358898</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.57672240981563105</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.55737834921163598</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.57672240981563105</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.55500330373278794</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.31374916139575998</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.32993851461663698</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.42371495433915801</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.92596363917516</v>
+      </c>
+      <c r="K9" s="9">
+        <v>3779</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.22592040496628</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.60036022585626303</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.553536488582557</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.60036022585626303</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.56174149873694201</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.32582058314353102</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.33127435772620301</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.41669358995198003</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.82395546536355402</v>
+      </c>
+      <c r="K10" s="9">
+        <v>3469</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.4531468331268602</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.56619074528845903</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.470994602220554</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.56619074528845903</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.49540097374180497</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.25238910988769703</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.25735463977414702</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.30984738749618101</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.5735375735069701</v>
+      </c>
+      <c r="K11" s="9">
+        <v>3356</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.5546596561990098</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.45684882606835198</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.33400823395263102</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.45684882606835198</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.36841695927265999</v>
+      </c>
+      <c r="G12" s="10">
+        <v>4.4919909831794801E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>7.0884573865882594E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.18152850403985599</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.2241955172416201</v>
+      </c>
+      <c r="K12" s="9">
+        <v>2110</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.3901268480027502</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.49619890792729399</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.43593042031661999</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.49619890792729399</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.44671973667531401</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.164489625284619</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.191639308133947</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.291015861103674</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.9436613104748399</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5168</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -2217,24 +2968,24 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="5"/>
+    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -2270,7 +3021,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>180</v>
       </c>
@@ -2305,7 +3056,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>182</v>
       </c>
@@ -2340,7 +3091,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>184</v>
       </c>
@@ -2375,7 +3126,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>186</v>
       </c>
@@ -2410,7 +3161,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>188</v>
       </c>
@@ -2445,7 +3196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>190</v>
       </c>
@@ -2480,7 +3231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>192</v>
       </c>
@@ -2515,7 +3266,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>194</v>
       </c>
@@ -2550,7 +3301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>196</v>
       </c>
@@ -2585,7 +3336,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>198</v>
       </c>
@@ -2620,7 +3371,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>200</v>
       </c>
@@ -2655,7 +3406,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>202</v>
       </c>
@@ -2700,26 +3451,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74626179-9F65-410E-AD2C-CEB46CD1CC9B}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -2755,7 +3506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>107</v>
       </c>
@@ -2793,7 +3544,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>109</v>
       </c>
@@ -2831,7 +3582,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>111</v>
       </c>
@@ -2869,7 +3620,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>113</v>
       </c>
@@ -2907,7 +3658,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>115</v>
       </c>
@@ -2945,7 +3696,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>117</v>
       </c>
@@ -2983,7 +3734,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>119</v>
       </c>
@@ -3021,7 +3772,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>121</v>
       </c>
@@ -3059,7 +3810,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>123</v>
       </c>
@@ -3097,7 +3848,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>125</v>
       </c>
@@ -3135,7 +3886,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>127</v>
       </c>
@@ -3173,7 +3924,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>129</v>
       </c>
@@ -3226,16 +3977,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.375" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.625" customWidth="1"/>
-    <col min="6" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5703125" customWidth="1"/>
+    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -3255,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -3275,7 +4026,7 @@
         <v>0.42767479626174498</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -3295,7 +4046,7 @@
         <v>0.419371889316563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -3315,7 +4066,7 @@
         <v>0.42519749130891898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -3335,7 +4086,7 @@
         <v>0.41964016375595498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -3355,7 +4106,7 @@
         <v>0.42061577299386199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -3375,7 +4126,7 @@
         <v>0.42372858180095502</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -3395,7 +4146,7 @@
         <v>0.42120239413761501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -3415,7 +4166,7 @@
         <v>0.41786816004023603</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -3435,7 +4186,7 @@
         <v>0.40439624162764398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -3455,7 +4206,7 @@
         <v>0.40350404253008398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -3475,7 +4226,7 @@
         <v>0.40397173210302301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -3495,7 +4246,7 @@
         <v>0.40848951183804999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -3515,7 +4266,7 @@
         <v>0.40662008078842299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -3535,7 +4286,7 @@
         <v>0.32373597117303299</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -3555,7 +4306,7 @@
         <v>0.41378522570380599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
@@ -3575,7 +4326,7 @@
         <v>0.39729976961657298</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -3595,7 +4346,7 @@
         <v>0.32026665291287598</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -3615,7 +4366,7 @@
         <v>0.31764477972378302</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -3635,7 +4386,7 @@
         <v>0.39955173817582301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -3655,7 +4406,7 @@
         <v>0.24901882976230799</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -3675,7 +4426,7 @@
         <v>0.403354241745357</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -3695,7 +4446,7 @@
         <v>0.32116342006830201</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -3715,7 +4466,7 @@
         <v>0.24458758922679</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -3738,16 +4489,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="28" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="29" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="27" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="28" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="26" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="27" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="25" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="26" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3762,18 +4513,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.125" style="5"/>
+    <col min="4" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -3802,7 +4553,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -3834,7 +4585,7 @@
         <v>0.29688771044222001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
@@ -3866,7 +4617,7 @@
         <v>0.56487674747175398</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -3898,7 +4649,7 @@
         <v>0.47299711094310298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -3930,7 +4681,7 @@
         <v>0.258730285177453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -3962,7 +4713,7 @@
         <v>0.36070885175749801</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -3994,7 +4745,7 @@
         <v>0.55381518353022097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -4026,7 +4777,7 @@
         <v>0.45388183733437198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -4058,7 +4809,7 @@
         <v>0.50062494382485301</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -4090,7 +4841,7 @@
         <v>0.35918877673647598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -4122,7 +4873,7 @@
         <v>2.8811811044972799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
@@ -4154,7 +4905,7 @@
         <v>1.0663419343588501</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -4186,7 +4937,7 @@
         <v>1.7115998788454501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -4198,10 +4949,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="24" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="25" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="23" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4218,24 +4969,24 @@
       <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
-    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4276,7 +5027,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4311,7 +5062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4346,7 +5097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4381,7 +5132,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4425,7 +5176,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4469,7 +5220,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4513,7 +5264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4560,7 +5311,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4604,7 +5355,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4648,7 +5399,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4692,7 +5443,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4736,7 +5487,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4783,34 +5534,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="21" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="20" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="19" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="18" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="17" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="16" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="15" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="14" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="13" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="12" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4825,17 +5576,17 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="5"/>
+    <col min="1" max="1" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +5603,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>155</v>
       </c>
@@ -4872,7 +5623,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>156</v>
       </c>
@@ -4892,7 +5643,7 @@
         <v>0.19189999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>157</v>
       </c>
@@ -4912,7 +5663,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>158</v>
       </c>
@@ -4932,7 +5683,7 @@
         <v>0.1656</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>159</v>
       </c>
@@ -4952,7 +5703,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>160</v>
       </c>
@@ -4972,7 +5723,7 @@
         <v>0.3095</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>161</v>
       </c>
@@ -4992,7 +5743,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>162</v>
       </c>
@@ -5012,7 +5763,7 @@
         <v>0.1802</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -5032,7 +5783,7 @@
         <v>0.2437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>164</v>
       </c>
@@ -5052,7 +5803,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>165</v>
       </c>
@@ -5072,7 +5823,7 @@
         <v>0.30259999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>166</v>
       </c>
@@ -5092,7 +5843,7 @@
         <v>0.3226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>167</v>
       </c>
@@ -5112,7 +5863,7 @@
         <v>1.2371000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>168</v>
       </c>
@@ -5132,7 +5883,7 @@
         <v>1.4414</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>169</v>
       </c>
@@ -5152,7 +5903,7 @@
         <v>0.59089999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>170</v>
       </c>
@@ -5172,7 +5923,7 @@
         <v>1.7483</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>171</v>
       </c>
@@ -5192,7 +5943,7 @@
         <v>0.75419999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>172</v>
       </c>
@@ -5212,7 +5963,7 @@
         <v>1.4823</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>173</v>
       </c>
@@ -5232,7 +5983,7 @@
         <v>0.33250000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>174</v>
       </c>
@@ -5252,7 +6003,7 @@
         <v>1.6876</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>175</v>
       </c>
@@ -5272,7 +6023,7 @@
         <v>0.3659</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>176</v>
       </c>
@@ -5292,7 +6043,7 @@
         <v>1.5825</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -5312,7 +6063,7 @@
         <v>1.7824</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>178</v>
       </c>
@@ -5335,7 +6086,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="22" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5346,26 +6097,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B0C40CF-9E11-462F-8582-3FB0EBEA4697}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>227</v>
       </c>
@@ -5406,7 +6157,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>229</v>
       </c>
@@ -5447,7 +6198,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>229</v>
       </c>
@@ -5488,7 +6239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>229</v>
       </c>
@@ -5529,7 +6280,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>229</v>
       </c>
@@ -5570,7 +6321,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>229</v>
       </c>
@@ -5611,7 +6362,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>229</v>
       </c>
@@ -5652,7 +6403,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>229</v>
       </c>
@@ -5693,7 +6444,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>229</v>
       </c>
@@ -5734,7 +6485,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>229</v>
       </c>
@@ -5775,7 +6526,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>229</v>
       </c>
@@ -5816,7 +6567,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>229</v>
       </c>
@@ -5857,7 +6608,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>229</v>
       </c>
@@ -5898,7 +6649,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>254</v>
       </c>
@@ -5939,7 +6690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>254</v>
       </c>
@@ -5980,7 +6731,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>254</v>
       </c>
@@ -6021,7 +6772,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>254</v>
       </c>
@@ -6062,7 +6813,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>254</v>
       </c>
@@ -6103,7 +6854,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>254</v>
       </c>
@@ -6144,7 +6895,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>254</v>
       </c>
@@ -6185,7 +6936,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>254</v>
       </c>
@@ -6226,7 +6977,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>254</v>
       </c>
@@ -6267,7 +7018,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>254</v>
       </c>
@@ -6308,7 +7059,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>254</v>
       </c>
@@ -6349,7 +7100,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>254</v>
       </c>
@@ -6390,7 +7141,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>267</v>
       </c>
@@ -6431,7 +7182,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>267</v>
       </c>
@@ -6472,7 +7223,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>267</v>
       </c>
@@ -6513,7 +7264,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>267</v>
       </c>
@@ -6554,7 +7305,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>267</v>
       </c>
@@ -6595,7 +7346,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>267</v>
       </c>
@@ -6636,7 +7387,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>267</v>
       </c>
@@ -6677,7 +7428,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>267</v>
       </c>
@@ -6718,7 +7469,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>267</v>
       </c>
@@ -6759,7 +7510,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>267</v>
       </c>
@@ -6800,7 +7551,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>267</v>
       </c>
@@ -6841,7 +7592,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>267</v>
       </c>
@@ -6885,13 +7636,1449 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H37">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8372B9FC-9562-4E8A-824D-682F839CA250}">
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1.8968323301296699</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.65680231530576105</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.65256738620176202</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.65680231530576105</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.64827990074472097</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.41134020191471798</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.41341417858731999</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.547196978963707</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.15417321633345901</v>
+      </c>
+      <c r="K2" s="11">
+        <v>2902</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1.9320271102756901</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.629956303138546</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.63801248672776201</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.629956303138546</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.62505537461486405</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.39071441921854499</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.38669104335134302</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.51497068323220596</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.20045867664058001</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2697</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1.80254389331108</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.64597693531283096</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.64870389355241598</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.64597693531283096</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.63969863536183402</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.40900380417478699</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.41179537303763902</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.53515868905040898</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.202929144952781</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2264</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="11">
+        <v>1.89370527976169</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.65192275492548901</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.65080118123742203</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.65192275492548901</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.64294833581295097</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.408723414132802</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.40490951849632301</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.54052758632365305</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.16698164656735501</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2536</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" s="11">
+        <v>1.86395685996224</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.62888806719874901</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.63479295095704902</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.62888806719874901</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.62537055391015295</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.356107843337304</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.363478272931892</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.51864867878298804</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.35633371792642798</v>
+      </c>
+      <c r="K6" s="11">
+        <v>3222</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="11">
+        <v>1.9255714441217999</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.61989207177540795</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.62504155821645502</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.61989207177540795</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.61502385847661201</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.34433477807396601</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.35110731090881198</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.50322315485657798</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.34774740246442498</v>
+      </c>
+      <c r="K7" s="11">
+        <v>3513</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.1007546019535899</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.62721112165354997</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.64078721290728002</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.62721112165354997</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.62590600584145695</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.37742686470404302</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.38242309778806</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.51333782071358203</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.153317348786527</v>
+      </c>
+      <c r="K8" s="11">
+        <v>3614</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2.05568618838016</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.63697407955200802</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.64068349009343395</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.63697407955200802</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.62738949541559397</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.38544939403774803</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.381271195882111</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.51845707754701098</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.175619655403183</v>
+      </c>
+      <c r="K9" s="11">
+        <v>3616</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="11">
+        <v>1.92189410277983</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.5883133569608</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.54460822163211098</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.5883133569608</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.55536488404728601</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.21339583461797801</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.22343740603284401</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.44600547724620798</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.85773560026683204</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3615</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.0853129225896598</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.55567035962121603</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.47505370057075103</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.55567035962121603</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.49751030135226099</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.16167893115135501</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.18050533576692901</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.38237623898450102</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1.3426642369592501</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2896</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1.9936461890252599</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.589992511767223</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.55463535372210504</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.589992511767223</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.56304437758124803</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.236528197408756</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.25046633288676201</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.45119399925866899</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.81422702271672998</v>
+      </c>
+      <c r="K12" s="11">
+        <v>3679</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.1480922512346599</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.568791045747986</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.54356789508876502</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.568791045747986</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.54449251511489904</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.23341093118968201</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.24697556157237899</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.42331889748540402</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.79667443872611099</v>
+      </c>
+      <c r="K13" s="11">
+        <v>3763</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1.83130184775445</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.63941403415750397</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.63541531633724202</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.63941403415750397</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.62915855406961096</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.37786913216444401</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.38045313809851899</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.52317103798034503</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.29741656752729101</v>
+      </c>
+      <c r="K14" s="11">
+        <v>3111</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1.7866412529131199</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.62446605644546105</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.61584399504099996</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.62446605644546105</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.61279056273483501</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.33654863367780902</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.33851236788212602</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.50748972641409695</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.48591872403943298</v>
+      </c>
+      <c r="K15" s="11">
+        <v>3177</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16" s="11">
+        <v>1.7929357698777799</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.63697303305984998</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.64803767679580804</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.63697303305984998</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.63221157039403697</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.391391767854885</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.394758320786529</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.52563420569456498</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.28878123540226802</v>
+      </c>
+      <c r="K16" s="11">
+        <v>2778</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17" s="11">
+        <v>1.8259879162217001</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.63514341593644696</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.62190317578898002</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.63514341593644696</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.61824307922645105</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.363689760494804</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.35610161720823802</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.51158820949675299</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.35314888557385099</v>
+      </c>
+      <c r="K17" s="11">
+        <v>2912</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2.1505663376028901</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.52685415155066795</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.35962501647563999</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.52685415155066795</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.41675831647046002</v>
+      </c>
+      <c r="G18" s="11">
+        <v>8.38716070909276E-2</v>
+      </c>
+      <c r="H18" s="11">
+        <v>9.6155496502538296E-2</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.23073461277743201</v>
+      </c>
+      <c r="J18" s="11">
+        <v>1.91018023668538</v>
+      </c>
+      <c r="K18" s="11">
+        <v>1925</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1.99448364540571</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.55018848486539695</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.43452957014467303</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.55018848486539695</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.47566843023292099</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.127980321352855</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.14012179946283701</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.36333034136629599</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1.47077091428928</v>
+      </c>
+      <c r="K19" s="11">
+        <v>2551</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2.1358168958163799</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.54391743874532505</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.40089178970816602</v>
+      </c>
+      <c r="E20" s="11">
+        <v>0.54391743874532505</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0.44911590646034499</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0.13876358338063699</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.149771465034575</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.29713724370545602</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1.55359074208294</v>
+      </c>
+      <c r="K20" s="11">
+        <v>2260</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="11">
+        <v>1.95060156194902</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.58832719391267096</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.54163508254058301</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.58832719391267096</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.54975858791617005</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.25411970492890501</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.260293859534591</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.43305773971640699</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.89983590520554901</v>
+      </c>
+      <c r="K21" s="11">
+        <v>3135</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2.3393247402295798</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.50244530334319304</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.29131011642041399</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.50244530334319304</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.35905208885394302</v>
+      </c>
+      <c r="G22" s="11">
+        <v>4.23401084652913E-2</v>
+      </c>
+      <c r="H22" s="11">
+        <v>5.0611161672032501E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.143088073830417</v>
+      </c>
+      <c r="J22" s="11">
+        <v>2.2093859400781901</v>
+      </c>
+      <c r="K22" s="11">
+        <v>1685</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2.4111198406393899</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.48047733995646502</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.23792762749261701</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.48047733995646502</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.31709650346877699</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1.74487949754055E-2</v>
+      </c>
+      <c r="H23" s="11">
+        <v>2.7674530283930601E-2</v>
+      </c>
+      <c r="I23" s="11">
+        <v>5.4486636958288898E-2</v>
+      </c>
+      <c r="J23" s="11">
+        <v>2.5606389769693698</v>
+      </c>
+      <c r="K23" s="11">
+        <v>842</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2.2586705433522698</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.51036701642760096</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.31662538372698901</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.51036701642760096</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.38096506195386498</v>
+      </c>
+      <c r="G24" s="11">
+        <v>5.9718493415102998E-2</v>
+      </c>
+      <c r="H24" s="11">
+        <v>7.0272271328941899E-2</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.18863279618642301</v>
+      </c>
+      <c r="J24" s="11">
+        <v>2.0246205211457999</v>
+      </c>
+      <c r="K24" s="11">
+        <v>1727</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2.24897938981288</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.50075905564547596</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.30606162528284098</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.50075905564547596</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.37107463623117698</v>
+      </c>
+      <c r="G25" s="11">
+        <v>4.3258360075119399E-2</v>
+      </c>
+      <c r="H25" s="11">
+        <v>5.6229267461911203E-2</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.17854256058944501</v>
+      </c>
+      <c r="J25" s="11">
+        <v>2.22811569745947</v>
+      </c>
+      <c r="K25" s="11">
+        <v>1556</v>
+      </c>
+      <c r="L25" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1.9068865582710299</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.55948645141485698</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.48106677753966598</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.55948645141485698</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.507140633508531</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.124328831274312</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.142589787672317</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.400661530614565</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1.2912551795155101</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2901</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1.9369151949155601</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.55567419675912999</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.47734808289105302</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.55567419675912999</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.50288440191660699</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.13170690138722399</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.150588632527202</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.39147182225439398</v>
+      </c>
+      <c r="J27" s="11">
+        <v>1.3768248309267701</v>
+      </c>
+      <c r="K27" s="11">
+        <v>2744</v>
+      </c>
+      <c r="L27" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1.9314349297343201</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.577942038287659</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.54895528541190097</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.577942038287659</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.55543617479483598</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.21294462470398401</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.226687176883548</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.44149553604474301</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.84916529076900704</v>
+      </c>
+      <c r="K28" s="11">
+        <v>3585</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1.95266845378933</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.57275946028911096</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.54213917367166298</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.57275946028911096</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.54802248037877199</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.192660325294435</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.208878344255405</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.43633384906794298</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.90448744060335295</v>
+      </c>
+      <c r="K29" s="11">
+        <v>3563</v>
+      </c>
+      <c r="L29" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2.30656395380089</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.49984953768301899</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.28969783225342499</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.49984953768301899</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.36209202619916803</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2.7532523264461199E-2</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4.0973191150865299E-2</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.221353319111949</v>
+      </c>
+      <c r="J30" s="11">
+        <v>2.3260434611904901</v>
+      </c>
+      <c r="K30" s="11">
+        <v>1295</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2.2381982162958201</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.50564489497869802</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.30051302532506502</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.50564489497869802</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.37102595816681</v>
+      </c>
+      <c r="G31" s="11">
+        <v>3.3894494094052999E-2</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4.71010825747641E-2</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.20357328142099801</v>
+      </c>
+      <c r="J31" s="11">
+        <v>2.2686246480520098</v>
+      </c>
+      <c r="K31" s="11">
+        <v>1859</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2.2570364904839799</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.51661666759688196</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.33333217015277</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.51661666759688196</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.39470003757828198</v>
+      </c>
+      <c r="G32" s="11">
+        <v>5.9224806124458303E-2</v>
+      </c>
+      <c r="H32" s="11">
+        <v>6.8667611290616395E-2</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.24350743815640499</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2.06345015472573</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1845</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2.39678618355495</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.49893374076761299</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.28272642710694401</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.49893374076761299</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.35617683493477498</v>
+      </c>
+      <c r="G33" s="11">
+        <v>2.95450173454892E-2</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4.0577922043410798E-2</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.20672520244360101</v>
+      </c>
+      <c r="J33" s="11">
+        <v>2.2608971381332799</v>
+      </c>
+      <c r="K33" s="11">
+        <v>1588</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2.3914049211071702</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.49298164220200502</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.26793236991206199</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.49298164220200502</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.34248940201943501</v>
+      </c>
+      <c r="G34" s="11">
+        <v>2.6174266064150801E-2</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3.5220652405703802E-2</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.155323405082267</v>
+      </c>
+      <c r="J34" s="11">
+        <v>2.4142425774801</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1509</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2.42344228843363</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.48489935070975398</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.26241128384819601</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.48489935070975398</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.33414523020329001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2.04934989906192E-2</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3.0877292763647798E-2</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.15105474753943701</v>
+      </c>
+      <c r="J35" s="11">
+        <v>2.52133589437822</v>
+      </c>
+      <c r="K35" s="11">
+        <v>1236</v>
+      </c>
+      <c r="L35" s="11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2.37764159877125</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.48672629346430701</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.26999483156054399</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.48672629346430701</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.34226468877167199</v>
+      </c>
+      <c r="G36" s="11">
+        <v>2.4376645554716501E-2</v>
+      </c>
+      <c r="H36" s="11">
+        <v>3.5059469282869203E-2</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.15409194051908501</v>
+      </c>
+      <c r="J36" s="11">
+        <v>2.34213107288247</v>
+      </c>
+      <c r="K36" s="11">
+        <v>1339</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2.4413704232471698</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.485662476046957</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.27688219489749499</v>
+      </c>
+      <c r="E37" s="11">
+        <v>0.485662476046957</v>
+      </c>
+      <c r="F37" s="11">
+        <v>0.34535800655554</v>
+      </c>
+      <c r="G37" s="11">
+        <v>2.8723367292797099E-2</v>
+      </c>
+      <c r="H37" s="11">
+        <v>3.8967383252242797E-2</v>
+      </c>
+      <c r="I37" s="11">
+        <v>0.12935844117678599</v>
+      </c>
+      <c r="J37" s="11">
+        <v>2.3245981647110501</v>
+      </c>
+      <c r="K37" s="11">
+        <v>1815</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G37">
+    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2AF50-4881-4BD8-ABC8-BC15E9EA58C5}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -6899,21 +9086,21 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -6949,7 +9136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>107</v>
       </c>
@@ -6987,7 +9174,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -7025,7 +9212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>111</v>
       </c>
@@ -7063,7 +9250,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>113</v>
       </c>
@@ -7101,7 +9288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -7139,7 +9326,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
@@ -7177,7 +9364,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>119</v>
       </c>
@@ -7215,7 +9402,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
@@ -7253,7 +9440,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>123</v>
       </c>
@@ -7291,7 +9478,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>125</v>
       </c>
@@ -7329,7 +9516,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>127</v>
       </c>
@@ -7367,7 +9554,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -7433,7 +9620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FADA8-07B8-4272-9C6D-6AA1D1013DC4}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -7441,22 +9628,22 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -7492,7 +9679,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -7527,7 +9714,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -7562,7 +9749,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -7597,7 +9784,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>137</v>
       </c>
@@ -7632,7 +9819,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -7667,7 +9854,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>141</v>
       </c>
@@ -7702,7 +9889,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>143</v>
       </c>
@@ -7737,7 +9924,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>145</v>
       </c>
@@ -7772,7 +9959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>147</v>
       </c>
@@ -7807,7 +9994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>149</v>
       </c>
@@ -7842,7 +10029,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>151</v>
       </c>
@@ -7877,7 +10064,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>153</v>
       </c>
@@ -7923,531 +10110,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.125" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1.7481197245600699</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.64490893192684795</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.64675678977135098</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.64490893192684795</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.63476631412295004</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.422908955880962</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.42770990864831798</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.53211581554232201</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.24482818922862301</v>
-      </c>
-      <c r="K2" s="9">
-        <v>2670</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.68291767319528</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.63285834217037795</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.64821631790761702</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.63285834217037795</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.63006120848784697</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.42377712783777799</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.44217614209678402</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.523715843583064</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.31850661056066798</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2205</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.5862721682685099</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.63392541534110902</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.63485128485907605</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.63392541534110902</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.62657562520368904</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.42110039498712998</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.43055737074824701</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.51696893769277397</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.41581065463339201</v>
-      </c>
-      <c r="K4" s="9">
-        <v>2778</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.7879512322748501</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.64093842440140603</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.65148878050164305</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.64093842440140603</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.63547513895813401</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.42718657106232899</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.42386455573653797</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.527328518270053</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.15341508413018501</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3587</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.9077054051228</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.62889050901378496</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.64549111044995899</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.62889050901378496</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.62620842167595403</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.42111271659613903</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.43335333242309398</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.51268683288518002</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.19479241613714801</v>
-      </c>
-      <c r="K6" s="9">
-        <v>3487</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="10">
-        <v>2.0257840923056301</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.57717716879685899</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.55868684322088902</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.57717716879685899</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.55171551467184499</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.32959119356403999</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.35484302087203501</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.41358547358292702</v>
-      </c>
-      <c r="J7" s="10">
-        <v>1.01361543935009</v>
-      </c>
-      <c r="K7" s="9">
-        <v>2435</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.91106558696525</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.57185994214061098</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.549885603895512</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.57185994214061098</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.54355158871879805</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.32109765438117199</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.34858545990265299</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.40200365197064603</v>
-      </c>
-      <c r="J8" s="10">
-        <v>1.1627840690319899</v>
-      </c>
-      <c r="K8" s="9">
-        <v>3911</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2.0355511979358898</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.57672240981563105</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.55737834921163598</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.57672240981563105</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.55500330373278794</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.31374916139575998</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.32993851461663698</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.42371495433915801</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.92596363917516</v>
-      </c>
-      <c r="K9" s="9">
-        <v>3779</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2.22592040496628</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.60036022585626303</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.553536488582557</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.60036022585626303</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.56174149873694201</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.32582058314353102</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.33127435772620301</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.41669358995198003</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.82395546536355402</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3469</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2.4531468331268602</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.56619074528845903</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.470994602220554</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.56619074528845903</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.49540097374180497</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.25238910988769703</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.25735463977414702</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.30984738749618101</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1.5735375735069701</v>
-      </c>
-      <c r="K11" s="9">
-        <v>3356</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2.5546596561990098</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.45684882606835198</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.33400823395263102</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.45684882606835198</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.36841695927265999</v>
-      </c>
-      <c r="G12" s="10">
-        <v>4.4919909831794801E-2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>7.0884573865882594E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.18152850403985599</v>
-      </c>
-      <c r="J12" s="10">
-        <v>3.2241955172416201</v>
-      </c>
-      <c r="K12" s="9">
-        <v>2110</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2.3901268480027502</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.49619890792729399</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.43593042031661999</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.49619890792729399</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.44671973667531401</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.164489625284619</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.191639308133947</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.291015861103674</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1.9436613104748399</v>
-      </c>
-      <c r="K13" s="9">
-        <v>5168</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461A9492-CC64-4D13-AA9D-5CD1E1933F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2940C52E-2D4E-49CB-B5CB-ED41F5BAC0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="48label_cnn" sheetId="8" r:id="rId5"/>
     <sheet name="48label_lstm" sheetId="11" r:id="rId6"/>
     <sheet name="48label_bilstm" sheetId="12" r:id="rId7"/>
-    <sheet name="48label_baseline" sheetId="5" r:id="rId8"/>
-    <sheet name="48label_ros" sheetId="6" r:id="rId9"/>
-    <sheet name="48label_word2vec" sheetId="7" r:id="rId10"/>
-    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId11"/>
-    <sheet name="weighted_baseline" sheetId="10" r:id="rId12"/>
+    <sheet name="weighted_baseline" sheetId="10" r:id="rId8"/>
+    <sheet name="48label_baseline" sheetId="5" r:id="rId9"/>
+    <sheet name="48label_ros" sheetId="6" r:id="rId10"/>
+    <sheet name="48label_word2vec" sheetId="7" r:id="rId11"/>
+    <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId12"/>
+    <sheet name="48label_t5" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="373">
   <si>
     <t>val_loss</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,6 +1171,78 @@
   </si>
   <si>
     <t>0 hrs 30 mins 15 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased None t5</t>
+  </si>
+  <si>
+    <t>3 hrs 6 mins 46 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased cnn t5</t>
+  </si>
+  <si>
+    <t>4 hrs 13 mins 59 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased lstm t5</t>
+  </si>
+  <si>
+    <t>2 hrs 48 mins 25 secs</t>
+  </si>
+  <si>
+    <t>bert-base-uncased bilstm t5</t>
+  </si>
+  <si>
+    <t>4 hrs 35 mins 47 secs</t>
+  </si>
+  <si>
+    <t>roberta-base None t5</t>
+  </si>
+  <si>
+    <t>6 hrs 0 mins 4 secs</t>
+  </si>
+  <si>
+    <t>roberta-base cnn t5</t>
+  </si>
+  <si>
+    <t>6 hrs 17 mins 7 secs</t>
+  </si>
+  <si>
+    <t>roberta-base lstm t5</t>
+  </si>
+  <si>
+    <t>6 hrs 27 mins 1 secs</t>
+  </si>
+  <si>
+    <t>roberta-base bilstm t5</t>
+  </si>
+  <si>
+    <t>6 hrs 10 mins 42 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base None t5</t>
+  </si>
+  <si>
+    <t>5 hrs 55 mins 0 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base cnn t5</t>
+  </si>
+  <si>
+    <t>6 hrs 21 mins 31 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base lstm t5</t>
+  </si>
+  <si>
+    <t>3 hrs 34 mins 10 secs</t>
+  </si>
+  <si>
+    <t>microsoft/deberta-base bilstm t5</t>
+  </si>
+  <si>
+    <t>3 hrs 0 mins 47 secs</t>
   </si>
 </sst>
 </file>
@@ -1266,7 +1339,24 @@
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="42">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1831,21 +1921,21 @@
       <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1976,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1930,7 +2020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1971,7 +2061,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2009,7 +2099,7 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2053,7 +2143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2097,7 +2187,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2138,7 +2228,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2182,7 +2272,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2226,7 +2316,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2267,7 +2357,7 @@
         <v>0.36020000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2311,7 +2401,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2355,7 +2445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2399,34 +2489,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="39" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="41" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="38" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="40" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="37" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="39" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="36" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="38" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="35" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="37" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="34" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="36" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="33" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="35" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="32" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="34" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="31" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="33" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="30" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="32" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2434,6 +2524,498 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FADA8-07B8-4272-9C6D-6AA1D1013DC4}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>1.7767999999999999</v>
+      </c>
+      <c r="C2">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.64670000000000005</v>
+      </c>
+      <c r="E2">
+        <v>0.64639999999999997</v>
+      </c>
+      <c r="F2">
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="H2">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.53</v>
+      </c>
+      <c r="J2">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>1.6947000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="E3">
+        <v>0.64729999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.63539999999999996</v>
+      </c>
+      <c r="G3">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="H3">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="J3">
+        <v>0.22159999999999999</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4">
+        <v>1.6883999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="D4">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="G4">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.41860000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.37409999999999999</v>
+      </c>
+      <c r="K4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5">
+        <v>1.6657</v>
+      </c>
+      <c r="C5">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.64219999999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="F5">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="G5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.30709999999999998</v>
+      </c>
+      <c r="K5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6">
+        <v>1.7873000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.62539999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.4173</v>
+      </c>
+      <c r="H6">
+        <v>0.4279</v>
+      </c>
+      <c r="I6">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7">
+        <v>1.7862</v>
+      </c>
+      <c r="C7">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="D7">
+        <v>0.63390000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="F7">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.40670000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.42759999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="J7">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="K7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>1.9443999999999999</v>
+      </c>
+      <c r="C8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D8">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="G8">
+        <v>0.32</v>
+      </c>
+      <c r="H8">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="J8">
+        <v>1.1711</v>
+      </c>
+      <c r="K8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9">
+        <v>1.9424999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="E9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="F9">
+        <v>0.54520000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.30969999999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.40939999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="K9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10">
+        <v>2.0699000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="D10">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="F10">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="G10">
+        <v>0.30859999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.3201</v>
+      </c>
+      <c r="I10">
+        <v>0.41320000000000001</v>
+      </c>
+      <c r="J10">
+        <v>1.0298</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11">
+        <v>1.6728000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="E11">
+        <v>0.62139999999999995</v>
+      </c>
+      <c r="F11">
+        <v>0.61719999999999997</v>
+      </c>
+      <c r="G11">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.41689999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="J11">
+        <v>0.45639999999999997</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12">
+        <v>2.3994</v>
+      </c>
+      <c r="C12">
+        <v>0.4536</v>
+      </c>
+      <c r="D12">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="E12">
+        <v>0.4536</v>
+      </c>
+      <c r="F12">
+        <v>0.40570000000000001</v>
+      </c>
+      <c r="G12">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.1179</v>
+      </c>
+      <c r="I12">
+        <v>0.24260000000000001</v>
+      </c>
+      <c r="J12">
+        <v>2.8473000000000002</v>
+      </c>
+      <c r="K12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13">
+        <v>2.2511999999999999</v>
+      </c>
+      <c r="C13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.48170000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="F13">
+        <v>0.4667</v>
+      </c>
+      <c r="G13">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.28989999999999999</v>
+      </c>
+      <c r="J13">
+        <v>1.6642999999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42E03F8-CCBA-4CA7-B914-11C40186E5A7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -2441,24 +3023,24 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -2494,7 +3076,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -2532,7 +3114,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>87</v>
       </c>
@@ -2570,7 +3152,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>86</v>
       </c>
@@ -2608,7 +3190,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -2646,7 +3228,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -2684,7 +3266,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
@@ -2722,7 +3304,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>90</v>
       </c>
@@ -2760,7 +3342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -2798,7 +3380,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -2836,7 +3418,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>95</v>
       </c>
@@ -2874,7 +3456,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>94</v>
       </c>
@@ -2912,7 +3494,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -2948,6 +3530,497 @@
       </c>
       <c r="L13" s="9" t="s">
         <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.7633318481648801</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.63773534445870705</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.64585828517214805</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.63773534445870705</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.63209686587194303</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.42266767856564602</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.424866302265412</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.52335837026211496</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.15858271169754501</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.6060506546642701</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.64292141076445097</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.64788097263192801</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.64292141076445097</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.62880265308775896</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.419193447998292</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.41426456144062401</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.522161283524194</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.41292034835052499</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.7065480208978401</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.64231072445163795</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.64914280521756695</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.64231072445163795</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.63456516154213005</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.41642881057056802</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.42394526186094</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.52965118805703404</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.280976879672932</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.6844555593527299</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.64170271250767397</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.65118305208096705</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.64170271250767397</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.63679617815674805</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.41874004653369301</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.42851655284519002</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.52903004661683195</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.261424004426486</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.02518721718977</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.60158369146620505</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.56010813354540401</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.60158369146620505</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.56306214712604796</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.33591177116505999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.33577325471428998</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.41325757668533702</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.91616751128435603</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1.7286468746821999</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.62583742628044103</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.64314354051438005</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.62583742628044103</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.62471608290857195</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.40170177814221403</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.41503025460943599</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.51124042310741102</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.33378010952758003</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.66500821949505</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.59991162955107802</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.62326123009955003</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.59991162955107802</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.59561874325319897</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.37842957103013303</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.39554160615859202</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.47365818700672502</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.701845622032506</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1.6963374429723099</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.60921250302319896</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.63388463041651699</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.60921250302319896</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.609708652447846</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.39908908887107902</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.41791952793020198</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.490704431636454</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.50646139980168903</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.30053117048086</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.59608949135830003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.55361795674316705</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.59608949135830003</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.55691609611373105</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.33008068820880498</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.33489385401965799</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.40843403254931898</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.82586389531957105</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.09086211956128</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.59258804487358296</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.56358777540334104</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.59258804487358296</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.55670726127855996</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.32178395353003297</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.33476428167644501</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.42888508012367699</v>
+      </c>
+      <c r="J11" s="10">
+        <v>1.03129530288474</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2.7874045825586</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.45393260125392998</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.28674363044323398</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.45393260125392998</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.34138126396280599</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2.6233249079102398E-2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4.7457167005305903E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.13642573046380399</v>
+      </c>
+      <c r="J12" s="10">
+        <v>3.4645091849998302</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2.3795432114019599</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.51372544231735195</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.48977421624057998</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.51372544231735195</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.48758786597237003</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.214164303979616</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.233778361020088</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.33398580589150201</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.42454044189455</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2960,33 +4033,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDDAE853-41FD-426B-83A6-86030E6D9E5C}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A41F17F3-0237-45E9-80B4-1366CB6A8587}">
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="31.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
+    <row r="1" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="8" t="s">
         <v>97</v>
       </c>
@@ -3021,424 +4090,460 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="10">
-        <v>1.7633318481648801</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.63773534445870705</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.64585828517214805</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.63773534445870705</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.63209686587194303</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.42266767856564602</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.424866302265412</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0.52335837026211496</v>
-      </c>
-      <c r="J2" s="10">
-        <v>0.15858271169754501</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2.2289966613599401</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.639415313203475</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.65068682015205304</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.639415313203475</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.63246585366907804</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.42430011001183299</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.41268145071012302</v>
+      </c>
+      <c r="I2" s="9">
+        <v>0.52519166776561099</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.115670414946195</v>
+      </c>
+      <c r="K2" s="9">
+        <v>11206</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.6060506546642701</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.64292141076445097</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.64788097263192801</v>
-      </c>
-      <c r="E3" s="10">
-        <v>0.64292141076445097</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.62880265308775896</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.419193447998292</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.41426456144062401</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.522161283524194</v>
-      </c>
-      <c r="J3" s="10">
-        <v>0.41292034835052499</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2.2038158333701299</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.63605770125206895</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.64510310003867499</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0.63605770125206895</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.62624056297897601</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.41274061304149701</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.41722744778813498</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.52165768424714698</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.37937119210269898</v>
+      </c>
+      <c r="K3" s="9">
+        <v>15239</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.7065480208978401</v>
-      </c>
-      <c r="C4" s="10">
-        <v>0.64231072445163795</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.64914280521756695</v>
-      </c>
-      <c r="E4" s="10">
-        <v>0.64231072445163795</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0.63456516154213005</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.41642881057056802</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.42394526186094</v>
-      </c>
-      <c r="I4" s="10">
-        <v>0.52965118805703404</v>
-      </c>
-      <c r="J4" s="10">
-        <v>0.280976879672932</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.8410535421858401</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.63468505237111805</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.64252379832189399</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.63468505237111805</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.62799656466898301</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.40988431119723201</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.43197689167018299</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.52129152263788903</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.58198165563455395</v>
+      </c>
+      <c r="K4" s="9">
+        <v>10105</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.6844555593527299</v>
-      </c>
-      <c r="C5" s="10">
-        <v>0.64170271250767397</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.65118305208096705</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0.64170271250767397</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.63679617815674805</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.41874004653369301</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.42851655284519002</v>
-      </c>
-      <c r="I5" s="10">
-        <v>0.52903004661683195</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.261424004426486</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2.2058255382427299</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.64993837323956705</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.64886394640481104</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.64993837323956705</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.63979939601325797</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.426306397695707</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.42492185735184002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.53617965426203995</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.33220212649571501</v>
+      </c>
+      <c r="K5" s="9">
+        <v>16547</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2.02518721718977</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0.60158369146620505</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.56010813354540401</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0.60158369146620505</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.56306214712604796</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.33591177116505999</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.33577325471428998</v>
-      </c>
-      <c r="I6" s="10">
-        <v>0.41325757668533702</v>
-      </c>
-      <c r="J6" s="10">
-        <v>0.91616751128435603</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+      <c r="B6" s="9">
+        <v>2.0051634905178299</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0.62522767018287995</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.63519005768422998</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.62522767018287995</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.61969057546065898</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.407377079440775</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.42234023395870701</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.50917153772274504</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.38880028879171102</v>
+      </c>
+      <c r="K6" s="9">
+        <v>21604</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.7286468746821999</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.62583742628044103</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.64314354051438005</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.62583742628044103</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0.62471608290857195</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.40170177814221403</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.41503025460943599</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.51124042310741102</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.33378010952758003</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2.1132766196095298</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.63392669438708105</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.63868013050838801</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.63392669438708105</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.62587792038177803</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.41639088686973402</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.422453815988311</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.51997285168371099</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.30389512791704798</v>
+      </c>
+      <c r="K7" s="9">
+        <v>22627</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.66500821949505</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.59991162955107802</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.62326123009955003</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0.59991162955107802</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0.59561874325319897</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0.37842957103013303</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.39554160615859202</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.47365818700672502</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.701845622032506</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2.24683170376754</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.59014460196089302</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.54263316194877398</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.59014460196089302</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.54833042705742696</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.31597091421435203</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.32295853702567701</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.398659970981113</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1.1682616644029</v>
+      </c>
+      <c r="K8" s="9">
+        <v>23221</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1.6963374429723099</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.60921250302319896</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.63388463041651699</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0.60921250302319896</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.609708652447846</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.39908908887107902</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.41791952793020198</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.490704431636454</v>
-      </c>
-      <c r="J9" s="10">
-        <v>0.50646139980168903</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+      <c r="B9" s="9">
+        <v>2.4295915400109598</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.56665631802199001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.46465848740497701</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.56665631802199001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.48937571606485297</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.22188853282277399</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.234643182639731</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.33549019201014901</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1.87515853551637</v>
+      </c>
+      <c r="K9" s="9">
+        <v>22242</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="10">
-        <v>2.30053117048086</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0.59608949135830003</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.55361795674316705</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.59608949135830003</v>
-      </c>
-      <c r="F10" s="10">
-        <v>0.55691609611373105</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.33008068820880498</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.33489385401965799</v>
-      </c>
-      <c r="I10" s="10">
-        <v>0.40843403254931898</v>
-      </c>
-      <c r="J10" s="10">
-        <v>0.82586389531957105</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.3158342166644701</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.60478642257818405</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.55555180994171904</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.60478642257818405</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.56273941066389899</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.32746866097302302</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.32765408222336001</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.41949665711399398</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.98818393929395798</v>
+      </c>
+      <c r="K10" s="9">
+        <v>21300</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="10">
-        <v>2.09086211956128</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.59258804487358296</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.56358777540334104</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0.59258804487358296</v>
-      </c>
-      <c r="F11" s="10">
-        <v>0.55670726127855996</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.32178395353003297</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.33476428167644501</v>
-      </c>
-      <c r="I11" s="10">
-        <v>0.42888508012367699</v>
-      </c>
-      <c r="J11" s="10">
-        <v>1.03129530288474</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.5296481059818698</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.59090726219047096</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.55349975826229703</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.59090726219047096</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.55485771768875503</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.31925129866330498</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.33020663650608501</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.40628760788485901</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1.0116982194898101</v>
+      </c>
+      <c r="K11" s="9">
+        <v>22891</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="10">
-        <v>2.7874045825586</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.45393260125392998</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.28674363044323398</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.45393260125392998</v>
-      </c>
-      <c r="F12" s="10">
-        <v>0.34138126396280599</v>
-      </c>
-      <c r="G12" s="10">
-        <v>2.6233249079102398E-2</v>
-      </c>
-      <c r="H12" s="10">
-        <v>4.7457167005305903E-2</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.13642573046380399</v>
-      </c>
-      <c r="J12" s="10">
-        <v>3.4645091849998302</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+      <c r="B12" s="9">
+        <v>2.6606197288850399</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.51098072593998201</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.41254807289860801</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.51098072593998201</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.43818459664591197</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.13111995483833899</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.141765848596106</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.26107131127136202</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2.3707823125426999</v>
+      </c>
+      <c r="K12" s="9">
+        <v>12850</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="10">
-        <v>2.3795432114019599</v>
-      </c>
-      <c r="C13" s="10">
-        <v>0.51372544231735195</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0.48977421624057998</v>
-      </c>
-      <c r="E13" s="10">
-        <v>0.51372544231735195</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0.48758786597237003</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.214164303979616</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.233778361020088</v>
-      </c>
-      <c r="I13" s="10">
-        <v>0.33398580589150201</v>
-      </c>
-      <c r="J13" s="10">
-        <v>1.42454044189455</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>203</v>
+        <v>371</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3.0558207325818998</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.46613644397313497</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.27768801298037998</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0.46613644397313497</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.33978112073896499</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2.5020099038473201E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>4.1136765674076398E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.14560984657555501</v>
+      </c>
+      <c r="J13" s="9">
+        <v>3.40151405680778</v>
+      </c>
+      <c r="K13" s="9">
+        <v>10847</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3447,525 +4552,6 @@
     <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74626179-9F65-410E-AD2C-CEB46CD1CC9B}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="11">
-        <v>2.59926028761376</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.659089947163773</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.65463339655234998</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.659089947163773</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.64801531094996101</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.41974315491386099</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0.41406052110623598</v>
-      </c>
-      <c r="I2" s="11">
-        <v>0.54788049493232405</v>
-      </c>
-      <c r="J2" s="11">
-        <v>0.16363432544607201</v>
-      </c>
-      <c r="K2" s="11">
-        <v>1986</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="11">
-        <v>2.65777287014373</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0.64017518278729602</v>
-      </c>
-      <c r="D3" s="11">
-        <v>0.65234271817459999</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.64017518278729602</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.63375682132176103</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.402300446085122</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0.40296021993074199</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0.52850088428113995</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.24547332458882301</v>
-      </c>
-      <c r="K3" s="11">
-        <v>2030</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2.5947911248156199</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.63834661215605204</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.64695837404410805</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.63834661215605204</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0.63537753587282897</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.39544976104866703</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0.40068649941564899</v>
-      </c>
-      <c r="I4" s="11">
-        <v>0.52869172394323005</v>
-      </c>
-      <c r="J4" s="11">
-        <v>0.233053899337196</v>
-      </c>
-      <c r="K4" s="11">
-        <v>2962</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="11">
-        <v>2.6657297564534099</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0.65390609011925305</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.65242524805662205</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.65390609011925305</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0.64490819351403095</v>
-      </c>
-      <c r="G5" s="11">
-        <v>0.40915163551283801</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0.40065033246654602</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0.54031298080880796</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0.16189396750002999</v>
-      </c>
-      <c r="K5" s="11">
-        <v>2874</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="11">
-        <v>2.4636286748981999</v>
-      </c>
-      <c r="C6" s="11">
-        <v>0.63560096556343104</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.63257627641827197</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.63560096556343104</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.62606171334687899</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.36244283194412802</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0.36548692198486099</v>
-      </c>
-      <c r="I6" s="11">
-        <v>0.52025641988328297</v>
-      </c>
-      <c r="J6" s="11">
-        <v>0.35850374472054902</v>
-      </c>
-      <c r="K6" s="11">
-        <v>2041</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="11">
-        <v>2.7205632749127102</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.63133057989618802</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.63974508574319</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.63133057989618802</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0.627365544965507</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.380000855201995</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0.37718200833603799</v>
-      </c>
-      <c r="I7" s="11">
-        <v>0.51707760560226002</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0.290707240446056</v>
-      </c>
-      <c r="K7" s="11">
-        <v>2809</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2.59815367649241</v>
-      </c>
-      <c r="C8" s="11">
-        <v>0.58556957079868199</v>
-      </c>
-      <c r="D8" s="11">
-        <v>0.54006367373484299</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.58556957079868199</v>
-      </c>
-      <c r="F8" s="11">
-        <v>0.54675067658536103</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.24547008908682</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0.25499525912277898</v>
-      </c>
-      <c r="I8" s="11">
-        <v>0.43350764257820801</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1.05406435782135</v>
-      </c>
-      <c r="K8" s="11">
-        <v>2728</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="11">
-        <v>2.8695588369195</v>
-      </c>
-      <c r="C9" s="11">
-        <v>0.576577528790162</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.50986694183116799</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.576577528790162</v>
-      </c>
-      <c r="F9" s="11">
-        <v>0.52744299086692503</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.22964111122299</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0.24537685094716799</v>
-      </c>
-      <c r="I9" s="11">
-        <v>0.41986583118206799</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1.11441522138647</v>
-      </c>
-      <c r="K9" s="11">
-        <v>2485</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="11">
-        <v>3.0156324277200302</v>
-      </c>
-      <c r="C10" s="11">
-        <v>0.63697187029078495</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0.64006555852958402</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0.63697187029078495</v>
-      </c>
-      <c r="F10" s="11">
-        <v>0.62917696467131401</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.38872767027277699</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0.39087084965978203</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0.52186113583920402</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.12339192520317301</v>
-      </c>
-      <c r="K10" s="11">
-        <v>2850</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2.9292952861727701</v>
-      </c>
-      <c r="C11" s="11">
-        <v>0.58969170341016897</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0.51071908599761595</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.58969170341016897</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0.53161063532763697</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.204470769042707</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0.21512243364534001</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0.42487852435593498</v>
-      </c>
-      <c r="J11" s="11">
-        <v>1.1938661815192499</v>
-      </c>
-      <c r="K11" s="11">
-        <v>2189</v>
-      </c>
-      <c r="L11" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="11">
-        <v>2.9677422734295398</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0.53508399843723797</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.41919855710480203</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.53508399843723797</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.46183648755747098</v>
-      </c>
-      <c r="G12" s="11">
-        <v>7.0452705956468298E-2</v>
-      </c>
-      <c r="H12" s="11">
-        <v>8.9479011917878201E-2</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.35330159015311502</v>
-      </c>
-      <c r="J12" s="11">
-        <v>1.7115023679122601</v>
-      </c>
-      <c r="K12" s="11">
-        <v>2478</v>
-      </c>
-      <c r="L12" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2.8762814431655599</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0.54163864393220496</v>
-      </c>
-      <c r="D13" s="11">
-        <v>0.456274395822373</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.54163864393220496</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0.48495044348119198</v>
-      </c>
-      <c r="G13" s="11">
-        <v>8.8100565672300804E-2</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0.108515467303411</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0.37907102398806902</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1.5039000394595099</v>
-      </c>
-      <c r="K13" s="11">
-        <v>2802</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3977,16 +4563,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.375" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.625" customWidth="1"/>
+    <col min="6" max="7" width="15.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -4006,7 +4592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>62</v>
       </c>
@@ -4026,7 +4612,7 @@
         <v>0.42767479626174498</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>62</v>
       </c>
@@ -4046,7 +4632,7 @@
         <v>0.419371889316563</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>63</v>
       </c>
@@ -4066,7 +4652,7 @@
         <v>0.42519749130891898</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>64</v>
       </c>
@@ -4086,7 +4672,7 @@
         <v>0.41964016375595498</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>65</v>
       </c>
@@ -4106,7 +4692,7 @@
         <v>0.42061577299386199</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
@@ -4126,7 +4712,7 @@
         <v>0.42372858180095502</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>67</v>
       </c>
@@ -4146,7 +4732,7 @@
         <v>0.42120239413761501</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>68</v>
       </c>
@@ -4166,7 +4752,7 @@
         <v>0.41786816004023603</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>69</v>
       </c>
@@ -4186,7 +4772,7 @@
         <v>0.40439624162764398</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
@@ -4206,7 +4792,7 @@
         <v>0.40350404253008398</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>70</v>
       </c>
@@ -4226,7 +4812,7 @@
         <v>0.40397173210302301</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>71</v>
       </c>
@@ -4246,7 +4832,7 @@
         <v>0.40848951183804999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>72</v>
       </c>
@@ -4266,7 +4852,7 @@
         <v>0.40662008078842299</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>73</v>
       </c>
@@ -4286,7 +4872,7 @@
         <v>0.32373597117303299</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>74</v>
       </c>
@@ -4306,7 +4892,7 @@
         <v>0.41378522570380599</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>75</v>
       </c>
@@ -4326,7 +4912,7 @@
         <v>0.39729976961657298</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>76</v>
       </c>
@@ -4346,7 +4932,7 @@
         <v>0.32026665291287598</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>76</v>
       </c>
@@ -4366,7 +4952,7 @@
         <v>0.31764477972378302</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>77</v>
       </c>
@@ -4386,7 +4972,7 @@
         <v>0.39955173817582301</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>78</v>
       </c>
@@ -4406,7 +4992,7 @@
         <v>0.24901882976230799</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>79</v>
       </c>
@@ -4426,7 +5012,7 @@
         <v>0.403354241745357</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>80</v>
       </c>
@@ -4446,7 +5032,7 @@
         <v>0.32116342006830201</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>81</v>
       </c>
@@ -4466,7 +5052,7 @@
         <v>0.24458758922679</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>82</v>
       </c>
@@ -4489,16 +5075,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25">
-    <cfRule type="top10" dxfId="29" priority="4" rank="5"/>
+    <cfRule type="top10" dxfId="31" priority="4" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="top10" dxfId="28" priority="3" rank="5"/>
+    <cfRule type="top10" dxfId="30" priority="3" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="top10" dxfId="27" priority="2" rank="5"/>
+    <cfRule type="top10" dxfId="29" priority="2" rank="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G25">
-    <cfRule type="top10" dxfId="26" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="28" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4513,18 +5099,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="5"/>
+    <col min="4" max="7" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -4553,7 +5139,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>85</v>
       </c>
@@ -4585,7 +5171,7 @@
         <v>0.29688771044222001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>86</v>
       </c>
@@ -4617,7 +5203,7 @@
         <v>0.56487674747175398</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>87</v>
       </c>
@@ -4649,7 +5235,7 @@
         <v>0.47299711094310298</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>88</v>
       </c>
@@ -4681,7 +5267,7 @@
         <v>0.258730285177453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>89</v>
       </c>
@@ -4713,7 +5299,7 @@
         <v>0.36070885175749801</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>90</v>
       </c>
@@ -4745,7 +5331,7 @@
         <v>0.55381518353022097</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>91</v>
       </c>
@@ -4777,7 +5363,7 @@
         <v>0.45388183733437198</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>92</v>
       </c>
@@ -4809,7 +5395,7 @@
         <v>0.50062494382485301</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>93</v>
       </c>
@@ -4841,7 +5427,7 @@
         <v>0.35918877673647598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>94</v>
       </c>
@@ -4873,7 +5459,7 @@
         <v>2.8811811044972799</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>95</v>
       </c>
@@ -4905,7 +5491,7 @@
         <v>1.0663419343588501</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>96</v>
       </c>
@@ -4937,7 +5523,7 @@
         <v>1.7115998788454501</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -4949,10 +5535,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="25" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="27" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="24" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="26" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4969,24 +5555,24 @@
       <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="21.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5027,7 +5613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5062,7 +5648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5097,7 +5683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5132,7 +5718,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5176,7 +5762,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5220,7 +5806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5264,7 +5850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5311,7 +5897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5355,7 +5941,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5399,7 +5985,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5443,7 +6029,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5487,7 +6073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5534,34 +6120,34 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="23" priority="10" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="25" priority="10" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="22" priority="9" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="9" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="21" priority="8" rank="3"/>
+    <cfRule type="top10" dxfId="23" priority="8" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="20" priority="7" rank="3"/>
+    <cfRule type="top10" dxfId="22" priority="7" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="19" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="18" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I13">
-    <cfRule type="top10" dxfId="17" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J13">
-    <cfRule type="top10" dxfId="16" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M13">
-    <cfRule type="top10" dxfId="15" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N13">
-    <cfRule type="top10" dxfId="14" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5576,17 +6162,17 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="44.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5603,7 +6189,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>155</v>
       </c>
@@ -5623,7 +6209,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>156</v>
       </c>
@@ -5643,7 +6229,7 @@
         <v>0.19189999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>157</v>
       </c>
@@ -5663,7 +6249,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>158</v>
       </c>
@@ -5683,7 +6269,7 @@
         <v>0.1656</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>159</v>
       </c>
@@ -5703,7 +6289,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>160</v>
       </c>
@@ -5723,7 +6309,7 @@
         <v>0.3095</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>161</v>
       </c>
@@ -5743,7 +6329,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>162</v>
       </c>
@@ -5763,7 +6349,7 @@
         <v>0.1802</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -5783,7 +6369,7 @@
         <v>0.2437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>164</v>
       </c>
@@ -5803,7 +6389,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>165</v>
       </c>
@@ -5823,7 +6409,7 @@
         <v>0.30259999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>166</v>
       </c>
@@ -5843,7 +6429,7 @@
         <v>0.3226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>167</v>
       </c>
@@ -5863,7 +6449,7 @@
         <v>1.2371000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>168</v>
       </c>
@@ -5883,7 +6469,7 @@
         <v>1.4414</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>169</v>
       </c>
@@ -5903,7 +6489,7 @@
         <v>0.59089999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>170</v>
       </c>
@@ -5923,7 +6509,7 @@
         <v>1.7483</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>171</v>
       </c>
@@ -5943,7 +6529,7 @@
         <v>0.75419999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>172</v>
       </c>
@@ -5963,7 +6549,7 @@
         <v>1.4823</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>173</v>
       </c>
@@ -5983,7 +6569,7 @@
         <v>0.33250000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>174</v>
       </c>
@@ -6003,7 +6589,7 @@
         <v>1.6876</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>175</v>
       </c>
@@ -6023,7 +6609,7 @@
         <v>0.3659</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>176</v>
       </c>
@@ -6043,7 +6629,7 @@
         <v>1.5825</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>177</v>
       </c>
@@ -6063,7 +6649,7 @@
         <v>1.7824</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>178</v>
       </c>
@@ -6086,7 +6672,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="13" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6101,22 +6687,22 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>227</v>
       </c>
@@ -6157,7 +6743,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>229</v>
       </c>
@@ -6198,7 +6784,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>229</v>
       </c>
@@ -6239,7 +6825,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>229</v>
       </c>
@@ -6280,7 +6866,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>229</v>
       </c>
@@ -6321,7 +6907,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>229</v>
       </c>
@@ -6362,7 +6948,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>229</v>
       </c>
@@ -6403,7 +6989,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>229</v>
       </c>
@@ -6444,7 +7030,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>229</v>
       </c>
@@ -6485,7 +7071,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>229</v>
       </c>
@@ -6526,7 +7112,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>229</v>
       </c>
@@ -6567,7 +7153,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>229</v>
       </c>
@@ -6608,7 +7194,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>229</v>
       </c>
@@ -6649,7 +7235,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>254</v>
       </c>
@@ -6690,7 +7276,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>254</v>
       </c>
@@ -6731,7 +7317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>254</v>
       </c>
@@ -6772,7 +7358,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>254</v>
       </c>
@@ -6813,7 +7399,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>254</v>
       </c>
@@ -6854,7 +7440,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>254</v>
       </c>
@@ -6895,7 +7481,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>254</v>
       </c>
@@ -6936,7 +7522,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>254</v>
       </c>
@@ -6977,7 +7563,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>254</v>
       </c>
@@ -7018,7 +7604,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>254</v>
       </c>
@@ -7059,7 +7645,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>254</v>
       </c>
@@ -7100,7 +7686,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>254</v>
       </c>
@@ -7141,7 +7727,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>267</v>
       </c>
@@ -7182,7 +7768,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>267</v>
       </c>
@@ -7223,7 +7809,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>267</v>
       </c>
@@ -7264,7 +7850,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>267</v>
       </c>
@@ -7305,7 +7891,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>267</v>
       </c>
@@ -7346,7 +7932,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>267</v>
       </c>
@@ -7387,7 +7973,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>267</v>
       </c>
@@ -7428,7 +8014,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>267</v>
       </c>
@@ -7469,7 +8055,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>267</v>
       </c>
@@ -7510,7 +8096,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>267</v>
       </c>
@@ -7551,7 +8137,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>267</v>
       </c>
@@ -7592,7 +8178,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>267</v>
       </c>
@@ -7636,7 +8222,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H37">
-    <cfRule type="top10" dxfId="12" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="14" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7650,19 +8236,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.875" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="11"/>
+    <col min="11" max="11" width="12.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>278</v>
       </c>
@@ -7700,7 +8286,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>279</v>
       </c>
@@ -7738,7 +8324,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>281</v>
       </c>
@@ -7776,7 +8362,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>283</v>
       </c>
@@ -7814,7 +8400,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>285</v>
       </c>
@@ -7852,7 +8438,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>287</v>
       </c>
@@ -7890,7 +8476,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>289</v>
       </c>
@@ -7928,7 +8514,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>291</v>
       </c>
@@ -7966,7 +8552,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>293</v>
       </c>
@@ -8004,7 +8590,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>295</v>
       </c>
@@ -8042,7 +8628,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>297</v>
       </c>
@@ -8080,7 +8666,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>299</v>
       </c>
@@ -8118,7 +8704,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>301</v>
       </c>
@@ -8156,7 +8742,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>303</v>
       </c>
@@ -8194,7 +8780,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>305</v>
       </c>
@@ -8232,7 +8818,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>307</v>
       </c>
@@ -8270,7 +8856,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>308</v>
       </c>
@@ -8308,7 +8894,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>310</v>
       </c>
@@ -8346,7 +8932,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>312</v>
       </c>
@@ -8384,7 +8970,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>314</v>
       </c>
@@ -8422,7 +9008,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>316</v>
       </c>
@@ -8460,7 +9046,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>318</v>
       </c>
@@ -8498,7 +9084,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>320</v>
       </c>
@@ -8536,7 +9122,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>322</v>
       </c>
@@ -8574,7 +9160,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>324</v>
       </c>
@@ -8612,7 +9198,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>325</v>
       </c>
@@ -8650,7 +9236,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>327</v>
       </c>
@@ -8688,7 +9274,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>329</v>
       </c>
@@ -8726,7 +9312,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>331</v>
       </c>
@@ -8764,7 +9350,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>333</v>
       </c>
@@ -8802,7 +9388,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>335</v>
       </c>
@@ -8840,7 +9426,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>337</v>
       </c>
@@ -8878,7 +9464,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>339</v>
       </c>
@@ -8916,7 +9502,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>341</v>
       </c>
@@ -8954,7 +9540,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>343</v>
       </c>
@@ -8992,7 +9578,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>345</v>
       </c>
@@ -9030,7 +9616,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>347</v>
       </c>
@@ -9071,7 +9657,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="top10" dxfId="0" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="13" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9079,6 +9665,527 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74626179-9F65-410E-AD2C-CEB46CD1CC9B}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.59926028761376</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.659089947163773</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.65463339655234998</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.659089947163773</v>
+      </c>
+      <c r="F2" s="11">
+        <v>0.64801531094996101</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.41974315491386099</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.41406052110623598</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.54788049493232405</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0.16363432544607201</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1986</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2.65777287014373</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.64017518278729602</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.65234271817459999</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.64017518278729602</v>
+      </c>
+      <c r="F3" s="11">
+        <v>0.63375682132176103</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.402300446085122</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.40296021993074199</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.52850088428113995</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.24547332458882301</v>
+      </c>
+      <c r="K3" s="11">
+        <v>2030</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.5947911248156199</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.63834661215605204</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.64695837404410805</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.63834661215605204</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.63537753587282897</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.39544976104866703</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.40068649941564899</v>
+      </c>
+      <c r="I4" s="11">
+        <v>0.52869172394323005</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0.233053899337196</v>
+      </c>
+      <c r="K4" s="11">
+        <v>2962</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2.6657297564534099</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.65390609011925305</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.65242524805662205</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.65390609011925305</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.64490819351403095</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.40915163551283801</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.40065033246654602</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.54031298080880796</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.16189396750002999</v>
+      </c>
+      <c r="K5" s="11">
+        <v>2874</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2.4636286748981999</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.63560096556343104</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.63257627641827197</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.63560096556343104</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.62606171334687899</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.36244283194412802</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.36548692198486099</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.52025641988328297</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.35850374472054902</v>
+      </c>
+      <c r="K6" s="11">
+        <v>2041</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2.7205632749127102</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.63133057989618802</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.63974508574319</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.63133057989618802</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.627365544965507</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.380000855201995</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.37718200833603799</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.51707760560226002</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.290707240446056</v>
+      </c>
+      <c r="K7" s="11">
+        <v>2809</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2.59815367649241</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.58556957079868199</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.54006367373484299</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.58556957079868199</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.54675067658536103</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.24547008908682</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.25499525912277898</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.43350764257820801</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.05406435782135</v>
+      </c>
+      <c r="K8" s="11">
+        <v>2728</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2.8695588369195</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.576577528790162</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.50986694183116799</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.576577528790162</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.52744299086692503</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.22964111122299</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.24537685094716799</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.41986583118206799</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1.11441522138647</v>
+      </c>
+      <c r="K9" s="11">
+        <v>2485</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="11">
+        <v>3.0156324277200302</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.63697187029078495</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.64006555852958402</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.63697187029078495</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.62917696467131401</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.38872767027277699</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.39087084965978203</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.52186113583920402</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.12339192520317301</v>
+      </c>
+      <c r="K10" s="11">
+        <v>2850</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2.9292952861727701</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.58969170341016897</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.51071908599761595</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.58969170341016897</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.53161063532763697</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.204470769042707</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.21512243364534001</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.42487852435593498</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1.1938661815192499</v>
+      </c>
+      <c r="K11" s="11">
+        <v>2189</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2.9677422734295398</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.53508399843723797</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.41919855710480203</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.53508399843723797</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.46183648755747098</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7.0452705956468298E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>8.9479011917878201E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.35330159015311502</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1.7115023679122601</v>
+      </c>
+      <c r="K12" s="11">
+        <v>2478</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2.8762814431655599</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.54163864393220496</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.456274395822373</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.54163864393220496</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.48495044348119198</v>
+      </c>
+      <c r="G13" s="11">
+        <v>8.8100565672300804E-2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.108515467303411</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.37907102398806902</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.5039000394595099</v>
+      </c>
+      <c r="K13" s="11">
+        <v>2802</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B2AF50-4881-4BD8-ABC8-BC15E9EA58C5}">
   <dimension ref="A1:L13"/>
   <sheetViews>
@@ -9086,21 +10193,21 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>97</v>
@@ -9136,7 +10243,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>107</v>
       </c>
@@ -9174,7 +10281,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>109</v>
       </c>
@@ -9212,7 +10319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>111</v>
       </c>
@@ -9250,7 +10357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>113</v>
       </c>
@@ -9288,7 +10395,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>115</v>
       </c>
@@ -9326,7 +10433,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
@@ -9364,7 +10471,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>119</v>
       </c>
@@ -9402,7 +10509,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>121</v>
       </c>
@@ -9440,7 +10547,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>123</v>
       </c>
@@ -9478,7 +10585,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>125</v>
       </c>
@@ -9516,7 +10623,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>127</v>
       </c>
@@ -9554,7 +10661,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>129</v>
       </c>
@@ -9595,517 +10702,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="11" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="10" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="9" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="8" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="7" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F65FADA8-07B8-4272-9C6D-6AA1D1013DC4}">
-  <dimension ref="A1:L13"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2">
-        <v>1.7767999999999999</v>
-      </c>
-      <c r="C2">
-        <v>0.64639999999999997</v>
-      </c>
-      <c r="D2">
-        <v>0.64670000000000005</v>
-      </c>
-      <c r="E2">
-        <v>0.64639999999999997</v>
-      </c>
-      <c r="F2">
-        <v>0.63529999999999998</v>
-      </c>
-      <c r="G2">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="H2">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="I2">
-        <v>0.53</v>
-      </c>
-      <c r="J2">
-        <v>0.20780000000000001</v>
-      </c>
-      <c r="K2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3">
-        <v>1.6947000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.64729999999999999</v>
-      </c>
-      <c r="D3">
-        <v>0.65190000000000003</v>
-      </c>
-      <c r="E3">
-        <v>0.64729999999999999</v>
-      </c>
-      <c r="F3">
-        <v>0.63539999999999996</v>
-      </c>
-      <c r="G3">
-        <v>0.42309999999999998</v>
-      </c>
-      <c r="H3">
-        <v>0.42299999999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.53390000000000004</v>
-      </c>
-      <c r="J3">
-        <v>0.22159999999999999</v>
-      </c>
-      <c r="K3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4">
-        <v>1.6883999999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.61819999999999997</v>
-      </c>
-      <c r="D4">
-        <v>0.63349999999999995</v>
-      </c>
-      <c r="E4">
-        <v>0.61819999999999997</v>
-      </c>
-      <c r="F4">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="G4">
-        <v>0.40839999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.41860000000000003</v>
-      </c>
-      <c r="I4">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="J4">
-        <v>0.37409999999999999</v>
-      </c>
-      <c r="K4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5">
-        <v>1.6657</v>
-      </c>
-      <c r="C5">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.64219999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="F5">
-        <v>0.62919999999999998</v>
-      </c>
-      <c r="G5">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.42380000000000001</v>
-      </c>
-      <c r="I5">
-        <v>0.52129999999999999</v>
-      </c>
-      <c r="J5">
-        <v>0.30709999999999998</v>
-      </c>
-      <c r="K5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6">
-        <v>1.7873000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.62949999999999995</v>
-      </c>
-      <c r="D6">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.62949999999999995</v>
-      </c>
-      <c r="F6">
-        <v>0.62539999999999996</v>
-      </c>
-      <c r="G6">
-        <v>0.4173</v>
-      </c>
-      <c r="H6">
-        <v>0.4279</v>
-      </c>
-      <c r="I6">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="J6">
-        <v>0.26019999999999999</v>
-      </c>
-      <c r="K6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7">
-        <v>1.7862</v>
-      </c>
-      <c r="C7">
-        <v>0.60429999999999995</v>
-      </c>
-      <c r="D7">
-        <v>0.63390000000000002</v>
-      </c>
-      <c r="E7">
-        <v>0.60429999999999995</v>
-      </c>
-      <c r="F7">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="G7">
-        <v>0.40670000000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.42759999999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.49430000000000002</v>
-      </c>
-      <c r="J7">
-        <v>0.31490000000000001</v>
-      </c>
-      <c r="K7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8">
-        <v>1.9443999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="D8">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="E8">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F8">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="G8">
-        <v>0.32</v>
-      </c>
-      <c r="H8">
-        <v>0.33119999999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="J8">
-        <v>1.1711</v>
-      </c>
-      <c r="K8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9">
-        <v>1.9424999999999999</v>
-      </c>
-      <c r="C9">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="D9">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="E9">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="F9">
-        <v>0.54520000000000002</v>
-      </c>
-      <c r="G9">
-        <v>0.30969999999999998</v>
-      </c>
-      <c r="H9">
-        <v>0.33119999999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.40939999999999999</v>
-      </c>
-      <c r="J9">
-        <v>0.97330000000000005</v>
-      </c>
-      <c r="K9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10">
-        <v>2.0699000000000001</v>
-      </c>
-      <c r="C10">
-        <v>0.59109999999999996</v>
-      </c>
-      <c r="D10">
-        <v>0.55359999999999998</v>
-      </c>
-      <c r="E10">
-        <v>0.59109999999999996</v>
-      </c>
-      <c r="F10">
-        <v>0.55049999999999999</v>
-      </c>
-      <c r="G10">
-        <v>0.30859999999999999</v>
-      </c>
-      <c r="H10">
-        <v>0.3201</v>
-      </c>
-      <c r="I10">
-        <v>0.41320000000000001</v>
-      </c>
-      <c r="J10">
-        <v>1.0298</v>
-      </c>
-      <c r="K10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11">
-        <v>1.6728000000000001</v>
-      </c>
-      <c r="C11">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="D11">
-        <v>0.63560000000000005</v>
-      </c>
-      <c r="E11">
-        <v>0.62139999999999995</v>
-      </c>
-      <c r="F11">
-        <v>0.61719999999999997</v>
-      </c>
-      <c r="G11">
-        <v>0.40949999999999998</v>
-      </c>
-      <c r="H11">
-        <v>0.41689999999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.50239999999999996</v>
-      </c>
-      <c r="J11">
-        <v>0.45639999999999997</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12">
-        <v>2.3994</v>
-      </c>
-      <c r="C12">
-        <v>0.4536</v>
-      </c>
-      <c r="D12">
-        <v>0.40179999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.4536</v>
-      </c>
-      <c r="F12">
-        <v>0.40570000000000001</v>
-      </c>
-      <c r="G12">
-        <v>7.3800000000000004E-2</v>
-      </c>
-      <c r="H12">
-        <v>0.1179</v>
-      </c>
-      <c r="I12">
-        <v>0.24260000000000001</v>
-      </c>
-      <c r="J12">
-        <v>2.8473000000000002</v>
-      </c>
-      <c r="K12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13">
-        <v>2.2511999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.48170000000000002</v>
-      </c>
-      <c r="E13">
-        <v>0.49990000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.4667</v>
-      </c>
-      <c r="G13">
-        <v>0.19670000000000001</v>
-      </c>
-      <c r="H13">
-        <v>0.22209999999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.28989999999999999</v>
-      </c>
-      <c r="J13">
-        <v>1.6642999999999999</v>
-      </c>
-      <c r="K13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE6104F-50BD-496A-A2B9-CD43C206C0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1F04A-7E60-4B06-BFED-787A795A212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="48label_cnn" sheetId="8" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="48label_word2vec" sheetId="7" r:id="rId8"/>
     <sheet name="48label_word2vec+eda" sheetId="9" r:id="rId9"/>
     <sheet name="48label_t5" sheetId="13" r:id="rId10"/>
+    <sheet name="8label_baseline" sheetId="15" r:id="rId11"/>
+    <sheet name="8label_ros" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="330">
   <si>
     <t>val_accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,6 +958,81 @@
   </si>
   <si>
     <t>1 hrs 9 mins 2 secs</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>2 hrs 15 mins 13 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 58 mins 41 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 21 mins 24 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 50 mins 21 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 7 mins 7 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 29 mins 30 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 16 mins 45 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 32 mins 8 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 3 mins 5 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 30 mins 13 secs</t>
+  </si>
+  <si>
+    <t>1 hrs 55 mins 43 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 50 mins 9 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 29 mins 18 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 55 mins 17 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 59 mins 26 secs</t>
+  </si>
+  <si>
+    <t>4 hrs 8 mins 15 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 8 mins 39 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 38 mins 9 secs</t>
+  </si>
+  <si>
+    <t>4 hrs 22 mins 47 secs</t>
+  </si>
+  <si>
+    <t>5 hrs 2 mins 2 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 46 mins 2 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 40 mins 56 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 38 mins 8 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 43 mins 37 secs</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1042,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,6 +1064,22 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1002,7 +1095,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1010,11 +1103,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,11 +1145,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1446,17 +1580,17 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="44.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1473,7 +1607,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
@@ -1493,7 +1627,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
@@ -1513,7 +1647,7 @@
         <v>0.19189999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
@@ -1533,7 +1667,7 @@
         <v>0.19919999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>78</v>
       </c>
@@ -1553,7 +1687,7 @@
         <v>0.1656</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>79</v>
       </c>
@@ -1573,7 +1707,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1593,7 +1727,7 @@
         <v>0.3095</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>81</v>
       </c>
@@ -1613,7 +1747,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
@@ -1633,7 +1767,7 @@
         <v>0.1802</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>83</v>
       </c>
@@ -1653,7 +1787,7 @@
         <v>0.2437</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
@@ -1673,7 +1807,7 @@
         <v>0.38950000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>85</v>
       </c>
@@ -1693,7 +1827,7 @@
         <v>0.30259999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>86</v>
       </c>
@@ -1713,7 +1847,7 @@
         <v>0.3226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>87</v>
       </c>
@@ -1733,7 +1867,7 @@
         <v>1.2371000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
@@ -1753,7 +1887,7 @@
         <v>1.4414</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>89</v>
       </c>
@@ -1773,7 +1907,7 @@
         <v>0.59089999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
@@ -1793,7 +1927,7 @@
         <v>1.7483</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>91</v>
       </c>
@@ -1813,7 +1947,7 @@
         <v>0.75419999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>92</v>
       </c>
@@ -1833,7 +1967,7 @@
         <v>1.4823</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>93</v>
       </c>
@@ -1853,7 +1987,7 @@
         <v>0.33250000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>94</v>
       </c>
@@ -1873,7 +2007,7 @@
         <v>1.6876</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>95</v>
       </c>
@@ -1893,7 +2027,7 @@
         <v>0.3659</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>96</v>
       </c>
@@ -1913,7 +2047,7 @@
         <v>1.5825</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>97</v>
       </c>
@@ -1933,7 +2067,7 @@
         <v>1.7824</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>98</v>
       </c>
@@ -1956,7 +2090,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="16" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1971,21 +2105,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
@@ -2020,7 +2154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>269</v>
       </c>
@@ -2058,7 +2192,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>271</v>
       </c>
@@ -2096,7 +2230,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>273</v>
       </c>
@@ -2134,7 +2268,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>275</v>
       </c>
@@ -2172,7 +2306,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>277</v>
       </c>
@@ -2210,7 +2344,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>279</v>
       </c>
@@ -2248,7 +2382,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>281</v>
       </c>
@@ -2286,7 +2420,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>283</v>
       </c>
@@ -2324,7 +2458,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>285</v>
       </c>
@@ -2362,7 +2496,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>287</v>
       </c>
@@ -2400,7 +2534,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>289</v>
       </c>
@@ -2438,7 +2572,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>291</v>
       </c>
@@ -2474,12 +2608,1064 @@
       </c>
       <c r="L13" s="4" t="s">
         <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBA8D9B-8D2C-414C-BA29-6A6C57C0308E}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.48563716252051842</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.86389283468334477</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.86506502964104148</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.86389283468334477</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.86388910167805899</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.86523224553062206</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.85829007260578416</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.83232541542838379</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.1978527833270837</v>
+      </c>
+      <c r="K2" s="10">
+        <v>8113</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.44505702393408059</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.86530405967910795</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.86650496980919345</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.86530405967910795</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.86517024624575567</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.86564074930484924</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.86222611105796898</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.83446257104405819</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.26683596902899798</v>
+      </c>
+      <c r="K3" s="10">
+        <v>7121</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.47696471087925102</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.86290964334490161</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.8646029949444699</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.86290964334490161</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.86286402104208793</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.8622273415251408</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.85737182885398655</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.83146891809451551</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.2282374234122112</v>
+      </c>
+      <c r="K4" s="10">
+        <v>8484</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.52649217649733127</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.86308068859208098</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.86432969858163966</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.86308068859208098</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.86282360511941092</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.86096772831577773</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.8557255553488744</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.83174945662093314</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.16840544042059841</v>
+      </c>
+      <c r="K5" s="10">
+        <v>10221</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.54067518540884918</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.86034399892031088</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.86184992712410557</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0.86034399892031088</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0.86012133638962462</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.85969515199311264</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.86171575936603695</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.82888191926650856</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.17160472209496061</v>
+      </c>
+      <c r="K6" s="10">
+        <v>11227</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.42622931845900092</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.86402112661811947</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.86516738185608832</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.86402112661811947</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.86394399960600654</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.86275075507822319</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.85886116135696489</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.83275729951537425</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.28903517864370593</v>
+      </c>
+      <c r="K7" s="10">
+        <v>8970</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.49240507930310229</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.86122054467390874</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.86305760614139759</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.86122054467390874</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.8613564868344129</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.85936507821178854</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.85836665793937228</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.82955039301493838</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.21217879638491521</v>
+      </c>
+      <c r="K8" s="10">
+        <v>11805</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.50240368200629215</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.86089985140561287</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.86288456262408941</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.86089985140561287</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.86086893355422822</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.86008832338197083</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.85179494463529881</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.8288064728782869</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.23503039929181241</v>
+      </c>
+      <c r="K9" s="10">
+        <v>12728</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0.7034693909124432</v>
+      </c>
+      <c r="C10" s="10">
+        <v>0.74879781849772142</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.70886245341898235</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.74879781849772142</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.71685775313278766</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.70147387739599709</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.70800918000000856</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.66599390717368023</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.62481310801013545</v>
+      </c>
+      <c r="K10" s="10">
+        <v>7385</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.87009745748594214</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.71065417527601027</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.66003135254924805</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.71065417527601027</v>
+      </c>
+      <c r="F11" s="10">
+        <v>0.67288022626212141</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.63696085801166558</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.64924618643610432</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.61865988702256414</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.73845397510924971</v>
+      </c>
+      <c r="K11" s="10">
+        <v>9013</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1.5484072787836829</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.40964011086240631</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.26951446285559499</v>
+      </c>
+      <c r="E12" s="10">
+        <v>0.40964011086240631</v>
+      </c>
+      <c r="F12" s="10">
+        <v>0.2945604516194768</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.22605950492680729</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.27945394779053129</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.20419850171722101</v>
+      </c>
+      <c r="J12" s="10">
+        <v>1.5108387243265451</v>
+      </c>
+      <c r="K12" s="10">
+        <v>6943</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.77067098743099183</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.73862121595988051</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.72440761786472785</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0.73862121595988051</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0.71978301146745438</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.69802912389502003</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.70851661727065762</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0.66245592008531884</v>
+      </c>
+      <c r="J13" s="10">
+        <v>0.65174698696952338</v>
+      </c>
+      <c r="K13" s="10">
+        <v>10209</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
     <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A56776-98F4-4FC1-B099-5B0387F62249}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.55516489361709331</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.86491915187722268</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.8653622709767077</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.86491915187722268</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.8648048153065846</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.86463345122205548</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.8610429297277109</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.8337076504180253</v>
+      </c>
+      <c r="J2" s="4">
+        <v>8.6929469595755843E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <v>12558</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.51808854958155925</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.86305919765887551</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.86515692683366241</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.86305919765887551</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.86314879525261701</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.86332367852949832</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.85800873191357385</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.83173484814188969</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.1445908544838426</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10517</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.50041339309316957</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.86293083944343896</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.8644371624690923</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.86293083944343896</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.86305509819098791</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.86098723173108771</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.85601434769044304</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.83128742909126563</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.16105756005936181</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10766</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.58896866082886434</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.86181907733433349</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.86305206648394717</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.86181907733433349</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.86173690953295368</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.86143229898612428</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.85570855259509426</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.82976964646305884</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8.067136929604217E-2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>14895</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.49303287728092621</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.86117770679652195</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.86313417331612075</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.86117770679652195</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.86115873086295047</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.8601062014535964</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.86576127031575356</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.82962230287942018</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.18423207023815599</v>
+      </c>
+      <c r="K6" s="4">
+        <v>11319</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.8053445222214437</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.74764348134833614</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.70784339250966688</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.74764348134833614</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.71585526449223713</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.69983739524594835</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.71456144757959383</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.66496150649122154</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.53231488747355948</v>
+      </c>
+      <c r="K7" s="4">
+        <v>13089</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.53372889981402138</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.86184048598809682</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.86293816463009132</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.86184048598809682</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.86198392051266681</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.86149427777888943</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.86121770888936333</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.83004772649063641</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.18109184077877191</v>
+      </c>
+      <c r="K8" s="4">
+        <v>15767</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.55173622988769389</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.86124180248202786</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.86248813398095547</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.86124180248202786</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.86131008632364259</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.86033466304095452</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.86166858288718517</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.82946280864929123</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.14044694532575619</v>
+      </c>
+      <c r="K9" s="4">
+        <v>18122</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.091658301543142</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.63169298523186845</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.55036525333361486</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.63169298523186845</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.56802404894853142</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.53917661866356192</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.56334800075506453</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.49710294669905258</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.8799108203213738</v>
+      </c>
+      <c r="K10" s="4">
+        <v>9962</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.101687490355868</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.62688527400254179</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.54598463112423212</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.62688527400254179</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.56310711951336923</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.53544121616603924</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.56684830953439003</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.49176800199843612</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.96683916621913146</v>
+      </c>
+      <c r="K11" s="4">
+        <v>9656</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.53226040822414</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.84332501739581678</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.84628023262389296</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.84332501739581678</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.84345848208731344</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.84102378991124271</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.85398363337497352</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.80817171935832399</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.33344239572838058</v>
+      </c>
+      <c r="K12" s="4">
+        <v>13088</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.61885767887863852</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.80704099927468387</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.81117325406859153</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.80704099927468387</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.80545954131484354</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.80277391350519056</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.81678868131645932</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.76375804121483504</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.5686564225806926</v>
+      </c>
+      <c r="K13" s="4">
+        <v>13417</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2493,22 +3679,22 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.25" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>147</v>
       </c>
@@ -2549,7 +3735,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>149</v>
       </c>
@@ -2590,7 +3776,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>149</v>
       </c>
@@ -2631,7 +3817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>149</v>
       </c>
@@ -2672,7 +3858,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>149</v>
       </c>
@@ -2713,7 +3899,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>149</v>
       </c>
@@ -2754,7 +3940,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>149</v>
       </c>
@@ -2795,7 +3981,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>149</v>
       </c>
@@ -2836,7 +4022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>149</v>
       </c>
@@ -2877,7 +4063,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>149</v>
       </c>
@@ -2918,7 +4104,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>149</v>
       </c>
@@ -2959,7 +4145,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>149</v>
       </c>
@@ -3000,7 +4186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>149</v>
       </c>
@@ -3041,7 +4227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>174</v>
       </c>
@@ -3082,7 +4268,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>174</v>
       </c>
@@ -3123,7 +4309,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>174</v>
       </c>
@@ -3164,7 +4350,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>174</v>
       </c>
@@ -3205,7 +4391,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>174</v>
       </c>
@@ -3246,7 +4432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>174</v>
       </c>
@@ -3287,7 +4473,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>174</v>
       </c>
@@ -3328,7 +4514,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>174</v>
       </c>
@@ -3369,7 +4555,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>174</v>
       </c>
@@ -3410,7 +4596,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>174</v>
       </c>
@@ -3451,7 +4637,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>174</v>
       </c>
@@ -3492,7 +4678,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>174</v>
       </c>
@@ -3533,7 +4719,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>187</v>
       </c>
@@ -3574,7 +4760,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>187</v>
       </c>
@@ -3615,7 +4801,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>187</v>
       </c>
@@ -3656,7 +4842,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>187</v>
       </c>
@@ -3697,7 +4883,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>187</v>
       </c>
@@ -3738,7 +4924,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>187</v>
       </c>
@@ -3779,7 +4965,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>187</v>
       </c>
@@ -3820,7 +5006,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>187</v>
       </c>
@@ -3861,7 +5047,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>187</v>
       </c>
@@ -3902,7 +5088,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>187</v>
       </c>
@@ -3943,7 +5129,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>187</v>
       </c>
@@ -3984,7 +5170,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>187</v>
       </c>
@@ -4028,7 +5214,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H37">
-    <cfRule type="top10" dxfId="15" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="17" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4042,19 +5228,19 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="6"/>
+    <col min="11" max="11" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>198</v>
       </c>
@@ -4092,7 +5278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>199</v>
       </c>
@@ -4130,7 +5316,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>201</v>
       </c>
@@ -4168,7 +5354,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>203</v>
       </c>
@@ -4206,7 +5392,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>205</v>
       </c>
@@ -4244,7 +5430,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>207</v>
       </c>
@@ -4282,7 +5468,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>209</v>
       </c>
@@ -4320,7 +5506,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>211</v>
       </c>
@@ -4358,7 +5544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>213</v>
       </c>
@@ -4396,7 +5582,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>215</v>
       </c>
@@ -4434,7 +5620,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>217</v>
       </c>
@@ -4472,7 +5658,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>219</v>
       </c>
@@ -4510,7 +5696,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>221</v>
       </c>
@@ -4548,7 +5734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>223</v>
       </c>
@@ -4586,7 +5772,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>225</v>
       </c>
@@ -4624,7 +5810,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>227</v>
       </c>
@@ -4662,7 +5848,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>228</v>
       </c>
@@ -4700,7 +5886,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>230</v>
       </c>
@@ -4738,7 +5924,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>232</v>
       </c>
@@ -4776,7 +5962,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>234</v>
       </c>
@@ -4814,7 +6000,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>236</v>
       </c>
@@ -4852,7 +6038,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>238</v>
       </c>
@@ -4890,7 +6076,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>240</v>
       </c>
@@ -4928,7 +6114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>242</v>
       </c>
@@ -4966,7 +6152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>244</v>
       </c>
@@ -5004,7 +6190,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>245</v>
       </c>
@@ -5042,7 +6228,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>247</v>
       </c>
@@ -5080,7 +6266,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>249</v>
       </c>
@@ -5118,7 +6304,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>251</v>
       </c>
@@ -5156,7 +6342,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>253</v>
       </c>
@@ -5194,7 +6380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>255</v>
       </c>
@@ -5232,7 +6418,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>257</v>
       </c>
@@ -5270,7 +6456,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>259</v>
       </c>
@@ -5308,7 +6494,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>261</v>
       </c>
@@ -5346,7 +6532,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>263</v>
       </c>
@@ -5384,7 +6570,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>265</v>
       </c>
@@ -5422,7 +6608,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>267</v>
       </c>
@@ -5463,7 +6649,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="top10" dxfId="14" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="16" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5474,22 +6660,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74626179-9F65-410E-AD2C-CEB46CD1CC9B}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.375" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -5525,7 +6711,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -5563,7 +6749,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -5601,7 +6787,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>31</v>
       </c>
@@ -5639,7 +6825,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -5677,7 +6863,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -5715,7 +6901,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -5753,7 +6939,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
@@ -5791,7 +6977,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>41</v>
       </c>
@@ -5829,7 +7015,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -5867,7 +7053,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -5905,7 +7091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
@@ -5943,7 +7129,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -5984,7 +7170,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="13" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5999,19 +7185,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="11" max="11" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
@@ -6046,7 +7232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>51</v>
       </c>
@@ -6084,7 +7270,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -6122,7 +7308,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>55</v>
       </c>
@@ -6160,7 +7346,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -6198,7 +7384,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
@@ -6236,7 +7422,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -6274,7 +7460,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>63</v>
       </c>
@@ -6312,7 +7498,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>65</v>
       </c>
@@ -6350,7 +7536,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>67</v>
       </c>
@@ -6388,7 +7574,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>69</v>
       </c>
@@ -6426,7 +7612,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
@@ -6464,7 +7650,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>73</v>
       </c>
@@ -6505,7 +7691,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6517,24 +7703,24 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -6570,7 +7756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -6608,7 +7794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -6646,7 +7832,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
@@ -6684,7 +7870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -6722,7 +7908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
@@ -6760,7 +7946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
@@ -6798,7 +7984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
@@ -6836,7 +8022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -6874,7 +8060,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
@@ -6912,7 +8098,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
@@ -6950,7 +8136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>47</v>
       </c>
@@ -6988,7 +8174,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -7029,25 +8215,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="12" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="11" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="10" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="9" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="8" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="6" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7059,25 +8245,25 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -7113,7 +8299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -7148,7 +8334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -7183,7 +8369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -7218,7 +8404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -7253,7 +8439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -7288,7 +8474,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -7323,7 +8509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -7358,7 +8544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -7393,7 +8579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -7428,7 +8614,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -7463,7 +8649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -7498,7 +8684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -7536,10 +8722,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7554,24 +8740,24 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -7607,7 +8793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -7645,7 +8831,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -7683,7 +8869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -7721,7 +8907,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -7759,7 +8945,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -7797,7 +8983,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -7835,7 +9021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -7873,7 +9059,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -7911,7 +9097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -7949,7 +9135,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -7987,7 +9173,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -8025,7 +9211,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
@@ -8066,7 +9252,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8081,24 +9267,24 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>17</v>
@@ -8134,7 +9320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>100</v>
       </c>
@@ -8169,7 +9355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>102</v>
       </c>
@@ -8204,7 +9390,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>104</v>
       </c>
@@ -8239,7 +9425,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>106</v>
       </c>
@@ -8274,7 +9460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
@@ -8309,7 +9495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
@@ -8344,7 +9530,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>112</v>
       </c>
@@ -8379,7 +9565,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>114</v>
       </c>
@@ -8414,7 +9600,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>116</v>
       </c>
@@ -8449,7 +9635,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>118</v>
       </c>
@@ -8484,7 +9670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -8519,7 +9705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>122</v>
       </c>
@@ -8557,7 +9743,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1F04A-7E60-4B06-BFED-787A795A212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BAA6B-5D45-4F18-A672-DA5B7CE4F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="48label_cnn" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="48label_t5" sheetId="13" r:id="rId10"/>
     <sheet name="8label_baseline" sheetId="15" r:id="rId11"/>
     <sheet name="8label_ros" sheetId="16" r:id="rId12"/>
+    <sheet name="8label_word2vec" sheetId="17" r:id="rId13"/>
+    <sheet name="8label_eda" sheetId="18" r:id="rId14"/>
+    <sheet name="8label_t5" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="354">
   <si>
     <t>val_accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1033,6 +1036,78 @@
   </si>
   <si>
     <t>3 hrs 43 mins 37 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 38 mins 37 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 51 mins 23 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 34 mins 46 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 10 mins 51 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 53 mins 2 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 12 mins 58 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 17 mins 47 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 12 mins 59 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 4 mins 22 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 41 mins 34 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 26 mins 53 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 24 mins 11 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 33 mins 47 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 10 mins 40 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 55 mins 25 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 44 mins 56 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 29 mins 12 secs</t>
+  </si>
+  <si>
+    <t>4 hrs 17 mins 14 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 52 mins 5 secs</t>
+  </si>
+  <si>
+    <t>4 hrs 44 mins 11 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 25 mins 54 secs</t>
+  </si>
+  <si>
+    <t>2 hrs 53 mins 30 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 8 mins 49 secs</t>
+  </si>
+  <si>
+    <t>3 hrs 20 mins 15 secs</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1156,6 +1231,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3149,9 +3227,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A56776-98F4-4FC1-B099-5B0387F62249}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3667,6 +3745,1066 @@
   <conditionalFormatting sqref="G2:G13">
     <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EAB84C-2DEA-49B1-9D9B-5C60CA730376}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.48466835060745928</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.8626315708276866</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.86377067509686933</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.8626315708276866</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.86260352711526767</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.86025191039122828</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.86052938149257585</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.83120633278964939</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.1549383954692399</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9517</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.49712542135885351</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.86209687558674086</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.86388631734035659</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.86209687558674086</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.86218694568088561</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.861926080430365</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.85679158440959213</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.83031064775967833</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.14773696763792321</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10283</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.47804491623828149</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85726515475906007</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.85942716647475259</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.85726515475906007</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.85745118389431041</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.85689350963194288</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.85681102468641546</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.82493045517156582</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.2376524728827204</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9286</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.49940771113977672</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.86286673004469261</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.8637267826022702</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.86286673004469261</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.86293164344632189</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.86027860068892392</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.8651410001733717</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.83153387517785615</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.1540935632762141</v>
+      </c>
+      <c r="K5" s="2">
+        <v>11451</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.5303444640939402</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.86085706381010729</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.86235656964030005</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.86085706381010729</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.86091240749947651</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.85811412481276361</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.85953877382993615</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.82900863241038303</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.14711852356320371</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13982</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.77751139327008123</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.74518463792531464</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.70543138553400753</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.74518463792531464</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.71335046780053368</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.69786392247634221</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.71660420592969931</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.66227901017254509</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.59582832686659071</v>
+      </c>
+      <c r="K7" s="2">
+        <v>11578</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.49682935176648069</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.85694428321863936</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.85876513484075956</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.85694428321863936</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.85712373109526641</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.85529876880650568</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85587056965797037</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.82422490477605703</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.2989124885622515</v>
+      </c>
+      <c r="K8" s="2">
+        <v>11867</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.48346935095520233</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.85514839954485766</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.85729439181062028</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.85514839954485766</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.85513716390155126</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.85379898168352786</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.85894390070888238</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.82236027506825859</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.27655136505696332</v>
+      </c>
+      <c r="K9" s="2">
+        <v>11579</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.78037383042116715</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.74300362932334196</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.70359935451477584</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.74300362932334196</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.71114654241184971</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.69533061042733757</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.71434043764190291</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.65973883461085125</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.5939513962610643</v>
+      </c>
+      <c r="K10" s="2">
+        <v>11062</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0676171872328619</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.6281349227436035</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.54681165269435184</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6281349227436035</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.56446693733630393</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.53504468048551546</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.56664418137501404</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.49325206748009121</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.9878046287674136</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9694</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.8384747832723789</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.72733187995840765</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.68788125865614991</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.72733187995840765</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.69563632168468204</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.67807706284735492</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.70166887109687626</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.64054084307468329</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.74084043145571066</v>
+      </c>
+      <c r="K12" s="2">
+        <v>12413</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.132773497573331</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.60572798393539595</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.52887310612017546</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.60572798393539595</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.54278711775601207</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.51659002569898438</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.55443939990118274</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.49338459675682261</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.1924987504038851</v>
+      </c>
+      <c r="K13" s="2">
+        <v>12251</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75657C73-03F7-481B-9AEA-1F29C5109A0A}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.45411646615697909</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.86023691679731384</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.86187604971550691</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.86023691679731384</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.86015812851229201</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.8576542799378164</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.86055159264476444</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.82844611255785949</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.2039991148189885</v>
+      </c>
+      <c r="K2" s="2">
+        <v>9227</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.5322021139340285</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.86224671787876284</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.86292847767940706</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.86224671787876284</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.86209893659309267</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.86092836673987383</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.85792011780812416</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.83053946864156258</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.12323423403495951</v>
+      </c>
+      <c r="K3" s="2">
+        <v>11440</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.47712236738429431</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.85968120144441562</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.86170729590419515</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.85968120144441562</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.85980541914022834</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.85762293952540247</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.8575236539022667</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.82762679114350457</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.18306836959744391</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10525</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.4546703318692743</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.86303781871713314</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.86420318271023544</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.86303781871713314</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.86313011322251343</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.85995759778468783</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.86546351593067405</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.83185230924275899</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.20547014861867149</v>
+      </c>
+      <c r="K5" s="2">
+        <v>9896</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.81971876584717795</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.74640335873825392</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.70648050174217847</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.74640335873825392</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.71457339423773925</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.69784984830319252</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.71252654896596079</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.66346022997670018</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.52084991083213228</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12552</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.49753215412044127</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.85921070473827876</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.861340588565365</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.85921070473827876</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.85944005721834649</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.85646036836568895</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.85968632031819059</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.82708970549800165</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.16316091432711069</v>
+      </c>
+      <c r="K7" s="2">
+        <v>15434</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.45993984887249068</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.85461398085425944</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.85716629668656485</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.85461398085425944</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.85472334670674965</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.8528457408870832</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.8631356086019123</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.82223907358266324</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.31322677678222288</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10325</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.52755873215567861</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.85942452386772339</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.86063007729950569</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.85942452386772339</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.85948532757616491</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.85626428171917879</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.85169936924774559</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.82683386757671384</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.19449805906349099</v>
+      </c>
+      <c r="K9" s="2">
+        <v>17051</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.76538623122386951</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.73712390381213222</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.70046038020394907</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.73712390381213222</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.70601696423420979</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.68621254000645648</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.70929594677452745</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.65261958310931611</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.73695971087390943</v>
+      </c>
+      <c r="K10" s="2">
+        <v>8754</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.0984893140472221</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.62271358286174061</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.54353378471931546</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.62271358286174061</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.55899802520945119</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0.5277364267170338</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.56383222089535001</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.48745664106132541</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.79862720470768211</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10410</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.77808228016504621</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.72068339019185623</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.7204365356861292</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.72068339019185623</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.69384304153120013</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.69590831978014089</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.72307480183161998</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.66768890924934388</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.70849032962439984</v>
+      </c>
+      <c r="K12" s="2">
+        <v>11329</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.089717375384246</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.62158054694573561</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.54106929752713606</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.62158054694573561</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.55793918724963487</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0.5276049102237923</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.55984943048524038</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.4851435141629154</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.014923522745117</v>
+      </c>
+      <c r="K13" s="2">
+        <v>12015</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A336D564-D0D2-47EE-AEE8-619662B8B917}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/experiment_result/result.xlsx
+++ b/experiment_result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Jupyter\aiops\experiment_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BAA6B-5D45-4F18-A672-DA5B7CE4F085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C775FBB3-06A9-4889-AAAC-0EF6981C85A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="358">
   <si>
     <t>val_accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1108,6 +1108,18 @@
   </si>
   <si>
     <t>3 hrs 20 mins 15 secs</t>
+  </si>
+  <si>
+    <t>6 hrs 24 mins 55 secs</t>
+  </si>
+  <si>
+    <t>6 hrs 57 mins 17 secs</t>
+  </si>
+  <si>
+    <t>7 hrs 41 mins 15 secs</t>
+  </si>
+  <si>
+    <t>9 hrs 3 mins 27 secs</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,17 +1241,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2168,7 +2234,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="top10" dxfId="18" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="24" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2691,7 +2757,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="8" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2703,7 +2769,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G2" sqref="G2"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -3217,9 +3283,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3229,521 +3299,524 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="32.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="16">
         <v>0.55516489361709331</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="16">
         <v>0.86491915187722268</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="16">
         <v>0.8653622709767077</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="16">
         <v>0.86491915187722268</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="16">
         <v>0.8648048153065846</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="16">
         <v>0.86463345122205548</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="16">
         <v>0.8610429297277109</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="16">
         <v>0.8337076504180253</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="16">
         <v>8.6929469595755843E-2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="16">
         <v>12558</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="16" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="16">
         <v>0.51808854958155925</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="16">
         <v>0.86305919765887551</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="16">
         <v>0.86515692683366241</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="16">
         <v>0.86305919765887551</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="16">
         <v>0.86314879525261701</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="16">
         <v>0.86332367852949832</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="16">
         <v>0.85800873191357385</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="16">
         <v>0.83173484814188969</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="16">
         <v>0.1445908544838426</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="16">
         <v>10517</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="16" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>0.50041339309316957</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>0.86293083944343896</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="16">
         <v>0.8644371624690923</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="16">
         <v>0.86293083944343896</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="16">
         <v>0.86305509819098791</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="16">
         <v>0.86098723173108771</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="16">
         <v>0.85601434769044304</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="16">
         <v>0.83128742909126563</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="16">
         <v>0.16105756005936181</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="16">
         <v>10766</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="16" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>0.58896866082886434</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="16">
         <v>0.86181907733433349</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="16">
         <v>0.86305206648394717</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="16">
         <v>0.86181907733433349</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="16">
         <v>0.86173690953295368</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="16">
         <v>0.86143229898612428</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="16">
         <v>0.85570855259509426</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="16">
         <v>0.82976964646305884</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="16">
         <v>8.067136929604217E-2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="16">
         <v>14895</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="16" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="16">
         <v>0.49303287728092621</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="16">
         <v>0.86117770679652195</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="16">
         <v>0.86313417331612075</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="16">
         <v>0.86117770679652195</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="16">
         <v>0.86115873086295047</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="16">
         <v>0.8601062014535964</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="16">
         <v>0.86576127031575356</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="16">
         <v>0.82962230287942018</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="16">
         <v>0.18423207023815599</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="16">
         <v>11319</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="16" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>0.8053445222214437</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="16">
         <v>0.74764348134833614</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="16">
         <v>0.70784339250966688</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="16">
         <v>0.74764348134833614</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="16">
         <v>0.71585526449223713</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="16">
         <v>0.69983739524594835</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="16">
         <v>0.71456144757959383</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="16">
         <v>0.66496150649122154</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="16">
         <v>0.53231488747355948</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="16">
         <v>13089</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="16" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="16">
         <v>0.53372889981402138</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="16">
         <v>0.86184048598809682</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="16">
         <v>0.86293816463009132</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="16">
         <v>0.86184048598809682</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="16">
         <v>0.86198392051266681</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="16">
         <v>0.86149427777888943</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="16">
         <v>0.86121770888936333</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="16">
         <v>0.83004772649063641</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="16">
         <v>0.18109184077877191</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="16">
         <v>15767</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="16" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="16">
         <v>0.55173622988769389</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="16">
         <v>0.86124180248202786</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="16">
         <v>0.86248813398095547</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="16">
         <v>0.86124180248202786</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="16">
         <v>0.86131008632364259</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="16">
         <v>0.86033466304095452</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="16">
         <v>0.86166858288718517</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="16">
         <v>0.82946280864929123</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="16">
         <v>0.14044694532575619</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="16">
         <v>18122</v>
       </c>
-      <c r="L9" s="4" t="s">
+      <c r="L9" s="16" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="16">
         <v>1.091658301543142</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="16">
         <v>0.63169298523186845</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="16">
         <v>0.55036525333361486</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="16">
         <v>0.63169298523186845</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="16">
         <v>0.56802404894853142</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="16">
         <v>0.53917661866356192</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="16">
         <v>0.56334800075506453</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="16">
         <v>0.49710294669905258</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="16">
         <v>0.8799108203213738</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="16">
         <v>9962</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="16" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="16">
         <v>1.101687490355868</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="16">
         <v>0.62688527400254179</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="16">
         <v>0.54598463112423212</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="16">
         <v>0.62688527400254179</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="16">
         <v>0.56310711951336923</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="16">
         <v>0.53544121616603924</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="16">
         <v>0.56684830953439003</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="16">
         <v>0.49176800199843612</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="16">
         <v>0.96683916621913146</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="16">
         <v>9656</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="16" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="16">
         <v>0.53226040822414</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="16">
         <v>0.84332501739581678</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="16">
         <v>0.84628023262389296</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="16">
         <v>0.84332501739581678</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="16">
         <v>0.84345848208731344</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="16">
         <v>0.84102378991124271</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="16">
         <v>0.85398363337497352</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="16">
         <v>0.80817171935832399</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="16">
         <v>0.33344239572838058</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="16">
         <v>13088</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="16" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="16">
         <v>0.61885767887863852</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="16">
         <v>0.80704099927468387</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="16">
         <v>0.81117325406859153</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="16">
         <v>0.80704099927468387</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="16">
         <v>0.80545954131484354</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="16">
         <v>0.80277391350519056</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="16">
         <v>0.81678868131645932</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="16">
         <v>0.76375804121483504</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="16">
         <v>0.5686564225806926</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="16">
         <v>13417</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="16" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="2" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3753,520 +3826,526 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EAB84C-2DEA-49B1-9D9B-5C60CA730376}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="39.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>0.48466835060745928</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>0.8626315708276866</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="13">
         <v>0.86377067509686933</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>0.8626315708276866</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="13">
         <v>0.86260352711526767</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="13">
         <v>0.86025191039122828</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="13">
         <v>0.86052938149257585</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="13">
         <v>0.83120633278964939</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="13">
         <v>0.1549383954692399</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="13">
         <v>9517</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="13">
         <v>0.49712542135885351</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <v>0.86209687558674086</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="13">
         <v>0.86388631734035659</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>0.86209687558674086</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="13">
         <v>0.86218694568088561</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <v>0.861926080430365</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13">
         <v>0.85679158440959213</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="13">
         <v>0.83031064775967833</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="13">
         <v>0.14773696763792321</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="13">
         <v>10283</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="13">
         <v>0.47804491623828149</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <v>0.85726515475906007</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="13">
         <v>0.85942716647475259</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13">
         <v>0.85726515475906007</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="13">
         <v>0.85745118389431041</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="13">
         <v>0.85689350963194288</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="13">
         <v>0.85681102468641546</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="13">
         <v>0.82493045517156582</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="13">
         <v>0.2376524728827204</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="13">
         <v>9286</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="13">
         <v>0.49940771113977672</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>0.86286673004469261</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>0.8637267826022702</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>0.86286673004469261</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="13">
         <v>0.86293164344632189</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="13">
         <v>0.86027860068892392</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="13">
         <v>0.8651410001733717</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="13">
         <v>0.83153387517785615</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="13">
         <v>0.1540935632762141</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="13">
         <v>11451</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="13">
         <v>0.5303444640939402</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="13">
         <v>0.86085706381010729</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="13">
         <v>0.86235656964030005</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="13">
         <v>0.86085706381010729</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="13">
         <v>0.86091240749947651</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="13">
         <v>0.85811412481276361</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="13">
         <v>0.85953877382993615</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="13">
         <v>0.82900863241038303</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="13">
         <v>0.14711852356320371</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="13">
         <v>13982</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="13">
         <v>0.77751139327008123</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>0.74518463792531464</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="13">
         <v>0.70543138553400753</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>0.74518463792531464</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="13">
         <v>0.71335046780053368</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="13">
         <v>0.69786392247634221</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="13">
         <v>0.71660420592969931</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="13">
         <v>0.66227901017254509</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="13">
         <v>0.59582832686659071</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="13">
         <v>11578</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="13">
         <v>0.49682935176648069</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="13">
         <v>0.85694428321863936</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13">
         <v>0.85876513484075956</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="13">
         <v>0.85694428321863936</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="13">
         <v>0.85712373109526641</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="13">
         <v>0.85529876880650568</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="13">
         <v>0.85587056965797037</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="13">
         <v>0.82422490477605703</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="13">
         <v>0.2989124885622515</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="13">
         <v>11867</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="13" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="13">
         <v>0.48346935095520233</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="13">
         <v>0.85514839954485766</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>0.85729439181062028</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>0.85514839954485766</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>0.85513716390155126</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <v>0.85379898168352786</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="13">
         <v>0.85894390070888238</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="13">
         <v>0.82236027506825859</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="13">
         <v>0.27655136505696332</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="13">
         <v>11579</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="13" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="13">
         <v>0.78037383042116715</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="13">
         <v>0.74300362932334196</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="13">
         <v>0.70359935451477584</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="13">
         <v>0.74300362932334196</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="13">
         <v>0.71114654241184971</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="13">
         <v>0.69533061042733757</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="13">
         <v>0.71434043764190291</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="13">
         <v>0.65973883461085125</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="13">
         <v>0.5939513962610643</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="13">
         <v>11062</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="13" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="13">
         <v>1.0676171872328619</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="13">
         <v>0.6281349227436035</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="13">
         <v>0.54681165269435184</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="13">
         <v>0.6281349227436035</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="13">
         <v>0.56446693733630393</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="13">
         <v>0.53504468048551546</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="13">
         <v>0.56664418137501404</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="13">
         <v>0.49325206748009121</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="13">
         <v>0.9878046287674136</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="13">
         <v>9694</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="13">
         <v>0.8384747832723789</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="13">
         <v>0.72733187995840765</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13">
         <v>0.68788125865614991</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="13">
         <v>0.72733187995840765</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="13">
         <v>0.69563632168468204</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="13">
         <v>0.67807706284735492</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="13">
         <v>0.70166887109687626</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="13">
         <v>0.64054084307468329</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="13">
         <v>0.74084043145571066</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="13">
         <v>12413</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="13" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="13">
         <v>1.132773497573331</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="13">
         <v>0.60572798393539595</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13">
         <v>0.52887310612017546</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="13">
         <v>0.60572798393539595</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="13">
         <v>0.54278711775601207</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="13">
         <v>0.51659002569898438</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="13">
         <v>0.55443939990118274</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="13">
         <v>0.49338459675682261</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="13">
         <v>1.1924987504038851</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="13">
         <v>12251</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="13" t="s">
         <v>341</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="5" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="1" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4276,534 +4355,744 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75657C73-03F7-481B-9AEA-1F29C5109A0A}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="43.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="13">
         <v>0.45411646615697909</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="13">
         <v>0.86023691679731384</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="13">
         <v>0.86187604971550691</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="13">
         <v>0.86023691679731384</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="13">
         <v>0.86015812851229201</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="13">
         <v>0.8576542799378164</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="13">
         <v>0.86055159264476444</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="13">
         <v>0.82844611255785949</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="13">
         <v>0.2039991148189885</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="13">
         <v>9227</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="13">
         <v>0.5322021139340285</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="13">
         <v>0.86224671787876284</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="13">
         <v>0.86292847767940706</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="13">
         <v>0.86224671787876284</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="13">
         <v>0.86209893659309267</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="13">
         <v>0.86092836673987383</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="13">
         <v>0.85792011780812416</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="13">
         <v>0.83053946864156258</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="13">
         <v>0.12323423403495951</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="13">
         <v>11440</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="13" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="13">
         <v>0.47712236738429431</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="13">
         <v>0.85968120144441562</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="13">
         <v>0.86170729590419515</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="13">
         <v>0.85968120144441562</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="13">
         <v>0.85980541914022834</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="13">
         <v>0.85762293952540247</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="13">
         <v>0.8575236539022667</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="13">
         <v>0.82762679114350457</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="13">
         <v>0.18306836959744391</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="13">
         <v>10525</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="13">
         <v>0.4546703318692743</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>0.86303781871713314</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="13">
         <v>0.86420318271023544</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="13">
         <v>0.86303781871713314</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="13">
         <v>0.86313011322251343</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="13">
         <v>0.85995759778468783</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="13">
         <v>0.86546351593067405</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="13">
         <v>0.83185230924275899</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="13">
         <v>0.20547014861867149</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="13">
         <v>9896</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="13">
         <v>0.81971876584717795</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="13">
         <v>0.74640335873825392</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="13">
         <v>0.70648050174217847</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="13">
         <v>0.74640335873825392</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="13">
         <v>0.71457339423773925</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="13">
         <v>0.69784984830319252</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="13">
         <v>0.71252654896596079</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="13">
         <v>0.66346022997670018</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="13">
         <v>0.52084991083213228</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="13">
         <v>12552</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="13">
         <v>0.49753215412044127</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="13">
         <v>0.85921070473827876</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="13">
         <v>0.861340588565365</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="13">
         <v>0.85921070473827876</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="13">
         <v>0.85944005721834649</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="13">
         <v>0.85646036836568895</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="13">
         <v>0.85968632031819059</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="13">
         <v>0.82708970549800165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="13">
         <v>0.16316091432711069</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="13">
         <v>15434</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="13">
         <v>0.45993984887249068</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="13">
         <v>0.85461398085425944</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="13">
         <v>0.85716629668656485</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="13">
         <v>0.85461398085425944</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="13">
         <v>0.85472334670674965</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="13">
         <v>0.8528457408870832</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="13">
         <v>0.8631356086019123</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="13">
         <v>0.82223907358266324</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="13">
         <v>0.31322677678222288</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="13">
         <v>10325</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="13" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="13">
         <v>0.52755873215567861</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="13">
         <v>0.85942452386772339</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="13">
         <v>0.86063007729950569</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="13">
         <v>0.85942452386772339</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="13">
         <v>0.85948532757616491</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="13">
         <v>0.85626428171917879</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="13">
         <v>0.85169936924774559</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="13">
         <v>0.82683386757671384</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="13">
         <v>0.19449805906349099</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="13">
         <v>17051</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="13">
         <v>0.76538623122386951</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="13">
         <v>0.73712390381213222</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="13">
         <v>0.70046038020394907</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="13">
         <v>0.73712390381213222</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="13">
         <v>0.70601696423420979</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="13">
         <v>0.68621254000645648</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="13">
         <v>0.70929594677452745</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="13">
         <v>0.65261958310931611</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="13">
         <v>0.73695971087390943</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="13">
         <v>8754</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="13">
         <v>1.0984893140472221</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="13">
         <v>0.62271358286174061</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="13">
         <v>0.54353378471931546</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="13">
         <v>0.62271358286174061</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="13">
         <v>0.55899802520945119</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="13">
         <v>0.5277364267170338</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="13">
         <v>0.56383222089535001</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="13">
         <v>0.48745664106132541</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="13">
         <v>0.79862720470768211</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="13">
         <v>10410</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="13" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="13">
         <v>0.77808228016504621</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="13">
         <v>0.72068339019185623</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="13">
         <v>0.7204365356861292</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="13">
         <v>0.72068339019185623</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="13">
         <v>0.69384304153120013</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="13">
         <v>0.69590831978014089</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="13">
         <v>0.72307480183161998</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="13">
         <v>0.66768890924934388</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="13">
         <v>0.70849032962439984</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="13">
         <v>11329</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="13" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="13">
         <v>1.089717375384246</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="13">
         <v>0.62158054694573561</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="13">
         <v>0.54106929752713606</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="13">
         <v>0.62158054694573561</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="13">
         <v>0.55793918724963487</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="13">
         <v>0.5276049102237923</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="13">
         <v>0.55984943048524038</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="13">
         <v>0.4851435141629154</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="13">
         <v>1.014923522745117</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="13">
         <v>12015</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="13" t="s">
         <v>353</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G13">
+    <cfRule type="top10" dxfId="4" priority="2" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="top10" dxfId="0" priority="1" rank="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A336D564-D0D2-47EE-AEE8-619662B8B917}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.45696485792684599</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.86352945666884595</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.86481731337750301</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.86352945666884595</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.86341735445590195</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.86380998515474505</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.86159117736568602</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.83231323637855104</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.20431308529962</v>
+      </c>
+      <c r="K2" s="4">
+        <v>23095</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.47288766240310998</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.86502617914725799</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.86613054945666801</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.86502617914725799</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.865067533765285</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.86318773452013897</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.859496469332659</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.83394732346789202</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.17406086347656999</v>
+      </c>
+      <c r="K3" s="4">
+        <v>25037</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.45102719904401101</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.862118403088587</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.864157554090905</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.862118403088587</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.86211908217972399</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.86056992930312903</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.85835820914421801</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.83054277919486896</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.22386058263657399</v>
+      </c>
+      <c r="K4" s="4">
+        <v>27675</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.484686578712545</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.86194740583774898</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.86315246558714698</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.86194740583774898</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.86172510787742895</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.86228490640987898</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.86027183653431405</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.83046578077070099</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.164953272257195</v>
+      </c>
+      <c r="K5" s="4">
+        <v>32607</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6352,7 +6641,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H2:H37">
-    <cfRule type="top10" dxfId="17" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="23" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7787,7 +8076,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G37">
-    <cfRule type="top10" dxfId="16" priority="1" rank="5"/>
+    <cfRule type="top10" dxfId="22" priority="1" rank="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8308,7 +8597,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="15" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="21" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8320,7 +8609,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8829,7 +9118,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="14" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="20" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9353,25 +9642,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B13">
-    <cfRule type="top10" dxfId="13" priority="7" bottom="1" rank="3"/>
+    <cfRule type="top10" dxfId="19" priority="7" bottom="1" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="12" priority="6" rank="3"/>
+    <cfRule type="top10" dxfId="18" priority="6" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D13">
-    <cfRule type="top10" dxfId="11" priority="5" rank="3"/>
+    <cfRule type="top10" dxfId="17" priority="5" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E13">
-    <cfRule type="top10" dxfId="10" priority="4" rank="3"/>
+    <cfRule type="top10" dxfId="16" priority="4" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F13">
-    <cfRule type="top10" dxfId="9" priority="3" rank="3"/>
+    <cfRule type="top10" dxfId="15" priority="3" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="8" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="14" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H13">
-    <cfRule type="top10" dxfId="7" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="13" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9860,10 +10149,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="top10" dxfId="6" priority="2" rank="3"/>
+    <cfRule type="top10" dxfId="12" priority="2" rank="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="5" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="11" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10390,7 +10679,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="4" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="10" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10402,7 +10691,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -10881,7 +11170,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G2:G13">
-    <cfRule type="top10" dxfId="3" priority="1" rank="3"/>
+    <cfRule type="top10" dxfId="9" priority="1" rank="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
